--- a/Results/NoPrefChange.xlsx
+++ b/Results/NoPrefChange.xlsx
@@ -656,160 +656,160 @@
         <v>2016</v>
       </c>
       <c r="B4">
-        <v>1374135.779181494</v>
+        <v>1297265.205651887</v>
       </c>
       <c r="C4">
-        <v>4593.786652345638</v>
+        <v>4336.805486446003</v>
       </c>
       <c r="D4">
-        <v>33071.92923323608</v>
+        <v>31221.85138328463</v>
       </c>
       <c r="E4">
-        <v>28767.10843464127</v>
+        <v>27157.84670253174</v>
       </c>
       <c r="F4">
-        <v>5681.806910280421</v>
+        <v>5363.96076836721</v>
       </c>
       <c r="G4">
-        <v>11809.42385438172</v>
+        <v>11148.79249720879</v>
       </c>
       <c r="H4">
-        <v>27740.49198327348</v>
+        <v>26188.6602348724</v>
       </c>
       <c r="I4">
-        <v>26626.36935812765</v>
+        <v>25136.86277909831</v>
       </c>
       <c r="J4">
-        <v>44778.32347959524</v>
+        <v>42273.37785506527</v>
       </c>
       <c r="K4">
-        <v>94415.71185451385</v>
+        <v>89133.99950088764</v>
       </c>
       <c r="L4">
-        <v>42258.58263071291</v>
+        <v>39894.59390952106</v>
       </c>
       <c r="M4">
-        <v>24813.69219198055</v>
+        <v>23425.58864422135</v>
       </c>
       <c r="N4">
-        <v>77579.11006136121</v>
+        <v>73239.25458660923</v>
       </c>
       <c r="O4">
-        <v>1374135.779181494</v>
+        <v>1297265.205651887</v>
       </c>
       <c r="P4">
-        <v>4593.786652345638</v>
+        <v>4336.805486446003</v>
       </c>
       <c r="Q4">
-        <v>33071.92923323608</v>
+        <v>31221.85138328463</v>
       </c>
       <c r="R4">
-        <v>28767.10843464127</v>
+        <v>27157.84670253174</v>
       </c>
       <c r="S4">
-        <v>5681.806910280421</v>
+        <v>5363.96076836721</v>
       </c>
       <c r="T4">
-        <v>11809.42385438172</v>
+        <v>11148.79249720879</v>
       </c>
       <c r="U4">
-        <v>27740.49198327348</v>
+        <v>26188.6602348724</v>
       </c>
       <c r="V4">
-        <v>26626.36935812765</v>
+        <v>25136.86277909831</v>
       </c>
       <c r="W4">
-        <v>44778.32347959524</v>
+        <v>42273.37785506527</v>
       </c>
       <c r="X4">
-        <v>94415.71185451385</v>
+        <v>89133.99950088764</v>
       </c>
       <c r="Y4">
-        <v>42258.58263071291</v>
+        <v>39894.59390952106</v>
       </c>
       <c r="Z4">
-        <v>24813.69219198055</v>
+        <v>23425.58864422135</v>
       </c>
       <c r="AA4">
-        <v>77579.11006136121</v>
+        <v>73239.25458660923</v>
       </c>
       <c r="AB4">
-        <v>1374135.779181494</v>
+        <v>1297265.205651887</v>
       </c>
       <c r="AC4">
-        <v>4593.786652345638</v>
+        <v>4336.805486446003</v>
       </c>
       <c r="AD4">
-        <v>33071.92923323608</v>
+        <v>31221.85138328463</v>
       </c>
       <c r="AE4">
-        <v>28767.10843464127</v>
+        <v>27157.84670253174</v>
       </c>
       <c r="AF4">
-        <v>5681.806910280421</v>
+        <v>5363.96076836721</v>
       </c>
       <c r="AG4">
-        <v>11809.42385438172</v>
+        <v>11148.79249720879</v>
       </c>
       <c r="AH4">
-        <v>27740.49198327348</v>
+        <v>26188.6602348724</v>
       </c>
       <c r="AI4">
-        <v>26626.36935812765</v>
+        <v>25136.86277909831</v>
       </c>
       <c r="AJ4">
-        <v>44778.32347959524</v>
+        <v>42273.37785506527</v>
       </c>
       <c r="AK4">
-        <v>94415.71185451385</v>
+        <v>89133.99950088764</v>
       </c>
       <c r="AL4">
-        <v>42258.58263071291</v>
+        <v>39894.59390952106</v>
       </c>
       <c r="AM4">
-        <v>24813.69219198055</v>
+        <v>23425.58864422135</v>
       </c>
       <c r="AN4">
-        <v>77579.11006136121</v>
+        <v>73239.25458660923</v>
       </c>
       <c r="AO4">
-        <v>1374135.779181494</v>
+        <v>1297265.205651887</v>
       </c>
       <c r="AP4">
-        <v>4593.786652345638</v>
+        <v>4336.805486446003</v>
       </c>
       <c r="AQ4">
-        <v>33071.92923323608</v>
+        <v>31221.85138328463</v>
       </c>
       <c r="AR4">
-        <v>28767.10843464127</v>
+        <v>27157.84670253174</v>
       </c>
       <c r="AS4">
-        <v>5681.806910280421</v>
+        <v>5363.96076836721</v>
       </c>
       <c r="AT4">
-        <v>11809.42385438172</v>
+        <v>11148.79249720879</v>
       </c>
       <c r="AU4">
-        <v>27740.49198327348</v>
+        <v>26188.6602348724</v>
       </c>
       <c r="AV4">
-        <v>26626.36935812765</v>
+        <v>25136.86277909831</v>
       </c>
       <c r="AW4">
-        <v>44778.32347959524</v>
+        <v>42273.37785506527</v>
       </c>
       <c r="AX4">
-        <v>94415.71185451385</v>
+        <v>89133.99950088764</v>
       </c>
       <c r="AY4">
-        <v>42258.58263071291</v>
+        <v>39894.59390952106</v>
       </c>
       <c r="AZ4">
-        <v>24813.69219198055</v>
+        <v>23425.58864422135</v>
       </c>
       <c r="BA4">
-        <v>77579.11006136121</v>
+        <v>73239.25458660923</v>
       </c>
     </row>
     <row r="5" spans="1:53">
@@ -817,160 +817,160 @@
         <v>2017</v>
       </c>
       <c r="B5">
-        <v>1397718.249192623</v>
+        <v>1310121.45378728</v>
       </c>
       <c r="C5">
-        <v>4672.623720419797</v>
+        <v>4379.784398703706</v>
       </c>
       <c r="D5">
-        <v>33639.49889496018</v>
+        <v>31531.26835283036</v>
       </c>
       <c r="E5">
-        <v>29260.80016601508</v>
+        <v>27426.9882893943</v>
       </c>
       <c r="F5">
-        <v>5779.316227118477</v>
+        <v>5417.119066551883</v>
       </c>
       <c r="G5">
-        <v>12012.09333443889</v>
+        <v>11259.28003832965</v>
       </c>
       <c r="H5">
-        <v>28216.56525798234</v>
+        <v>26448.19692239487</v>
       </c>
       <c r="I5">
-        <v>27083.32242376087</v>
+        <v>25385.9758701035</v>
       </c>
       <c r="J5">
-        <v>45546.79446085095</v>
+        <v>42692.31843318157</v>
       </c>
       <c r="K5">
-        <v>96036.04350377398</v>
+        <v>90017.34148053137</v>
       </c>
       <c r="L5">
-        <v>42983.81064143772</v>
+        <v>40289.96009704155</v>
       </c>
       <c r="M5">
-        <v>25239.53668336793</v>
+        <v>23657.74254692039</v>
       </c>
       <c r="N5">
-        <v>78910.49744260086</v>
+        <v>73965.07535642131</v>
       </c>
       <c r="O5">
-        <v>1397718.249192623</v>
+        <v>1310121.45378728</v>
       </c>
       <c r="P5">
-        <v>4672.623720419797</v>
+        <v>4379.784398703706</v>
       </c>
       <c r="Q5">
-        <v>33639.49889496018</v>
+        <v>31531.26835283036</v>
       </c>
       <c r="R5">
-        <v>29260.80016601508</v>
+        <v>27426.9882893943</v>
       </c>
       <c r="S5">
-        <v>5779.316227118477</v>
+        <v>5417.119066551883</v>
       </c>
       <c r="T5">
-        <v>12012.09333443889</v>
+        <v>11259.28003832965</v>
       </c>
       <c r="U5">
-        <v>28216.56525798234</v>
+        <v>26448.19692239487</v>
       </c>
       <c r="V5">
-        <v>27083.32242376087</v>
+        <v>25385.9758701035</v>
       </c>
       <c r="W5">
-        <v>45546.79446085095</v>
+        <v>42692.31843318157</v>
       </c>
       <c r="X5">
-        <v>96036.04350377398</v>
+        <v>90017.34148053137</v>
       </c>
       <c r="Y5">
-        <v>42983.81064143772</v>
+        <v>40289.96009704155</v>
       </c>
       <c r="Z5">
-        <v>25239.53668336793</v>
+        <v>23657.74254692039</v>
       </c>
       <c r="AA5">
-        <v>78910.49744260086</v>
+        <v>73965.07535642131</v>
       </c>
       <c r="AB5">
-        <v>1397718.249192623</v>
+        <v>1310121.45378728</v>
       </c>
       <c r="AC5">
-        <v>4672.623720419797</v>
+        <v>4379.784398703706</v>
       </c>
       <c r="AD5">
-        <v>33639.49889496018</v>
+        <v>31531.26835283036</v>
       </c>
       <c r="AE5">
-        <v>29260.80016601508</v>
+        <v>27426.9882893943</v>
       </c>
       <c r="AF5">
-        <v>5779.316227118477</v>
+        <v>5417.119066551883</v>
       </c>
       <c r="AG5">
-        <v>12012.09333443889</v>
+        <v>11259.28003832965</v>
       </c>
       <c r="AH5">
-        <v>28216.56525798234</v>
+        <v>26448.19692239487</v>
       </c>
       <c r="AI5">
-        <v>27083.32242376087</v>
+        <v>25385.9758701035</v>
       </c>
       <c r="AJ5">
-        <v>45546.79446085095</v>
+        <v>42692.31843318157</v>
       </c>
       <c r="AK5">
-        <v>96036.04350377398</v>
+        <v>90017.34148053137</v>
       </c>
       <c r="AL5">
-        <v>42983.81064143772</v>
+        <v>40289.96009704155</v>
       </c>
       <c r="AM5">
-        <v>25239.53668336793</v>
+        <v>23657.74254692039</v>
       </c>
       <c r="AN5">
-        <v>78910.49744260086</v>
+        <v>73965.07535642131</v>
       </c>
       <c r="AO5">
-        <v>1397718.249192623</v>
+        <v>1310121.45378728</v>
       </c>
       <c r="AP5">
-        <v>4672.623720419797</v>
+        <v>4379.784398703706</v>
       </c>
       <c r="AQ5">
-        <v>33639.49889496018</v>
+        <v>31531.26835283036</v>
       </c>
       <c r="AR5">
-        <v>29260.80016601508</v>
+        <v>27426.9882893943</v>
       </c>
       <c r="AS5">
-        <v>5779.316227118477</v>
+        <v>5417.119066551883</v>
       </c>
       <c r="AT5">
-        <v>12012.09333443889</v>
+        <v>11259.28003832965</v>
       </c>
       <c r="AU5">
-        <v>28216.56525798234</v>
+        <v>26448.19692239487</v>
       </c>
       <c r="AV5">
-        <v>27083.32242376087</v>
+        <v>25385.9758701035</v>
       </c>
       <c r="AW5">
-        <v>45546.79446085095</v>
+        <v>42692.31843318157</v>
       </c>
       <c r="AX5">
-        <v>96036.04350377398</v>
+        <v>90017.34148053137</v>
       </c>
       <c r="AY5">
-        <v>42983.81064143772</v>
+        <v>40289.96009704155</v>
       </c>
       <c r="AZ5">
-        <v>25239.53668336793</v>
+        <v>23657.74254692039</v>
       </c>
       <c r="BA5">
-        <v>78910.49744260086</v>
+        <v>73965.07535642131</v>
       </c>
     </row>
     <row r="6" spans="1:53">
@@ -978,160 +978,160 @@
         <v>2018</v>
       </c>
       <c r="B6">
-        <v>1408541.340866182</v>
+        <v>1316834.521677206</v>
       </c>
       <c r="C6">
-        <v>4708.805715547471</v>
+        <v>4402.226432552356</v>
       </c>
       <c r="D6">
-        <v>33899.98299510199</v>
+        <v>31692.83470570255</v>
       </c>
       <c r="E6">
-        <v>29487.37824984665</v>
+        <v>27567.52429380111</v>
       </c>
       <c r="F6">
-        <v>5824.067785147227</v>
+        <v>5444.876407641484</v>
       </c>
       <c r="G6">
-        <v>12105.10777953544</v>
+        <v>11316.97263703529</v>
       </c>
       <c r="H6">
-        <v>28435.05741309049</v>
+        <v>26583.71759568276</v>
       </c>
       <c r="I6">
-        <v>27293.03942615835</v>
+        <v>25516.05371821093</v>
       </c>
       <c r="J6">
-        <v>45899.48151503465</v>
+        <v>42911.07405403778</v>
       </c>
       <c r="K6">
-        <v>96779.68901559841</v>
+        <v>90478.59072035004</v>
       </c>
       <c r="L6">
-        <v>43316.65148637905</v>
+        <v>40496.40602358674</v>
       </c>
       <c r="M6">
-        <v>25434.97651502217</v>
+        <v>23778.96492014447</v>
       </c>
       <c r="N6">
-        <v>79521.53299881594</v>
+        <v>74344.07271648732</v>
       </c>
       <c r="O6">
-        <v>1408541.340866182</v>
+        <v>1316834.521677206</v>
       </c>
       <c r="P6">
-        <v>4708.805715547471</v>
+        <v>4402.226432552356</v>
       </c>
       <c r="Q6">
-        <v>33899.98299510199</v>
+        <v>31692.83470570255</v>
       </c>
       <c r="R6">
-        <v>29487.37824984665</v>
+        <v>27567.52429380111</v>
       </c>
       <c r="S6">
-        <v>5824.067785147227</v>
+        <v>5444.876407641484</v>
       </c>
       <c r="T6">
-        <v>12105.10777953544</v>
+        <v>11316.97263703529</v>
       </c>
       <c r="U6">
-        <v>28435.05741309049</v>
+        <v>26583.71759568276</v>
       </c>
       <c r="V6">
-        <v>27293.03942615835</v>
+        <v>25516.05371821093</v>
       </c>
       <c r="W6">
-        <v>45899.48151503465</v>
+        <v>42911.07405403778</v>
       </c>
       <c r="X6">
-        <v>96779.68901559841</v>
+        <v>90478.59072035004</v>
       </c>
       <c r="Y6">
-        <v>43316.65148637905</v>
+        <v>40496.40602358674</v>
       </c>
       <c r="Z6">
-        <v>25434.97651502217</v>
+        <v>23778.96492014447</v>
       </c>
       <c r="AA6">
-        <v>79521.53299881594</v>
+        <v>74344.07271648732</v>
       </c>
       <c r="AB6">
-        <v>1408541.340866182</v>
+        <v>1316834.521677206</v>
       </c>
       <c r="AC6">
-        <v>4708.805715547471</v>
+        <v>4402.226432552356</v>
       </c>
       <c r="AD6">
-        <v>33899.98299510199</v>
+        <v>31692.83470570255</v>
       </c>
       <c r="AE6">
-        <v>29487.37824984665</v>
+        <v>27567.52429380111</v>
       </c>
       <c r="AF6">
-        <v>5824.067785147227</v>
+        <v>5444.876407641484</v>
       </c>
       <c r="AG6">
-        <v>12105.10777953544</v>
+        <v>11316.97263703529</v>
       </c>
       <c r="AH6">
-        <v>28435.05741309049</v>
+        <v>26583.71759568276</v>
       </c>
       <c r="AI6">
-        <v>27293.03942615835</v>
+        <v>25516.05371821093</v>
       </c>
       <c r="AJ6">
-        <v>45899.48151503465</v>
+        <v>42911.07405403778</v>
       </c>
       <c r="AK6">
-        <v>96779.68901559841</v>
+        <v>90478.59072035004</v>
       </c>
       <c r="AL6">
-        <v>43316.65148637905</v>
+        <v>40496.40602358674</v>
       </c>
       <c r="AM6">
-        <v>25434.97651502217</v>
+        <v>23778.96492014447</v>
       </c>
       <c r="AN6">
-        <v>79521.53299881594</v>
+        <v>74344.07271648732</v>
       </c>
       <c r="AO6">
-        <v>1408541.340866182</v>
+        <v>1316834.521677206</v>
       </c>
       <c r="AP6">
-        <v>4708.805715547471</v>
+        <v>4402.226432552356</v>
       </c>
       <c r="AQ6">
-        <v>33899.98299510199</v>
+        <v>31692.83470570255</v>
       </c>
       <c r="AR6">
-        <v>29487.37824984665</v>
+        <v>27567.52429380111</v>
       </c>
       <c r="AS6">
-        <v>5824.067785147227</v>
+        <v>5444.876407641484</v>
       </c>
       <c r="AT6">
-        <v>12105.10777953544</v>
+        <v>11316.97263703529</v>
       </c>
       <c r="AU6">
-        <v>28435.05741309049</v>
+        <v>26583.71759568276</v>
       </c>
       <c r="AV6">
-        <v>27293.03942615835</v>
+        <v>25516.05371821093</v>
       </c>
       <c r="AW6">
-        <v>45899.48151503465</v>
+        <v>42911.07405403778</v>
       </c>
       <c r="AX6">
-        <v>96779.68901559841</v>
+        <v>90478.59072035004</v>
       </c>
       <c r="AY6">
-        <v>43316.65148637905</v>
+        <v>40496.40602358674</v>
       </c>
       <c r="AZ6">
-        <v>25434.97651502217</v>
+        <v>23778.96492014447</v>
       </c>
       <c r="BA6">
-        <v>79521.53299881594</v>
+        <v>74344.07271648732</v>
       </c>
     </row>
     <row r="7" spans="1:53">
@@ -1139,160 +1139,160 @@
         <v>2019</v>
       </c>
       <c r="B7">
-        <v>1419748.605032792</v>
+        <v>1323820.887345211</v>
       </c>
       <c r="C7">
-        <v>4746.272013505702</v>
+        <v>4425.582110965155</v>
       </c>
       <c r="D7">
-        <v>34169.71314333891</v>
+        <v>31860.97863621526</v>
       </c>
       <c r="E7">
-        <v>29721.99886625223</v>
+        <v>27713.78170284349</v>
       </c>
       <c r="F7">
-        <v>5870.407828068686</v>
+        <v>5473.763786408274</v>
       </c>
       <c r="G7">
-        <v>12201.42383126532</v>
+        <v>11377.01397692698</v>
       </c>
       <c r="H7">
-        <v>28661.30508561194</v>
+        <v>26724.75549291364</v>
       </c>
       <c r="I7">
-        <v>27510.20046636648</v>
+        <v>25651.42720572613</v>
       </c>
       <c r="J7">
-        <v>46264.68741955789</v>
+        <v>43138.73550246828</v>
       </c>
       <c r="K7">
-        <v>97549.73069580438</v>
+        <v>90958.6180202821</v>
       </c>
       <c r="L7">
-        <v>43661.30672789457</v>
+        <v>40711.25663394314</v>
       </c>
       <c r="M7">
-        <v>25637.35360727001</v>
+        <v>23905.12241480612</v>
       </c>
       <c r="N7">
-        <v>80154.25764905829</v>
+        <v>74738.49955501255</v>
       </c>
       <c r="O7">
-        <v>1419748.605032792</v>
+        <v>1323820.887345211</v>
       </c>
       <c r="P7">
-        <v>4746.272013505702</v>
+        <v>4425.582110965155</v>
       </c>
       <c r="Q7">
-        <v>34169.71314333891</v>
+        <v>31860.97863621526</v>
       </c>
       <c r="R7">
-        <v>29721.99886625223</v>
+        <v>27713.78170284349</v>
       </c>
       <c r="S7">
-        <v>5870.407828068686</v>
+        <v>5473.763786408274</v>
       </c>
       <c r="T7">
-        <v>12201.42383126532</v>
+        <v>11377.01397692698</v>
       </c>
       <c r="U7">
-        <v>28661.30508561194</v>
+        <v>26724.75549291364</v>
       </c>
       <c r="V7">
-        <v>27510.20046636648</v>
+        <v>25651.42720572613</v>
       </c>
       <c r="W7">
-        <v>46264.68741955789</v>
+        <v>43138.73550246828</v>
       </c>
       <c r="X7">
-        <v>97549.73069580438</v>
+        <v>90958.6180202821</v>
       </c>
       <c r="Y7">
-        <v>43661.30672789457</v>
+        <v>40711.25663394314</v>
       </c>
       <c r="Z7">
-        <v>25637.35360727001</v>
+        <v>23905.12241480612</v>
       </c>
       <c r="AA7">
-        <v>80154.25764905829</v>
+        <v>74738.49955501255</v>
       </c>
       <c r="AB7">
-        <v>1419748.605032792</v>
+        <v>1323820.887345211</v>
       </c>
       <c r="AC7">
-        <v>4746.272013505702</v>
+        <v>4425.582110965155</v>
       </c>
       <c r="AD7">
-        <v>34169.71314333891</v>
+        <v>31860.97863621526</v>
       </c>
       <c r="AE7">
-        <v>29721.99886625223</v>
+        <v>27713.78170284349</v>
       </c>
       <c r="AF7">
-        <v>5870.407828068686</v>
+        <v>5473.763786408274</v>
       </c>
       <c r="AG7">
-        <v>12201.42383126532</v>
+        <v>11377.01397692698</v>
       </c>
       <c r="AH7">
-        <v>28661.30508561194</v>
+        <v>26724.75549291364</v>
       </c>
       <c r="AI7">
-        <v>27510.20046636648</v>
+        <v>25651.42720572613</v>
       </c>
       <c r="AJ7">
-        <v>46264.68741955789</v>
+        <v>43138.73550246828</v>
       </c>
       <c r="AK7">
-        <v>97549.73069580438</v>
+        <v>90958.6180202821</v>
       </c>
       <c r="AL7">
-        <v>43661.30672789457</v>
+        <v>40711.25663394314</v>
       </c>
       <c r="AM7">
-        <v>25637.35360727001</v>
+        <v>23905.12241480612</v>
       </c>
       <c r="AN7">
-        <v>80154.25764905829</v>
+        <v>74738.49955501255</v>
       </c>
       <c r="AO7">
-        <v>1419748.605032792</v>
+        <v>1323820.887345211</v>
       </c>
       <c r="AP7">
-        <v>4746.272013505702</v>
+        <v>4425.582110965155</v>
       </c>
       <c r="AQ7">
-        <v>34169.71314333891</v>
+        <v>31860.97863621526</v>
       </c>
       <c r="AR7">
-        <v>29721.99886625223</v>
+        <v>27713.78170284349</v>
       </c>
       <c r="AS7">
-        <v>5870.407828068686</v>
+        <v>5473.763786408274</v>
       </c>
       <c r="AT7">
-        <v>12201.42383126532</v>
+        <v>11377.01397692698</v>
       </c>
       <c r="AU7">
-        <v>28661.30508561194</v>
+        <v>26724.75549291364</v>
       </c>
       <c r="AV7">
-        <v>27510.20046636648</v>
+        <v>25651.42720572613</v>
       </c>
       <c r="AW7">
-        <v>46264.68741955789</v>
+        <v>43138.73550246828</v>
       </c>
       <c r="AX7">
-        <v>97549.73069580438</v>
+        <v>90958.6180202821</v>
       </c>
       <c r="AY7">
-        <v>43661.30672789457</v>
+        <v>40711.25663394314</v>
       </c>
       <c r="AZ7">
-        <v>25637.35360727001</v>
+        <v>23905.12241480612</v>
       </c>
       <c r="BA7">
-        <v>80154.25764905829</v>
+        <v>74738.49955501255</v>
       </c>
     </row>
     <row r="8" spans="1:53">
@@ -1300,160 +1300,160 @@
         <v>2020</v>
       </c>
       <c r="B8">
-        <v>1394993.153337978</v>
+        <v>1330865.786618181</v>
       </c>
       <c r="C8">
-        <v>4663.513624348438</v>
+        <v>4449.133469380818</v>
       </c>
       <c r="D8">
-        <v>33573.91281633243</v>
+        <v>32030.53132070306</v>
       </c>
       <c r="E8">
-        <v>29203.75112535037</v>
+        <v>27861.2644948405</v>
       </c>
       <c r="F8">
-        <v>5768.04844070852</v>
+        <v>5502.893191215149</v>
       </c>
       <c r="G8">
-        <v>11988.67366043077</v>
+        <v>11437.55835892064</v>
       </c>
       <c r="H8">
-        <v>28161.55213565868</v>
+        <v>26866.97504265945</v>
       </c>
       <c r="I8">
-        <v>27030.51875627665</v>
+        <v>25787.93488784517</v>
       </c>
       <c r="J8">
-        <v>45457.99302976902</v>
+        <v>43368.30435825785</v>
       </c>
       <c r="K8">
-        <v>95848.80446314487</v>
+        <v>91442.66711490432</v>
       </c>
       <c r="L8">
-        <v>42900.00619496685</v>
+        <v>40927.90731909536</v>
       </c>
       <c r="M8">
-        <v>25190.32779822335</v>
+        <v>24032.33689006496</v>
       </c>
       <c r="N8">
-        <v>78756.64764519499</v>
+        <v>75136.23100509851</v>
       </c>
       <c r="O8">
-        <v>1298218.124441985</v>
+        <v>1232120.350888776</v>
       </c>
       <c r="P8">
-        <v>4339.991129149615</v>
+        <v>4119.023831376932</v>
       </c>
       <c r="Q8">
-        <v>31244.78569826911</v>
+        <v>29653.98155609894</v>
       </c>
       <c r="R8">
-        <v>27177.79576330105</v>
+        <v>25794.05927386466</v>
       </c>
       <c r="S8">
-        <v>5367.900917986008</v>
+        <v>5094.598386883534</v>
       </c>
       <c r="T8">
-        <v>11156.981951309</v>
+        <v>10588.93282869193</v>
       </c>
       <c r="U8">
-        <v>26207.89737028356</v>
+        <v>24873.54250874493</v>
       </c>
       <c r="V8">
-        <v>25155.3273064455</v>
+        <v>23874.5632371001</v>
       </c>
       <c r="W8">
-        <v>42304.43017644374</v>
+        <v>40150.53277395444</v>
       </c>
       <c r="X8">
-        <v>89199.47374824352</v>
+        <v>84657.95140629426</v>
       </c>
       <c r="Y8">
-        <v>39923.89887198681</v>
+        <v>37891.20438304176</v>
       </c>
       <c r="Z8">
-        <v>23442.79613848769</v>
+        <v>22249.22427144738</v>
       </c>
       <c r="AA8">
-        <v>73293.0531942989</v>
+        <v>69561.39397474959</v>
       </c>
       <c r="AB8">
-        <v>1298218.124441985</v>
+        <v>1232120.350888776</v>
       </c>
       <c r="AC8">
-        <v>4339.991129149615</v>
+        <v>4119.023831376932</v>
       </c>
       <c r="AD8">
-        <v>31244.78569826911</v>
+        <v>29653.98155609894</v>
       </c>
       <c r="AE8">
-        <v>27177.79576330105</v>
+        <v>25794.05927386466</v>
       </c>
       <c r="AF8">
-        <v>5367.900917986008</v>
+        <v>5094.598386883534</v>
       </c>
       <c r="AG8">
-        <v>11156.981951309</v>
+        <v>10588.93282869193</v>
       </c>
       <c r="AH8">
-        <v>26207.89737028356</v>
+        <v>24873.54250874493</v>
       </c>
       <c r="AI8">
-        <v>25155.3273064455</v>
+        <v>23874.5632371001</v>
       </c>
       <c r="AJ8">
-        <v>42304.43017644374</v>
+        <v>40150.53277395444</v>
       </c>
       <c r="AK8">
-        <v>89199.47374824352</v>
+        <v>84657.95140629426</v>
       </c>
       <c r="AL8">
-        <v>39923.89887198681</v>
+        <v>37891.20438304176</v>
       </c>
       <c r="AM8">
-        <v>23442.79613848769</v>
+        <v>22249.22427144738</v>
       </c>
       <c r="AN8">
-        <v>73293.0531942989</v>
+        <v>69561.39397474959</v>
       </c>
       <c r="AO8">
-        <v>1298218.124441985</v>
+        <v>1232120.350888776</v>
       </c>
       <c r="AP8">
-        <v>4339.991129149615</v>
+        <v>4119.023831376932</v>
       </c>
       <c r="AQ8">
-        <v>31244.78569826911</v>
+        <v>29653.98155609894</v>
       </c>
       <c r="AR8">
-        <v>27177.79576330105</v>
+        <v>25794.05927386466</v>
       </c>
       <c r="AS8">
-        <v>5367.900917986008</v>
+        <v>5094.598386883534</v>
       </c>
       <c r="AT8">
-        <v>11156.981951309</v>
+        <v>10588.93282869193</v>
       </c>
       <c r="AU8">
-        <v>26207.89737028356</v>
+        <v>24873.54250874493</v>
       </c>
       <c r="AV8">
-        <v>25155.3273064455</v>
+        <v>23874.5632371001</v>
       </c>
       <c r="AW8">
-        <v>42304.43017644374</v>
+        <v>40150.53277395444</v>
       </c>
       <c r="AX8">
-        <v>89199.47374824352</v>
+        <v>84657.95140629426</v>
       </c>
       <c r="AY8">
-        <v>39923.89887198681</v>
+        <v>37891.20438304176</v>
       </c>
       <c r="AZ8">
-        <v>23442.79613848769</v>
+        <v>22249.22427144738</v>
       </c>
       <c r="BA8">
-        <v>73293.0531942989</v>
+        <v>69561.39397474959</v>
       </c>
     </row>
     <row r="9" spans="1:53">
@@ -1461,160 +1461,160 @@
         <v>2021</v>
       </c>
       <c r="B9">
-        <v>1433053.596991533</v>
+        <v>1336226.905001086</v>
       </c>
       <c r="C9">
-        <v>4790.75109293557</v>
+        <v>4467.055886104227</v>
       </c>
       <c r="D9">
-        <v>34489.93022754173</v>
+        <v>32159.55971109697</v>
       </c>
       <c r="E9">
-        <v>30000.53476655981</v>
+        <v>27973.49785357295</v>
       </c>
       <c r="F9">
-        <v>5925.421602105946</v>
+        <v>5525.060461681659</v>
       </c>
       <c r="G9">
-        <v>12315.76790977663</v>
+        <v>11483.63220422504</v>
       </c>
       <c r="H9">
-        <v>28929.90083019611</v>
+        <v>26975.20311136673</v>
       </c>
       <c r="I9">
-        <v>27768.00878164912</v>
+        <v>25891.81626579817</v>
       </c>
       <c r="J9">
-        <v>46698.25100391988</v>
+        <v>43543.00462936582</v>
       </c>
       <c r="K9">
-        <v>98463.9054855413</v>
+        <v>91811.02504293954</v>
       </c>
       <c r="L9">
-        <v>44070.47306400758</v>
+        <v>41092.77695396653</v>
       </c>
       <c r="M9">
-        <v>25877.61077841917</v>
+        <v>24129.14620350662</v>
       </c>
       <c r="N9">
-        <v>80905.41299423648</v>
+        <v>75438.90181782361</v>
       </c>
       <c r="O9">
-        <v>1370752.402942997</v>
+        <v>1295503.845241315</v>
       </c>
       <c r="P9">
-        <v>4582.475900642827</v>
+        <v>4330.917193551924</v>
       </c>
       <c r="Q9">
-        <v>32990.50003153404</v>
+        <v>31179.45994880257</v>
       </c>
       <c r="R9">
-        <v>28696.27849730712</v>
+        <v>27120.97316594892</v>
       </c>
       <c r="S9">
-        <v>5667.817251628625</v>
+        <v>5356.67785651534</v>
       </c>
       <c r="T9">
-        <v>11780.34687038597</v>
+        <v>11133.65523641993</v>
       </c>
       <c r="U9">
-        <v>27672.1897653687</v>
+        <v>26153.10261015338</v>
       </c>
       <c r="V9">
-        <v>26560.81031602382</v>
+        <v>25102.7332312216</v>
       </c>
       <c r="W9">
-        <v>44668.07097183299</v>
+        <v>42215.98122263369</v>
       </c>
       <c r="X9">
-        <v>94183.24292322702</v>
+        <v>89012.97791079739</v>
       </c>
       <c r="Y9">
-        <v>42154.5341905868</v>
+        <v>39840.42706838332</v>
       </c>
       <c r="Z9">
-        <v>24752.59629605553</v>
+        <v>23393.78257692491</v>
       </c>
       <c r="AA9">
-        <v>77388.09595521391</v>
+        <v>73139.81406899834</v>
       </c>
       <c r="AB9">
-        <v>1209066.635751306</v>
+        <v>1158204.140593811</v>
       </c>
       <c r="AC9">
-        <v>4041.954410370682</v>
+        <v>3871.919210866111</v>
       </c>
       <c r="AD9">
-        <v>29099.13767011571</v>
+        <v>27875.00766348971</v>
       </c>
       <c r="AE9">
-        <v>25311.43686258012</v>
+        <v>24246.64622426081</v>
       </c>
       <c r="AF9">
-        <v>4999.275377352599</v>
+        <v>4788.968011196907</v>
       </c>
       <c r="AG9">
-        <v>10390.80750687058</v>
+        <v>9953.691486236812</v>
       </c>
       <c r="AH9">
-        <v>24408.14352150904</v>
+        <v>23381.3522389138</v>
       </c>
       <c r="AI9">
-        <v>23427.85575474855</v>
+        <v>22442.30279625844</v>
       </c>
       <c r="AJ9">
-        <v>39399.29208182504</v>
+        <v>37741.85960997843</v>
       </c>
       <c r="AK9">
-        <v>83073.95005899511</v>
+        <v>79579.23086184845</v>
       </c>
       <c r="AL9">
-        <v>37182.23708822173</v>
+        <v>35618.07073218848</v>
       </c>
       <c r="AM9">
-        <v>21832.92786175522</v>
+        <v>20914.46964381555</v>
       </c>
       <c r="AN9">
-        <v>68259.85832516591</v>
+        <v>65388.3319668543</v>
       </c>
       <c r="AO9">
-        <v>1204486.154864141</v>
+        <v>1154393.664599952</v>
       </c>
       <c r="AP9">
-        <v>4026.641693622039</v>
+        <v>3859.180648909667</v>
       </c>
       <c r="AQ9">
-        <v>28988.89722513966</v>
+        <v>27783.29926441949</v>
       </c>
       <c r="AR9">
-        <v>25215.54590889113</v>
+        <v>24166.87508536489</v>
       </c>
       <c r="AS9">
-        <v>4980.335904011323</v>
+        <v>4773.212371061942</v>
       </c>
       <c r="AT9">
-        <v>10351.44251756389</v>
+        <v>9920.943975561247</v>
       </c>
       <c r="AU9">
-        <v>24315.67464379331</v>
+        <v>23304.42790555347</v>
       </c>
       <c r="AV9">
-        <v>23339.10064205355</v>
+        <v>22368.46792289301</v>
       </c>
       <c r="AW9">
-        <v>39250.03008169014</v>
+        <v>37617.68940114661</v>
       </c>
       <c r="AX9">
-        <v>82759.22907570533</v>
+        <v>79317.41626614743</v>
       </c>
       <c r="AY9">
-        <v>37041.3742761247</v>
+        <v>35500.88776010639</v>
       </c>
       <c r="AZ9">
-        <v>21750.21504359902</v>
+        <v>20845.66132090523</v>
       </c>
       <c r="BA9">
-        <v>68001.25969447532</v>
+        <v>65173.20523702717</v>
       </c>
     </row>
     <row r="10" spans="1:53">
@@ -1622,160 +1622,160 @@
         <v>2022</v>
       </c>
       <c r="B10">
-        <v>1438766.357584371</v>
+        <v>1341553.673254558</v>
       </c>
       <c r="C10">
-        <v>4809.849062551826</v>
+        <v>4484.863469076497</v>
       </c>
       <c r="D10">
-        <v>34627.42174542163</v>
+        <v>32287.76138184133</v>
       </c>
       <c r="E10">
-        <v>30120.12964642907</v>
+        <v>28085.01210294727</v>
       </c>
       <c r="F10">
-        <v>5949.042850533441</v>
+        <v>5547.085700475795</v>
       </c>
       <c r="G10">
-        <v>12364.86379407097</v>
+        <v>11529.41084199313</v>
       </c>
       <c r="H10">
-        <v>29045.22770824475</v>
+        <v>27082.73773368783</v>
       </c>
       <c r="I10">
-        <v>27878.70386426317</v>
+        <v>25995.0320477834</v>
       </c>
       <c r="J10">
-        <v>46884.41007616225</v>
+        <v>43716.58554878333</v>
       </c>
       <c r="K10">
-        <v>98856.42445360744</v>
+        <v>92177.02280251696</v>
       </c>
       <c r="L10">
-        <v>44246.15669674555</v>
+        <v>41256.59022468137</v>
       </c>
       <c r="M10">
-        <v>25980.76993129528</v>
+        <v>24225.33523360262</v>
       </c>
       <c r="N10">
-        <v>81227.93635000696</v>
+        <v>75739.63333713071</v>
       </c>
       <c r="O10">
-        <v>1407451.712797718</v>
+        <v>1332105.022088665</v>
       </c>
       <c r="P10">
-        <v>4705.16304867803</v>
+        <v>4453.276279319743</v>
       </c>
       <c r="Q10">
-        <v>33873.7584378808</v>
+        <v>32060.356544967</v>
       </c>
       <c r="R10">
-        <v>29464.56722252762</v>
+        <v>27887.20750694714</v>
       </c>
       <c r="S10">
-        <v>5819.562366990715</v>
+        <v>5508.017209355379</v>
       </c>
       <c r="T10">
-        <v>12095.74343585188</v>
+        <v>11448.20843960994</v>
       </c>
       <c r="U10">
-        <v>28413.06044659275</v>
+        <v>26891.99222229714</v>
       </c>
       <c r="V10">
-        <v>27271.92590895468</v>
+        <v>25811.94731941032</v>
       </c>
       <c r="W10">
-        <v>45863.97431199012</v>
+        <v>43408.68674812459</v>
       </c>
       <c r="X10">
-        <v>96704.82158888601</v>
+        <v>91527.81394018448</v>
       </c>
       <c r="Y10">
-        <v>43283.14232486419</v>
+        <v>40966.01733363816</v>
       </c>
       <c r="Z10">
-        <v>25415.30036954641</v>
+        <v>24054.71459682718</v>
       </c>
       <c r="AA10">
-        <v>79460.01624251713</v>
+        <v>75206.19409492795</v>
       </c>
       <c r="AB10">
-        <v>1220389.469726179</v>
+        <v>1167940.901495571</v>
       </c>
       <c r="AC10">
-        <v>4079.807062465571</v>
+        <v>3904.469562108859</v>
       </c>
       <c r="AD10">
-        <v>29371.64928767925</v>
+        <v>28109.34656389716</v>
       </c>
       <c r="AE10">
-        <v>25548.47689725313</v>
+        <v>24450.48230866138</v>
       </c>
       <c r="AF10">
-        <v>5046.093280864808</v>
+        <v>4829.22778480408</v>
       </c>
       <c r="AG10">
-        <v>10488.11677402445</v>
+        <v>10037.36992485962</v>
       </c>
       <c r="AH10">
-        <v>24636.7242701269</v>
+        <v>23577.91399200285</v>
       </c>
       <c r="AI10">
-        <v>23647.25616929514</v>
+        <v>22630.97017254671</v>
       </c>
       <c r="AJ10">
-        <v>39768.26400593475</v>
+        <v>38059.14690859032</v>
       </c>
       <c r="AK10">
-        <v>83851.9324433741</v>
+        <v>80248.23550143679</v>
       </c>
       <c r="AL10">
-        <v>37530.44642996961</v>
+        <v>35917.50381686341</v>
       </c>
       <c r="AM10">
-        <v>22037.39187561034</v>
+        <v>21090.29287149329</v>
       </c>
       <c r="AN10">
-        <v>68899.10766023994</v>
+        <v>65938.03692111193</v>
       </c>
       <c r="AO10">
-        <v>1135541.06018716</v>
+        <v>1096703.585263138</v>
       </c>
       <c r="AP10">
-        <v>3796.155696189911</v>
+        <v>3666.320583372275</v>
       </c>
       <c r="AQ10">
-        <v>27329.56535511584</v>
+        <v>26394.84679109596</v>
       </c>
       <c r="AR10">
-        <v>23772.20163050352</v>
+        <v>22959.15107946371</v>
       </c>
       <c r="AS10">
-        <v>4695.260206761857</v>
+        <v>4534.674159338949</v>
       </c>
       <c r="AT10">
-        <v>9758.923307995003</v>
+        <v>9425.151194816423</v>
       </c>
       <c r="AU10">
-        <v>22923.83922610844</v>
+        <v>22139.80414158268</v>
       </c>
       <c r="AV10">
-        <v>22003.1645692778</v>
+        <v>21250.61815579309</v>
       </c>
       <c r="AW10">
-        <v>37003.34835012494</v>
+        <v>35737.76961938668</v>
       </c>
       <c r="AX10">
-        <v>78022.06969784432</v>
+        <v>75353.57951140319</v>
       </c>
       <c r="AY10">
-        <v>34921.11656612972</v>
+        <v>33726.75377599653</v>
       </c>
       <c r="AZ10">
-        <v>20505.22718768236</v>
+        <v>19803.91283223162</v>
       </c>
       <c r="BA10">
-        <v>64108.85024762837</v>
+        <v>61916.21631196975</v>
       </c>
     </row>
     <row r="11" spans="1:53">
@@ -1783,160 +1783,160 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>1445238.006411665</v>
+        <v>1347588.054174367</v>
       </c>
       <c r="C11">
-        <v>4831.484023559246</v>
+        <v>4505.036627322254</v>
       </c>
       <c r="D11">
-        <v>34783.17775969708</v>
+        <v>32432.99347736625</v>
       </c>
       <c r="E11">
-        <v>30255.61161726938</v>
+        <v>28211.34000509934</v>
       </c>
       <c r="F11">
-        <v>5975.801966761192</v>
+        <v>5572.036791720837</v>
       </c>
       <c r="G11">
-        <v>12420.48161961347</v>
+        <v>11581.27075500934</v>
       </c>
       <c r="H11">
-        <v>29175.87471207944</v>
+        <v>27204.55735156408</v>
       </c>
       <c r="I11">
-        <v>28004.10378080872</v>
+        <v>26111.95910670488</v>
       </c>
       <c r="J11">
-        <v>47095.2986863166</v>
+        <v>43913.22511302438</v>
       </c>
       <c r="K11">
-        <v>99301.08599299719</v>
+        <v>92591.64003232551</v>
       </c>
       <c r="L11">
-        <v>44445.17830062815</v>
+        <v>41442.16459701657</v>
       </c>
       <c r="M11">
-        <v>26097.63283844606</v>
+        <v>24334.30210061957</v>
       </c>
       <c r="N11">
-        <v>81593.30399726391</v>
+        <v>76080.31430084801</v>
       </c>
       <c r="O11">
-        <v>1416568.851773978</v>
+        <v>1340621.323236646</v>
       </c>
       <c r="P11">
-        <v>4735.641980943135</v>
+        <v>4481.746588537844</v>
       </c>
       <c r="Q11">
-        <v>34093.18462530753</v>
+        <v>32265.32210452961</v>
       </c>
       <c r="R11">
-        <v>29655.43171315316</v>
+        <v>28065.49364307552</v>
       </c>
       <c r="S11">
-        <v>5857.26011420181</v>
+        <v>5543.23059906964</v>
       </c>
       <c r="T11">
-        <v>12174.09679811867</v>
+        <v>11521.39815743242</v>
       </c>
       <c r="U11">
-        <v>28597.11352527178</v>
+        <v>27063.91583225034</v>
       </c>
       <c r="V11">
-        <v>27448.58698826657</v>
+        <v>25976.96607764851</v>
       </c>
       <c r="W11">
-        <v>46161.07027912271</v>
+        <v>43686.20349241687</v>
       </c>
       <c r="X11">
-        <v>97331.25252792535</v>
+        <v>92112.96181817145</v>
       </c>
       <c r="Y11">
-        <v>43563.5202734054</v>
+        <v>41227.91781044869</v>
       </c>
       <c r="Z11">
-        <v>25579.93466817676</v>
+        <v>24208.49916346302</v>
       </c>
       <c r="AA11">
-        <v>79974.73941529218</v>
+        <v>75686.99597352286</v>
       </c>
       <c r="AB11">
-        <v>1263602.135376802</v>
+        <v>1204421.409225212</v>
       </c>
       <c r="AC11">
-        <v>4224.26859944436</v>
+        <v>4026.425246560245</v>
       </c>
       <c r="AD11">
-        <v>30411.6674882301</v>
+        <v>28987.33896341523</v>
       </c>
       <c r="AE11">
-        <v>26453.12071582966</v>
+        <v>25214.19047892274</v>
       </c>
       <c r="AF11">
-        <v>5224.76996334781</v>
+        <v>4980.068192316271</v>
       </c>
       <c r="AG11">
-        <v>10859.48959778562</v>
+        <v>10350.88608878558</v>
       </c>
       <c r="AH11">
-        <v>25509.08391843691</v>
+        <v>24314.36758527341</v>
       </c>
       <c r="AI11">
-        <v>24484.57982682199</v>
+        <v>23337.84607804133</v>
       </c>
       <c r="AJ11">
-        <v>41176.41504183294</v>
+        <v>39247.92024566969</v>
       </c>
       <c r="AK11">
-        <v>86821.03829910318</v>
+        <v>82754.7804573944</v>
       </c>
       <c r="AL11">
-        <v>38859.35877601009</v>
+        <v>37039.38316362029</v>
       </c>
       <c r="AM11">
-        <v>22817.71198698117</v>
+        <v>21749.04588813455</v>
       </c>
       <c r="AN11">
-        <v>71338.75023075164</v>
+        <v>67997.60437225417</v>
       </c>
       <c r="AO11">
-        <v>1096693.875292949</v>
+        <v>1064030.567990525</v>
       </c>
       <c r="AP11">
-        <v>3666.288122583374</v>
+        <v>3557.093480117462</v>
       </c>
       <c r="AQ11">
-        <v>26394.61309697942</v>
+        <v>25608.49093642214</v>
       </c>
       <c r="AR11">
-        <v>22958.94780423463</v>
+        <v>22275.15154680616</v>
       </c>
       <c r="AS11">
-        <v>4534.634010340172</v>
+        <v>4399.577047298229</v>
       </c>
       <c r="AT11">
-        <v>9425.067746619159</v>
+        <v>9144.356883643144</v>
       </c>
       <c r="AU11">
-        <v>22139.60812066957</v>
+        <v>21480.21461087403</v>
       </c>
       <c r="AV11">
-        <v>21250.4300075354</v>
+        <v>20617.51927348084</v>
       </c>
       <c r="AW11">
-        <v>35737.45320510458</v>
+        <v>34673.06920283909</v>
       </c>
       <c r="AX11">
-        <v>75352.91234753093</v>
+        <v>73108.64401742598</v>
       </c>
       <c r="AY11">
-        <v>33726.45516680248</v>
+        <v>32721.96558757469</v>
       </c>
       <c r="AZ11">
-        <v>19803.73749278184</v>
+        <v>19213.91422665801</v>
       </c>
       <c r="BA11">
-        <v>61915.6681195295</v>
+        <v>60071.60703723077</v>
       </c>
     </row>
     <row r="12" spans="1:53">
@@ -1944,160 +1944,160 @@
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>1452893.199378663</v>
+        <v>1354726.011070713</v>
       </c>
       <c r="C12">
-        <v>4857.075616330284</v>
+        <v>4528.899080809189</v>
       </c>
       <c r="D12">
-        <v>34967.41865052241</v>
+        <v>32604.78582054099</v>
       </c>
       <c r="E12">
-        <v>30415.87071939457</v>
+        <v>28360.77092972113</v>
       </c>
       <c r="F12">
-        <v>6007.454827387038</v>
+        <v>5601.550973240146</v>
       </c>
       <c r="G12">
-        <v>12486.27091045649</v>
+        <v>11642.61488105594</v>
       </c>
       <c r="H12">
-        <v>29330.41462170754</v>
+        <v>27348.65551061062</v>
       </c>
       <c r="I12">
-        <v>28152.43700852546</v>
+        <v>26250.26994880936</v>
       </c>
       <c r="J12">
-        <v>47344.75489884544</v>
+        <v>44145.82639430268</v>
       </c>
       <c r="K12">
-        <v>99827.067853242</v>
+        <v>93082.08303786078</v>
       </c>
       <c r="L12">
-        <v>44680.59725227108</v>
+        <v>41661.67706870141</v>
       </c>
       <c r="M12">
-        <v>26235.86779661479</v>
+        <v>24463.19697985127</v>
       </c>
       <c r="N12">
-        <v>82025.49058808353</v>
+        <v>76483.29947310279</v>
       </c>
       <c r="O12">
-        <v>1426908.852627466</v>
+        <v>1350279.897200253</v>
       </c>
       <c r="P12">
-        <v>4770.208985620278</v>
+        <v>4514.035557959144</v>
       </c>
       <c r="Q12">
-        <v>34342.04196653903</v>
+        <v>32497.77924556164</v>
       </c>
       <c r="R12">
-        <v>29871.89643976391</v>
+        <v>28267.69290805687</v>
       </c>
       <c r="S12">
-        <v>5900.014177658806</v>
+        <v>5583.167083601439</v>
       </c>
       <c r="T12">
-        <v>12262.95952521122</v>
+        <v>11604.40465176377</v>
       </c>
       <c r="U12">
-        <v>28805.85324017395</v>
+        <v>27258.8991793595</v>
       </c>
       <c r="V12">
-        <v>27648.94323112078</v>
+        <v>26164.11844040917</v>
       </c>
       <c r="W12">
-        <v>46498.01507745449</v>
+        <v>44000.94294964253</v>
       </c>
       <c r="X12">
-        <v>98041.70527644479</v>
+        <v>92776.59429910179</v>
       </c>
       <c r="Y12">
-        <v>43881.50470193767</v>
+        <v>41524.94642444709</v>
       </c>
       <c r="Z12">
-        <v>25766.65100460468</v>
+        <v>24382.91051711335</v>
       </c>
       <c r="AA12">
-        <v>80558.50127958566</v>
+        <v>76232.28675476191</v>
       </c>
       <c r="AB12">
-        <v>1273942.136230289</v>
+        <v>1214079.983188818</v>
       </c>
       <c r="AC12">
-        <v>4258.835604121504</v>
+        <v>4058.714215981545</v>
       </c>
       <c r="AD12">
-        <v>30660.52482946156</v>
+        <v>29219.79610444729</v>
       </c>
       <c r="AE12">
-        <v>26669.5854424404</v>
+        <v>25416.38974390407</v>
       </c>
       <c r="AF12">
-        <v>5267.524026804804</v>
+        <v>5020.004676848064</v>
       </c>
       <c r="AG12">
-        <v>10948.35232487817</v>
+        <v>10433.89258311691</v>
       </c>
       <c r="AH12">
-        <v>25717.82363333909</v>
+        <v>24509.35093238258</v>
       </c>
       <c r="AI12">
-        <v>24684.93606967618</v>
+        <v>23524.99844080198</v>
       </c>
       <c r="AJ12">
-        <v>41513.35984016471</v>
+        <v>39562.65970289537</v>
       </c>
       <c r="AK12">
-        <v>87531.49104762259</v>
+        <v>83418.41293832468</v>
       </c>
       <c r="AL12">
-        <v>39177.34320454234</v>
+        <v>37336.41177761868</v>
       </c>
       <c r="AM12">
-        <v>23004.42832340906</v>
+        <v>21923.45724178488</v>
       </c>
       <c r="AN12">
-        <v>71922.51209504514</v>
+        <v>68542.89515349321</v>
       </c>
       <c r="AO12">
-        <v>1103280.619142798</v>
+        <v>1069835.429035985</v>
       </c>
       <c r="AP12">
-        <v>3688.307850501293</v>
+        <v>3576.499344947821</v>
       </c>
       <c r="AQ12">
-        <v>26553.13915370532</v>
+        <v>25748.19907634013</v>
       </c>
       <c r="AR12">
-        <v>23096.83925385009</v>
+        <v>22396.67452122595</v>
       </c>
       <c r="AS12">
-        <v>4561.869024004256</v>
+        <v>4423.579114707431</v>
       </c>
       <c r="AT12">
-        <v>9481.674707242386</v>
+        <v>9194.244285994653</v>
       </c>
       <c r="AU12">
-        <v>22272.57861582065</v>
+        <v>21597.40077525112</v>
       </c>
       <c r="AV12">
-        <v>21378.06009858644</v>
+        <v>20729.99896916353</v>
       </c>
       <c r="AW12">
-        <v>35952.09236322431</v>
+        <v>34862.22950969214</v>
       </c>
       <c r="AX12">
-        <v>75805.48196896759</v>
+        <v>73507.49113000909</v>
       </c>
       <c r="AY12">
-        <v>33929.01626990681</v>
+        <v>32900.4815711229</v>
       </c>
       <c r="AZ12">
-        <v>19922.67874801567</v>
+        <v>19318.73649923217</v>
       </c>
       <c r="BA12">
-        <v>62287.53364680491</v>
+        <v>60399.33007651073</v>
       </c>
     </row>
     <row r="13" spans="1:53">
@@ -2105,160 +2105,160 @@
         <v>2025</v>
       </c>
       <c r="B13">
-        <v>1461806.954563265</v>
+        <v>1363037.493298079</v>
       </c>
       <c r="C13">
-        <v>4886.874629069543</v>
+        <v>4556.684672812352</v>
       </c>
       <c r="D13">
-        <v>35181.94991092167</v>
+        <v>32804.82191319734</v>
       </c>
       <c r="E13">
-        <v>30602.47743311251</v>
+        <v>28534.76924496016</v>
       </c>
       <c r="F13">
-        <v>6044.311618813128</v>
+        <v>5635.917473166559</v>
       </c>
       <c r="G13">
-        <v>12562.87637747363</v>
+        <v>11714.04437002507</v>
       </c>
       <c r="H13">
-        <v>29510.36187145211</v>
+        <v>27516.444319832</v>
       </c>
       <c r="I13">
-        <v>28325.15715853459</v>
+        <v>26411.31996952216</v>
       </c>
       <c r="J13">
-        <v>47635.22329295985</v>
+        <v>44416.668799697</v>
       </c>
       <c r="K13">
-        <v>100439.5244632812</v>
+        <v>93653.15798034598</v>
       </c>
       <c r="L13">
-        <v>44954.72057088726</v>
+        <v>41917.27878129057</v>
       </c>
       <c r="M13">
-        <v>26396.8294575921</v>
+        <v>24613.28299374708</v>
       </c>
       <c r="N13">
-        <v>82528.7313922333</v>
+        <v>76952.53796049154</v>
       </c>
       <c r="O13">
-        <v>1436118.725780913</v>
+        <v>1358882.821156296</v>
       </c>
       <c r="P13">
-        <v>4800.997931664094</v>
+        <v>4542.795450423308</v>
       </c>
       <c r="Q13">
-        <v>34563.70002813124</v>
+        <v>32704.82959428531</v>
       </c>
       <c r="R13">
-        <v>30064.70229176808</v>
+        <v>28447.79246593746</v>
       </c>
       <c r="S13">
-        <v>5938.095364189899</v>
+        <v>5618.738643211933</v>
       </c>
       <c r="T13">
-        <v>12342.10985181062</v>
+        <v>11678.33881236356</v>
       </c>
       <c r="U13">
-        <v>28991.77839855411</v>
+        <v>27432.57149518953</v>
       </c>
       <c r="V13">
-        <v>27827.40120306241</v>
+        <v>26330.8156724323</v>
       </c>
       <c r="W13">
-        <v>46798.13293008526</v>
+        <v>44281.28243108995</v>
       </c>
       <c r="X13">
-        <v>98674.50790268189</v>
+        <v>93367.69395726218</v>
       </c>
       <c r="Y13">
-        <v>44164.73449012144</v>
+        <v>41789.51079892161</v>
       </c>
       <c r="Z13">
-        <v>25932.95986652292</v>
+        <v>24538.25928994237</v>
       </c>
       <c r="AA13">
-        <v>81078.45991383937</v>
+        <v>76717.97906737527</v>
       </c>
       <c r="AB13">
-        <v>1283152.009383735</v>
+        <v>1222682.907144862</v>
       </c>
       <c r="AC13">
-        <v>4289.62455016532</v>
+        <v>4087.474108445709</v>
       </c>
       <c r="AD13">
-        <v>30882.1828910538</v>
+        <v>29426.84645317095</v>
       </c>
       <c r="AE13">
-        <v>26862.39129444453</v>
+        <v>25596.48930178467</v>
       </c>
       <c r="AF13">
-        <v>5305.605213335893</v>
+        <v>5055.576236458563</v>
       </c>
       <c r="AG13">
-        <v>11027.50265147757</v>
+        <v>10507.82674371672</v>
       </c>
       <c r="AH13">
-        <v>25903.74879171923</v>
+        <v>24683.02324821261</v>
       </c>
       <c r="AI13">
-        <v>24863.39404161781</v>
+        <v>23691.69567282511</v>
       </c>
       <c r="AJ13">
-        <v>41813.47769279545</v>
+        <v>39842.99918434279</v>
       </c>
       <c r="AK13">
-        <v>88164.29367385966</v>
+        <v>84009.51259648509</v>
       </c>
       <c r="AL13">
-        <v>39460.57299272607</v>
+        <v>37600.97615209323</v>
       </c>
       <c r="AM13">
-        <v>23170.73718532729</v>
+        <v>22078.8060146139</v>
       </c>
       <c r="AN13">
-        <v>72442.47072929886</v>
+        <v>69028.58746610658</v>
       </c>
       <c r="AO13">
-        <v>1122278.620304847</v>
+        <v>1085982.791292299</v>
       </c>
       <c r="AP13">
-        <v>3751.818869922863</v>
+        <v>3630.480573242326</v>
       </c>
       <c r="AQ13">
-        <v>27010.37239042265</v>
+        <v>26136.82473468834</v>
       </c>
       <c r="AR13">
-        <v>23494.55654478305</v>
+        <v>22734.71456646624</v>
       </c>
       <c r="AS13">
-        <v>4640.4223779882</v>
+        <v>4490.345584106381</v>
       </c>
       <c r="AT13">
-        <v>9644.944925155141</v>
+        <v>9333.015903693624</v>
       </c>
       <c r="AU13">
-        <v>22656.1025054671</v>
+        <v>21923.37713072387</v>
       </c>
       <c r="AV13">
-        <v>21746.18077754014</v>
+        <v>21042.88335665266</v>
       </c>
       <c r="AW13">
-        <v>36571.17139048515</v>
+        <v>35388.41609285943</v>
       </c>
       <c r="AX13">
-        <v>77110.81862543411</v>
+        <v>74616.96278855995</v>
       </c>
       <c r="AY13">
-        <v>34513.25882736577</v>
+        <v>33397.05887630227</v>
       </c>
       <c r="AZ13">
-        <v>20265.73840794154</v>
+        <v>19610.32025886562</v>
       </c>
       <c r="BA13">
-        <v>63360.09725036263</v>
+        <v>61310.95614189807</v>
       </c>
     </row>
     <row r="14" spans="1:53">
@@ -2266,160 +2266,160 @@
         <v>2026</v>
       </c>
       <c r="B14">
-        <v>1471776.321272584</v>
+        <v>1372333.262870676</v>
       </c>
       <c r="C14">
-        <v>4920.202590116368</v>
+        <v>4587.760773757274</v>
       </c>
       <c r="D14">
-        <v>35421.88703744581</v>
+        <v>33028.54728162965</v>
       </c>
       <c r="E14">
-        <v>30811.18304830471</v>
+        <v>28729.37331198882</v>
       </c>
       <c r="F14">
-        <v>6085.533176040807</v>
+        <v>5674.353826105</v>
       </c>
       <c r="G14">
-        <v>12648.55384749791</v>
+        <v>11793.93289676211</v>
       </c>
       <c r="H14">
-        <v>29711.61937559984</v>
+        <v>27704.10352004626</v>
       </c>
       <c r="I14">
-        <v>28518.33169360642</v>
+        <v>26591.44234014804</v>
       </c>
       <c r="J14">
-        <v>47960.09040882996</v>
+        <v>44719.58571898534</v>
       </c>
       <c r="K14">
-        <v>101124.5112519665</v>
+        <v>94291.86247718622</v>
       </c>
       <c r="L14">
-        <v>45261.3069455704</v>
+        <v>42203.15012861382</v>
       </c>
       <c r="M14">
-        <v>26576.85300448015</v>
+        <v>24781.14294496632</v>
       </c>
       <c r="N14">
-        <v>83091.56849239605</v>
+        <v>77477.34601927533</v>
       </c>
       <c r="O14">
-        <v>1446419.278231762</v>
+        <v>1368504.54644648</v>
       </c>
       <c r="P14">
-        <v>4835.433058874511</v>
+        <v>4574.961233368649</v>
       </c>
       <c r="Q14">
-        <v>34811.60794733311</v>
+        <v>32936.39988211244</v>
       </c>
       <c r="R14">
-        <v>30280.34117824462</v>
+        <v>28649.22031531336</v>
       </c>
       <c r="S14">
-        <v>5980.68631552209</v>
+        <v>5658.522765036592</v>
       </c>
       <c r="T14">
-        <v>12430.63355643232</v>
+        <v>11761.02862648796</v>
       </c>
       <c r="U14">
-        <v>29199.72174521253</v>
+        <v>27626.81095632675</v>
       </c>
       <c r="V14">
-        <v>28026.99306167223</v>
+        <v>26517.25402541039</v>
       </c>
       <c r="W14">
-        <v>47133.79224166903</v>
+        <v>44594.82111773433</v>
       </c>
       <c r="X14">
-        <v>99382.2501846862</v>
+        <v>94028.7945968819</v>
       </c>
       <c r="Y14">
-        <v>44481.50576809914</v>
+        <v>42085.40621143129</v>
       </c>
       <c r="Z14">
-        <v>26118.96385666352</v>
+        <v>24712.00524236098</v>
       </c>
       <c r="AA14">
-        <v>81659.99465326181</v>
+        <v>77261.18949575958</v>
       </c>
       <c r="AB14">
-        <v>1293452.561834585</v>
+        <v>1232304.632435045</v>
       </c>
       <c r="AC14">
-        <v>4324.059677375734</v>
+        <v>4119.639891391054</v>
       </c>
       <c r="AD14">
-        <v>31130.09081025566</v>
+        <v>29658.41674099807</v>
       </c>
       <c r="AE14">
-        <v>27078.03018092111</v>
+        <v>25797.9171511606</v>
       </c>
       <c r="AF14">
-        <v>5348.196164668086</v>
+        <v>5095.360358283226</v>
       </c>
       <c r="AG14">
-        <v>11116.02635609926</v>
+        <v>10590.51655784112</v>
       </c>
       <c r="AH14">
-        <v>26111.69213837765</v>
+        <v>24877.26270934985</v>
       </c>
       <c r="AI14">
-        <v>25062.98590022763</v>
+        <v>23878.13402580322</v>
       </c>
       <c r="AJ14">
-        <v>42149.13700437924</v>
+        <v>40156.5378709872</v>
       </c>
       <c r="AK14">
-        <v>88872.03595586399</v>
+        <v>84670.61323610487</v>
       </c>
       <c r="AL14">
-        <v>39777.34427070378</v>
+        <v>37896.87156460294</v>
       </c>
       <c r="AM14">
-        <v>23356.7411754679</v>
+        <v>22252.55196703253</v>
       </c>
       <c r="AN14">
-        <v>73024.0054687212</v>
+        <v>69571.79789449088</v>
       </c>
       <c r="AO14">
-        <v>1132579.172755696</v>
+        <v>1095604.516582483</v>
       </c>
       <c r="AP14">
-        <v>3786.253997133274</v>
+        <v>3662.646356187672</v>
       </c>
       <c r="AQ14">
-        <v>27258.2803096245</v>
+        <v>26368.39502251547</v>
       </c>
       <c r="AR14">
-        <v>23710.1954312596</v>
+        <v>22936.14241584218</v>
       </c>
       <c r="AS14">
-        <v>4683.013329320389</v>
+        <v>4530.129705931046</v>
       </c>
       <c r="AT14">
-        <v>9733.468629776838</v>
+        <v>9415.705717818029</v>
       </c>
       <c r="AU14">
-        <v>22864.04585212551</v>
+        <v>22117.6165918611</v>
       </c>
       <c r="AV14">
-        <v>21945.77263614994</v>
+        <v>21229.32170963076</v>
       </c>
       <c r="AW14">
-        <v>36906.83070206889</v>
+        <v>35701.95477950385</v>
       </c>
       <c r="AX14">
-        <v>77818.56090743841</v>
+        <v>75278.06342817971</v>
       </c>
       <c r="AY14">
-        <v>34830.03010534346</v>
+        <v>33692.95428881199</v>
       </c>
       <c r="AZ14">
-        <v>20451.74239808214</v>
+        <v>19784.06621128427</v>
       </c>
       <c r="BA14">
-        <v>63941.63198978498</v>
+        <v>61854.16657028236</v>
       </c>
     </row>
     <row r="15" spans="1:53">
@@ -2427,160 +2427,160 @@
         <v>2027</v>
       </c>
       <c r="B15">
-        <v>1482563.518991851</v>
+        <v>1382391.605316703</v>
       </c>
       <c r="C15">
-        <v>4956.264590429397</v>
+        <v>4621.386183977511</v>
       </c>
       <c r="D15">
-        <v>35681.50726202729</v>
+        <v>33270.62582628178</v>
       </c>
       <c r="E15">
-        <v>31037.00970328121</v>
+        <v>28939.94160676823</v>
       </c>
       <c r="F15">
-        <v>6130.136318956134</v>
+        <v>5715.943282170136</v>
       </c>
       <c r="G15">
-        <v>12741.25981731388</v>
+        <v>11880.37503080537</v>
       </c>
       <c r="H15">
-        <v>29929.38691821604</v>
+        <v>27907.15723003351</v>
       </c>
       <c r="I15">
-        <v>28727.35318563355</v>
+        <v>26786.3409412586</v>
       </c>
       <c r="J15">
-        <v>48311.60780342064</v>
+        <v>45047.35224580191</v>
       </c>
       <c r="K15">
-        <v>101865.6905204276</v>
+        <v>94982.96271379002</v>
       </c>
       <c r="L15">
-        <v>45593.04394935109</v>
+        <v>42512.47276020747</v>
       </c>
       <c r="M15">
-        <v>26771.64467490691</v>
+        <v>24962.77318645956</v>
       </c>
       <c r="N15">
-        <v>83700.57759600527</v>
+        <v>78045.20639193807</v>
       </c>
       <c r="O15">
-        <v>1457564.830315941</v>
+        <v>1378915.584191602</v>
       </c>
       <c r="P15">
-        <v>4872.693051062342</v>
+        <v>4609.765716997698</v>
       </c>
       <c r="Q15">
-        <v>35079.85284378204</v>
+        <v>33186.96689940991</v>
       </c>
       <c r="R15">
-        <v>30513.66987125084</v>
+        <v>28867.17217732621</v>
       </c>
       <c r="S15">
-        <v>6026.771189964775</v>
+        <v>5701.570553399009</v>
       </c>
       <c r="T15">
-        <v>12526.41924999134</v>
+        <v>11850.50184984683</v>
       </c>
       <c r="U15">
-        <v>29424.72359941393</v>
+        <v>27836.9847349894</v>
       </c>
       <c r="V15">
-        <v>28242.95831851925</v>
+        <v>26718.98673669177</v>
       </c>
       <c r="W15">
-        <v>47496.98716326644</v>
+        <v>44934.08076221216</v>
       </c>
       <c r="X15">
-        <v>100148.0516796928</v>
+        <v>94744.12823038609</v>
       </c>
       <c r="Y15">
-        <v>44824.26318759865</v>
+        <v>42405.57522637813</v>
       </c>
       <c r="Z15">
-        <v>26320.22657241293</v>
+        <v>24900.00433962664</v>
       </c>
       <c r="AA15">
-        <v>82289.23524573672</v>
+        <v>77848.96186535976</v>
       </c>
       <c r="AB15">
-        <v>1304598.113918764</v>
+        <v>1242715.670180168</v>
       </c>
       <c r="AC15">
-        <v>4361.319669563571</v>
+        <v>4154.444375020102</v>
       </c>
       <c r="AD15">
-        <v>31398.3357067046</v>
+        <v>29908.98375829554</v>
       </c>
       <c r="AE15">
-        <v>27311.35887392733</v>
+        <v>26015.86901317347</v>
       </c>
       <c r="AF15">
-        <v>5394.281039110768</v>
+        <v>5138.408146645644</v>
       </c>
       <c r="AG15">
-        <v>11211.81204965828</v>
+        <v>10679.98978119999</v>
       </c>
       <c r="AH15">
-        <v>26336.69399257906</v>
+        <v>25087.43648801251</v>
       </c>
       <c r="AI15">
-        <v>25278.95115707464</v>
+        <v>24079.86673708461</v>
       </c>
       <c r="AJ15">
-        <v>42512.33192597664</v>
+        <v>40495.79751546505</v>
       </c>
       <c r="AK15">
-        <v>89637.83745087065</v>
+        <v>85385.94686960902</v>
       </c>
       <c r="AL15">
-        <v>40120.10169020329</v>
+        <v>38217.04057954978</v>
       </c>
       <c r="AM15">
-        <v>23558.0038912173</v>
+        <v>22440.5510642982</v>
       </c>
       <c r="AN15">
-        <v>73653.24606119617</v>
+        <v>70159.57026409103</v>
       </c>
       <c r="AO15">
-        <v>1143724.724839875</v>
+        <v>1106015.554327606</v>
       </c>
       <c r="AP15">
-        <v>3823.51398932111</v>
+        <v>3697.450839816717</v>
       </c>
       <c r="AQ15">
-        <v>27526.52520607345</v>
+        <v>26618.96203981294</v>
       </c>
       <c r="AR15">
-        <v>23943.52412426583</v>
+        <v>23154.09427785503</v>
       </c>
       <c r="AS15">
-        <v>4729.098203763074</v>
+        <v>4573.177494293462</v>
       </c>
       <c r="AT15">
-        <v>9829.254323335854</v>
+        <v>9505.1789411769</v>
       </c>
       <c r="AU15">
-        <v>23089.04770632691</v>
+        <v>22327.79037052377</v>
       </c>
       <c r="AV15">
-        <v>22161.73789299696</v>
+        <v>21431.05442091216</v>
       </c>
       <c r="AW15">
-        <v>37270.02562366633</v>
+        <v>36041.21442398168</v>
       </c>
       <c r="AX15">
-        <v>78584.36240244508</v>
+        <v>75993.39706168388</v>
       </c>
       <c r="AY15">
-        <v>35172.78752484296</v>
+        <v>34013.12330375882</v>
       </c>
       <c r="AZ15">
-        <v>20653.00511383156</v>
+        <v>19972.06530854993</v>
       </c>
       <c r="BA15">
-        <v>64570.87258225996</v>
+        <v>62441.93893988252</v>
       </c>
     </row>
     <row r="16" spans="1:53">
@@ -2588,160 +2588,160 @@
         <v>2028</v>
       </c>
       <c r="B16">
-        <v>1494079.463753564</v>
+        <v>1393129.455777712</v>
       </c>
       <c r="C16">
-        <v>4994.762819015665</v>
+        <v>4657.283214583936</v>
       </c>
       <c r="D16">
-        <v>35958.66656170003</v>
+        <v>33529.05838872847</v>
       </c>
       <c r="E16">
-        <v>31278.09245267649</v>
+        <v>29164.73519212322</v>
       </c>
       <c r="F16">
-        <v>6177.752701206566</v>
+        <v>5760.342382954237</v>
       </c>
       <c r="G16">
-        <v>12840.22869275915</v>
+        <v>11972.65690665795</v>
       </c>
       <c r="H16">
-        <v>30161.86610854202</v>
+        <v>28123.92857035087</v>
       </c>
       <c r="I16">
-        <v>28950.49547140954</v>
+        <v>26994.40624078632</v>
       </c>
       <c r="J16">
-        <v>48686.87253891878</v>
+        <v>45397.26158424077</v>
       </c>
       <c r="K16">
-        <v>102656.9413842993</v>
+        <v>95720.75137370494</v>
       </c>
       <c r="L16">
-        <v>45947.19199691404</v>
+        <v>42842.69219547541</v>
       </c>
       <c r="M16">
-        <v>26979.59581987104</v>
+        <v>25156.67376031819</v>
       </c>
       <c r="N16">
-        <v>84350.72932021234</v>
+        <v>78651.42951439632</v>
       </c>
       <c r="O16">
-        <v>1469463.338666348</v>
+        <v>1390029.956867908</v>
       </c>
       <c r="P16">
-        <v>4912.470203852498</v>
+        <v>4646.921475273654</v>
       </c>
       <c r="Q16">
-        <v>35366.21946934224</v>
+        <v>33454.46138735748</v>
       </c>
       <c r="R16">
-        <v>30762.76147130401</v>
+        <v>29099.8481390516</v>
       </c>
       <c r="S16">
-        <v>6075.969404574716</v>
+        <v>5747.526506538721</v>
       </c>
       <c r="T16">
-        <v>12628.67590502768</v>
+        <v>11946.01958528359</v>
       </c>
       <c r="U16">
-        <v>29664.92582724907</v>
+        <v>28061.35715203674</v>
       </c>
       <c r="V16">
-        <v>28473.51346667018</v>
+        <v>26934.3478360436</v>
       </c>
       <c r="W16">
-        <v>47884.71832048623</v>
+        <v>45296.25965494781</v>
       </c>
       <c r="X16">
-        <v>100965.588165483</v>
+        <v>95507.7874145424</v>
       </c>
       <c r="Y16">
-        <v>45190.17615335184</v>
+        <v>42747.37379042538</v>
       </c>
       <c r="Z16">
-        <v>26535.0859249047</v>
+        <v>25100.70402787804</v>
       </c>
       <c r="AA16">
-        <v>82960.98523061231</v>
+        <v>78476.44217275101</v>
       </c>
       <c r="AB16">
-        <v>1316496.622269171</v>
+        <v>1253830.042856473</v>
       </c>
       <c r="AC16">
-        <v>4401.096822353725</v>
+        <v>4191.600133296051</v>
       </c>
       <c r="AD16">
-        <v>31684.70233226478</v>
+        <v>30176.47824624311</v>
       </c>
       <c r="AE16">
-        <v>27560.4504739805</v>
+        <v>26248.5449748988</v>
       </c>
       <c r="AF16">
-        <v>5443.479253720711</v>
+        <v>5184.364099785348</v>
       </c>
       <c r="AG16">
-        <v>11314.06870469462</v>
+        <v>10775.50751663675</v>
       </c>
       <c r="AH16">
-        <v>26576.89622041418</v>
+        <v>25311.80890505982</v>
       </c>
       <c r="AI16">
-        <v>25509.50630522558</v>
+        <v>24295.2278364364</v>
       </c>
       <c r="AJ16">
-        <v>42900.06308319645</v>
+        <v>40857.97640820064</v>
       </c>
       <c r="AK16">
-        <v>90455.37393666076</v>
+        <v>86149.60605376527</v>
       </c>
       <c r="AL16">
-        <v>40486.0146559565</v>
+        <v>38558.839143597</v>
       </c>
       <c r="AM16">
-        <v>23772.86324370909</v>
+        <v>22641.25075254957</v>
       </c>
       <c r="AN16">
-        <v>74324.99604607171</v>
+        <v>70787.05057148222</v>
       </c>
       <c r="AO16">
-        <v>1155623.233190282</v>
+        <v>1117129.92700391</v>
       </c>
       <c r="AP16">
-        <v>3863.291142111265</v>
+        <v>3734.606598092671</v>
       </c>
       <c r="AQ16">
-        <v>27812.89183163362</v>
+        <v>26886.4565277605</v>
       </c>
       <c r="AR16">
-        <v>24192.615724319</v>
+        <v>23386.77023958038</v>
       </c>
       <c r="AS16">
-        <v>4778.296418373015</v>
+        <v>4619.133447433173</v>
       </c>
       <c r="AT16">
-        <v>9931.510978372193</v>
+        <v>9600.696676613654</v>
       </c>
       <c r="AU16">
-        <v>23329.24993416206</v>
+        <v>22552.16278757108</v>
       </c>
       <c r="AV16">
-        <v>22392.2930411479</v>
+        <v>21646.41552026395</v>
       </c>
       <c r="AW16">
-        <v>37657.75678088612</v>
+        <v>36403.39331671729</v>
       </c>
       <c r="AX16">
-        <v>79401.89888823521</v>
+        <v>76757.05624584015</v>
       </c>
       <c r="AY16">
-        <v>35538.70049059618</v>
+        <v>34354.92186780605</v>
       </c>
       <c r="AZ16">
-        <v>20867.86446632331</v>
+        <v>20172.7649968013</v>
       </c>
       <c r="BA16">
-        <v>65242.62256713554</v>
+        <v>63069.4192472737</v>
       </c>
     </row>
     <row r="17" spans="1:53">
@@ -2749,160 +2749,160 @@
         <v>2029</v>
       </c>
       <c r="B17">
-        <v>1506259.854348094</v>
+        <v>1404486.857664145</v>
       </c>
       <c r="C17">
-        <v>5035.482314556955</v>
+        <v>4695.251428483661</v>
       </c>
       <c r="D17">
-        <v>36251.8173710148</v>
+        <v>33802.40196739962</v>
       </c>
       <c r="E17">
-        <v>31533.08517051248</v>
+        <v>29402.498895356</v>
       </c>
       <c r="F17">
-        <v>6228.11644873313</v>
+        <v>5807.30321862916</v>
       </c>
       <c r="G17">
-        <v>12944.9078645135</v>
+        <v>12070.26325298374</v>
       </c>
       <c r="H17">
-        <v>30407.75886001522</v>
+        <v>28353.20716185155</v>
       </c>
       <c r="I17">
-        <v>29186.51259854484</v>
+        <v>27214.47647122381</v>
       </c>
       <c r="J17">
-        <v>49083.78926171498</v>
+        <v>45767.35995680584</v>
       </c>
       <c r="K17">
-        <v>103493.8457616335</v>
+        <v>96501.10889016825</v>
       </c>
       <c r="L17">
-        <v>46321.77364321971</v>
+        <v>43191.96459879929</v>
       </c>
       <c r="M17">
-        <v>27199.54530926633</v>
+        <v>25361.76199015706</v>
       </c>
       <c r="N17">
-        <v>85038.39343378792</v>
+        <v>79292.63043813879</v>
       </c>
       <c r="O17">
-        <v>1482048.365965373</v>
+        <v>1401785.60551088</v>
       </c>
       <c r="P17">
-        <v>4954.542414838885</v>
+        <v>4686.221042786489</v>
       </c>
       <c r="Q17">
-        <v>35669.10884791557</v>
+        <v>33737.38974560366</v>
       </c>
       <c r="R17">
-        <v>31026.22513366467</v>
+        <v>29345.94901522074</v>
       </c>
       <c r="S17">
-        <v>6128.006252866561</v>
+        <v>5796.13402168126</v>
       </c>
       <c r="T17">
-        <v>12736.83255435215</v>
+        <v>12047.04849349726</v>
       </c>
       <c r="U17">
-        <v>29918.98721927965</v>
+        <v>28298.67538643479</v>
       </c>
       <c r="V17">
-        <v>28717.37116277467</v>
+        <v>27162.1348186361</v>
       </c>
       <c r="W17">
-        <v>48294.82075136169</v>
+        <v>45679.3355093303</v>
       </c>
       <c r="X17">
-        <v>101830.2947899286</v>
+        <v>96315.50813017566</v>
       </c>
       <c r="Y17">
-        <v>45577.20152892455</v>
+        <v>43108.89341394657</v>
       </c>
       <c r="Z17">
-        <v>26762.34221089682</v>
+        <v>25312.98366673407</v>
       </c>
       <c r="AA17">
-        <v>83671.49377914736</v>
+        <v>79140.12677636341</v>
       </c>
       <c r="AB17">
-        <v>1329081.649568196</v>
+        <v>1265585.691499445</v>
       </c>
       <c r="AC17">
-        <v>4443.169033340116</v>
+        <v>4230.899700808891</v>
       </c>
       <c r="AD17">
-        <v>31987.59171083814</v>
+        <v>30459.40660448928</v>
       </c>
       <c r="AE17">
-        <v>27823.91413634119</v>
+        <v>26494.64585106795</v>
       </c>
       <c r="AF17">
-        <v>5495.516102012561</v>
+        <v>5232.971614927887</v>
       </c>
       <c r="AG17">
-        <v>11422.2253540191</v>
+        <v>10876.53642485042</v>
       </c>
       <c r="AH17">
-        <v>26830.95761244478</v>
+        <v>25549.12713945788</v>
       </c>
       <c r="AI17">
-        <v>25753.3640013301</v>
+        <v>24523.0148190289</v>
       </c>
       <c r="AJ17">
-        <v>43310.16551407197</v>
+        <v>41241.05226258312</v>
       </c>
       <c r="AK17">
-        <v>91320.08056110643</v>
+        <v>86957.32676939855</v>
       </c>
       <c r="AL17">
-        <v>40873.04003152925</v>
+        <v>38920.35876711817</v>
       </c>
       <c r="AM17">
-        <v>24000.11952970123</v>
+        <v>22853.53039140559</v>
       </c>
       <c r="AN17">
-        <v>75035.50459460678</v>
+        <v>71450.73517509473</v>
       </c>
       <c r="AO17">
-        <v>1168208.260489307</v>
+        <v>1128885.575646883</v>
       </c>
       <c r="AP17">
-        <v>3905.363353097652</v>
+        <v>3773.90616560551</v>
       </c>
       <c r="AQ17">
-        <v>28115.78121020699</v>
+        <v>27169.38488600668</v>
       </c>
       <c r="AR17">
-        <v>24456.07938667967</v>
+        <v>23632.87111574952</v>
       </c>
       <c r="AS17">
-        <v>4830.333266664866</v>
+        <v>4667.740962575708</v>
       </c>
       <c r="AT17">
-        <v>10039.66762769667</v>
+        <v>9701.725584827323</v>
       </c>
       <c r="AU17">
-        <v>23583.31132619265</v>
+        <v>22789.48102196913</v>
       </c>
       <c r="AV17">
-        <v>22636.1507372524</v>
+        <v>21874.20250285645</v>
       </c>
       <c r="AW17">
-        <v>38067.8592117616</v>
+        <v>36786.46917109976</v>
       </c>
       <c r="AX17">
-        <v>80266.60551268084</v>
+        <v>77564.77696147341</v>
       </c>
       <c r="AY17">
-        <v>35925.7258661689</v>
+        <v>34716.44149132723</v>
       </c>
       <c r="AZ17">
-        <v>21095.12075231545</v>
+        <v>20385.04463565732</v>
       </c>
       <c r="BA17">
-        <v>65953.13111567056</v>
+        <v>63733.10385088623</v>
       </c>
     </row>
     <row r="18" spans="1:53">
@@ -2910,160 +2910,160 @@
         <v>2030</v>
       </c>
       <c r="B18">
-        <v>1519059.813889553</v>
+        <v>1416421.966272874</v>
       </c>
       <c r="C18">
-        <v>5078.273051966577</v>
+        <v>4735.15093728892</v>
       </c>
       <c r="D18">
-        <v>36559.87961825181</v>
+        <v>34089.64946744941</v>
       </c>
       <c r="E18">
-        <v>31801.04837303346</v>
+        <v>29652.35671052114</v>
       </c>
       <c r="F18">
-        <v>6281.042003598817</v>
+        <v>5856.652768794002</v>
       </c>
       <c r="G18">
-        <v>13054.91165732214</v>
+        <v>12172.83445332941</v>
       </c>
       <c r="H18">
-        <v>30666.15921638872</v>
+        <v>28594.14826075602</v>
       </c>
       <c r="I18">
-        <v>29434.53499610076</v>
+        <v>27445.74081566487</v>
       </c>
       <c r="J18">
-        <v>49500.89558960243</v>
+        <v>46156.2837896196</v>
       </c>
       <c r="K18">
-        <v>104373.3201994039</v>
+        <v>97321.16014887672</v>
       </c>
       <c r="L18">
-        <v>46715.40879641737</v>
+        <v>43559.00312657052</v>
       </c>
       <c r="M18">
-        <v>27430.68277103941</v>
+        <v>25577.28225808232</v>
       </c>
       <c r="N18">
-        <v>85761.03633785332</v>
+        <v>79966.44675118344</v>
       </c>
       <c r="O18">
-        <v>1495273.54450177</v>
+        <v>1414139.218134865</v>
       </c>
       <c r="P18">
-        <v>4998.754675050589</v>
+        <v>4727.519625968802</v>
       </c>
       <c r="Q18">
-        <v>35987.4050274337</v>
+        <v>34034.70956556979</v>
       </c>
       <c r="R18">
-        <v>31303.09016460845</v>
+        <v>29604.56808278145</v>
       </c>
       <c r="S18">
-        <v>6182.690012605758</v>
+        <v>5847.214011473605</v>
       </c>
       <c r="T18">
-        <v>12850.49071044734</v>
+        <v>12153.21634810067</v>
       </c>
       <c r="U18">
-        <v>30185.97172308524</v>
+        <v>28548.06507350361</v>
       </c>
       <c r="V18">
-        <v>28973.63294845282</v>
+        <v>27401.50843630683</v>
       </c>
       <c r="W18">
-        <v>48725.78349285361</v>
+        <v>46081.89693782895</v>
       </c>
       <c r="X18">
-        <v>102738.9856666487</v>
+        <v>97164.31444723645</v>
       </c>
       <c r="Y18">
-        <v>45983.91337534716</v>
+        <v>43488.80213022309</v>
       </c>
       <c r="Z18">
-        <v>27001.15813750169</v>
+        <v>25536.06114259538</v>
       </c>
       <c r="AA18">
-        <v>84418.14312544948</v>
+        <v>79837.57042635159</v>
       </c>
       <c r="AB18">
-        <v>1342306.828104592</v>
+        <v>1277939.304123431</v>
       </c>
       <c r="AC18">
-        <v>4487.381293551816</v>
+        <v>4272.198283991202</v>
       </c>
       <c r="AD18">
-        <v>32305.88789035623</v>
+        <v>30756.72642445542</v>
       </c>
       <c r="AE18">
-        <v>28100.77916728494</v>
+        <v>26753.26491862867</v>
       </c>
       <c r="AF18">
-        <v>5550.199861751754</v>
+        <v>5284.051604720234</v>
       </c>
       <c r="AG18">
-        <v>11535.88351011428</v>
+        <v>10982.70427945383</v>
       </c>
       <c r="AH18">
-        <v>27097.94211625035</v>
+        <v>25798.51682652669</v>
       </c>
       <c r="AI18">
-        <v>26009.62578700822</v>
+        <v>24762.38843669964</v>
       </c>
       <c r="AJ18">
-        <v>43741.12825556382</v>
+        <v>41643.61369108179</v>
       </c>
       <c r="AK18">
-        <v>92228.77143782651</v>
+        <v>87806.13308645938</v>
       </c>
       <c r="AL18">
-        <v>41279.75187795181</v>
+        <v>39300.26748339473</v>
       </c>
       <c r="AM18">
-        <v>24238.93545630608</v>
+        <v>23076.60786726692</v>
       </c>
       <c r="AN18">
-        <v>75782.1539409089</v>
+        <v>72148.17882508284</v>
       </c>
       <c r="AO18">
-        <v>1181433.439025703</v>
+        <v>1141239.188270869</v>
       </c>
       <c r="AP18">
-        <v>3949.575613309357</v>
+        <v>3815.204748787819</v>
       </c>
       <c r="AQ18">
-        <v>28434.0773897251</v>
+        <v>27466.70470597282</v>
       </c>
       <c r="AR18">
-        <v>24732.94441762342</v>
+        <v>23891.49018331024</v>
       </c>
       <c r="AS18">
-        <v>4885.017026404057</v>
+        <v>4718.820952368055</v>
       </c>
       <c r="AT18">
-        <v>10153.32578379185</v>
+        <v>9807.89343943074</v>
       </c>
       <c r="AU18">
-        <v>23850.29582999823</v>
+        <v>23038.87070903796</v>
       </c>
       <c r="AV18">
-        <v>22892.41252293054</v>
+        <v>22113.57612052719</v>
       </c>
       <c r="AW18">
-        <v>38498.82195325349</v>
+        <v>37189.03059959845</v>
       </c>
       <c r="AX18">
-        <v>81175.29638940093</v>
+        <v>78413.58327853422</v>
       </c>
       <c r="AY18">
-        <v>36332.43771259149</v>
+        <v>35096.35020760378</v>
       </c>
       <c r="AZ18">
-        <v>21333.93667892031</v>
+        <v>20608.12211151865</v>
       </c>
       <c r="BA18">
-        <v>66699.78046197274</v>
+        <v>64430.54750087434</v>
       </c>
     </row>
   </sheetData>
@@ -3312,160 +3312,160 @@
         <v>2016</v>
       </c>
       <c r="B4">
-        <v>0.7649931027012867</v>
+        <v>0.7649931027012866</v>
       </c>
       <c r="C4">
         <v>0.002557400191136056</v>
       </c>
       <c r="D4">
-        <v>0.01841142494049643</v>
+        <v>0.01841142494049642</v>
       </c>
       <c r="E4">
-        <v>0.01601489450356126</v>
+        <v>0.01601489450356125</v>
       </c>
       <c r="F4">
         <v>0.003163110344040423</v>
       </c>
       <c r="G4">
-        <v>0.006574406934414626</v>
+        <v>0.006574406934414623</v>
       </c>
       <c r="H4">
         <v>0.01544336837323677</v>
       </c>
       <c r="I4">
-        <v>0.01482312680998479</v>
+        <v>0.01482312680998478</v>
       </c>
       <c r="J4">
         <v>0.02492847441380323</v>
       </c>
       <c r="K4">
-        <v>0.05256203167809046</v>
+        <v>0.05256203167809043</v>
       </c>
       <c r="L4">
-        <v>0.0235257132025801</v>
+        <v>0.02352571320258009</v>
       </c>
       <c r="M4">
-        <v>0.01381399397861886</v>
+        <v>0.01381399397861885</v>
       </c>
       <c r="N4">
-        <v>0.04318895192875025</v>
+        <v>0.04318895192875024</v>
       </c>
       <c r="O4">
-        <v>0.7649931027012867</v>
+        <v>0.7649931027012866</v>
       </c>
       <c r="P4">
         <v>0.002557400191136056</v>
       </c>
       <c r="Q4">
-        <v>0.01841142494049643</v>
+        <v>0.01841142494049642</v>
       </c>
       <c r="R4">
-        <v>0.01601489450356126</v>
+        <v>0.01601489450356125</v>
       </c>
       <c r="S4">
         <v>0.003163110344040423</v>
       </c>
       <c r="T4">
-        <v>0.006574406934414626</v>
+        <v>0.006574406934414623</v>
       </c>
       <c r="U4">
         <v>0.01544336837323677</v>
       </c>
       <c r="V4">
-        <v>0.01482312680998479</v>
+        <v>0.01482312680998478</v>
       </c>
       <c r="W4">
         <v>0.02492847441380323</v>
       </c>
       <c r="X4">
-        <v>0.05256203167809046</v>
+        <v>0.05256203167809043</v>
       </c>
       <c r="Y4">
-        <v>0.0235257132025801</v>
+        <v>0.02352571320258009</v>
       </c>
       <c r="Z4">
-        <v>0.01381399397861886</v>
+        <v>0.01381399397861885</v>
       </c>
       <c r="AA4">
-        <v>0.04318895192875025</v>
+        <v>0.04318895192875024</v>
       </c>
       <c r="AB4">
-        <v>0.7649931027012867</v>
+        <v>0.7649931027012866</v>
       </c>
       <c r="AC4">
         <v>0.002557400191136056</v>
       </c>
       <c r="AD4">
-        <v>0.01841142494049643</v>
+        <v>0.01841142494049642</v>
       </c>
       <c r="AE4">
-        <v>0.01601489450356126</v>
+        <v>0.01601489450356125</v>
       </c>
       <c r="AF4">
         <v>0.003163110344040423</v>
       </c>
       <c r="AG4">
-        <v>0.006574406934414626</v>
+        <v>0.006574406934414623</v>
       </c>
       <c r="AH4">
         <v>0.01544336837323677</v>
       </c>
       <c r="AI4">
-        <v>0.01482312680998479</v>
+        <v>0.01482312680998478</v>
       </c>
       <c r="AJ4">
         <v>0.02492847441380323</v>
       </c>
       <c r="AK4">
-        <v>0.05256203167809046</v>
+        <v>0.05256203167809043</v>
       </c>
       <c r="AL4">
-        <v>0.0235257132025801</v>
+        <v>0.02352571320258009</v>
       </c>
       <c r="AM4">
-        <v>0.01381399397861886</v>
+        <v>0.01381399397861885</v>
       </c>
       <c r="AN4">
-        <v>0.04318895192875025</v>
+        <v>0.04318895192875024</v>
       </c>
       <c r="AO4">
-        <v>0.7649931027012867</v>
+        <v>0.7649931027012866</v>
       </c>
       <c r="AP4">
         <v>0.002557400191136056</v>
       </c>
       <c r="AQ4">
-        <v>0.01841142494049643</v>
+        <v>0.01841142494049642</v>
       </c>
       <c r="AR4">
-        <v>0.01601489450356126</v>
+        <v>0.01601489450356125</v>
       </c>
       <c r="AS4">
         <v>0.003163110344040423</v>
       </c>
       <c r="AT4">
-        <v>0.006574406934414626</v>
+        <v>0.006574406934414623</v>
       </c>
       <c r="AU4">
         <v>0.01544336837323677</v>
       </c>
       <c r="AV4">
-        <v>0.01482312680998479</v>
+        <v>0.01482312680998478</v>
       </c>
       <c r="AW4">
         <v>0.02492847441380323</v>
       </c>
       <c r="AX4">
-        <v>0.05256203167809046</v>
+        <v>0.05256203167809043</v>
       </c>
       <c r="AY4">
-        <v>0.0235257132025801</v>
+        <v>0.02352571320258009</v>
       </c>
       <c r="AZ4">
-        <v>0.01381399397861886</v>
+        <v>0.01381399397861885</v>
       </c>
       <c r="BA4">
-        <v>0.04318895192875025</v>
+        <v>0.04318895192875024</v>
       </c>
     </row>
     <row r="5" spans="1:53">
@@ -3473,157 +3473,157 @@
         <v>2017</v>
       </c>
       <c r="B5">
-        <v>0.7649931027012866</v>
+        <v>0.7649931027012868</v>
       </c>
       <c r="C5">
-        <v>0.002557400191136057</v>
+        <v>0.002557400191136056</v>
       </c>
       <c r="D5">
-        <v>0.01841142494049644</v>
+        <v>0.01841142494049645</v>
       </c>
       <c r="E5">
-        <v>0.01601489450356125</v>
+        <v>0.01601489450356126</v>
       </c>
       <c r="F5">
         <v>0.003163110344040424</v>
       </c>
       <c r="G5">
-        <v>0.006574406934414623</v>
+        <v>0.006574406934414624</v>
       </c>
       <c r="H5">
         <v>0.01544336837323678</v>
       </c>
       <c r="I5">
-        <v>0.01482312680998478</v>
+        <v>0.01482312680998479</v>
       </c>
       <c r="J5">
-        <v>0.02492847441380322</v>
+        <v>0.02492847441380324</v>
       </c>
       <c r="K5">
-        <v>0.05256203167809045</v>
+        <v>0.05256203167809046</v>
       </c>
       <c r="L5">
-        <v>0.02352571320258008</v>
+        <v>0.02352571320258011</v>
       </c>
       <c r="M5">
-        <v>0.01381399397861885</v>
+        <v>0.01381399397861886</v>
       </c>
       <c r="N5">
         <v>0.04318895192875025</v>
       </c>
       <c r="O5">
-        <v>0.7649931027012866</v>
+        <v>0.7649931027012868</v>
       </c>
       <c r="P5">
-        <v>0.002557400191136057</v>
+        <v>0.002557400191136056</v>
       </c>
       <c r="Q5">
-        <v>0.01841142494049644</v>
+        <v>0.01841142494049645</v>
       </c>
       <c r="R5">
-        <v>0.01601489450356125</v>
+        <v>0.01601489450356126</v>
       </c>
       <c r="S5">
         <v>0.003163110344040424</v>
       </c>
       <c r="T5">
-        <v>0.006574406934414623</v>
+        <v>0.006574406934414624</v>
       </c>
       <c r="U5">
         <v>0.01544336837323678</v>
       </c>
       <c r="V5">
-        <v>0.01482312680998478</v>
+        <v>0.01482312680998479</v>
       </c>
       <c r="W5">
-        <v>0.02492847441380322</v>
+        <v>0.02492847441380324</v>
       </c>
       <c r="X5">
-        <v>0.05256203167809045</v>
+        <v>0.05256203167809046</v>
       </c>
       <c r="Y5">
-        <v>0.02352571320258008</v>
+        <v>0.02352571320258011</v>
       </c>
       <c r="Z5">
-        <v>0.01381399397861885</v>
+        <v>0.01381399397861886</v>
       </c>
       <c r="AA5">
         <v>0.04318895192875025</v>
       </c>
       <c r="AB5">
-        <v>0.7649931027012866</v>
+        <v>0.7649931027012868</v>
       </c>
       <c r="AC5">
-        <v>0.002557400191136057</v>
+        <v>0.002557400191136056</v>
       </c>
       <c r="AD5">
-        <v>0.01841142494049644</v>
+        <v>0.01841142494049645</v>
       </c>
       <c r="AE5">
-        <v>0.01601489450356125</v>
+        <v>0.01601489450356126</v>
       </c>
       <c r="AF5">
         <v>0.003163110344040424</v>
       </c>
       <c r="AG5">
-        <v>0.006574406934414623</v>
+        <v>0.006574406934414624</v>
       </c>
       <c r="AH5">
         <v>0.01544336837323678</v>
       </c>
       <c r="AI5">
-        <v>0.01482312680998478</v>
+        <v>0.01482312680998479</v>
       </c>
       <c r="AJ5">
-        <v>0.02492847441380322</v>
+        <v>0.02492847441380324</v>
       </c>
       <c r="AK5">
-        <v>0.05256203167809045</v>
+        <v>0.05256203167809046</v>
       </c>
       <c r="AL5">
-        <v>0.02352571320258008</v>
+        <v>0.02352571320258011</v>
       </c>
       <c r="AM5">
-        <v>0.01381399397861885</v>
+        <v>0.01381399397861886</v>
       </c>
       <c r="AN5">
         <v>0.04318895192875025</v>
       </c>
       <c r="AO5">
-        <v>0.7649931027012866</v>
+        <v>0.7649931027012868</v>
       </c>
       <c r="AP5">
-        <v>0.002557400191136057</v>
+        <v>0.002557400191136056</v>
       </c>
       <c r="AQ5">
-        <v>0.01841142494049644</v>
+        <v>0.01841142494049645</v>
       </c>
       <c r="AR5">
-        <v>0.01601489450356125</v>
+        <v>0.01601489450356126</v>
       </c>
       <c r="AS5">
         <v>0.003163110344040424</v>
       </c>
       <c r="AT5">
-        <v>0.006574406934414623</v>
+        <v>0.006574406934414624</v>
       </c>
       <c r="AU5">
         <v>0.01544336837323678</v>
       </c>
       <c r="AV5">
-        <v>0.01482312680998478</v>
+        <v>0.01482312680998479</v>
       </c>
       <c r="AW5">
-        <v>0.02492847441380322</v>
+        <v>0.02492847441380324</v>
       </c>
       <c r="AX5">
-        <v>0.05256203167809045</v>
+        <v>0.05256203167809046</v>
       </c>
       <c r="AY5">
-        <v>0.02352571320258008</v>
+        <v>0.02352571320258011</v>
       </c>
       <c r="AZ5">
-        <v>0.01381399397861885</v>
+        <v>0.01381399397861886</v>
       </c>
       <c r="BA5">
         <v>0.04318895192875025</v>
@@ -3637,7 +3637,7 @@
         <v>0.7649931027012868</v>
       </c>
       <c r="C6">
-        <v>0.002557400191136058</v>
+        <v>0.002557400191136057</v>
       </c>
       <c r="D6">
         <v>0.01841142494049645</v>
@@ -3646,10 +3646,10 @@
         <v>0.01601489450356126</v>
       </c>
       <c r="F6">
-        <v>0.003163110344040424</v>
+        <v>0.003163110344040425</v>
       </c>
       <c r="G6">
-        <v>0.006574406934414624</v>
+        <v>0.006574406934414628</v>
       </c>
       <c r="H6">
         <v>0.01544336837323678</v>
@@ -3661,22 +3661,22 @@
         <v>0.02492847441380324</v>
       </c>
       <c r="K6">
-        <v>0.05256203167809047</v>
+        <v>0.0525620316780905</v>
       </c>
       <c r="L6">
-        <v>0.0235257132025801</v>
+        <v>0.02352571320258011</v>
       </c>
       <c r="M6">
         <v>0.01381399397861886</v>
       </c>
       <c r="N6">
-        <v>0.04318895192875026</v>
+        <v>0.04318895192875029</v>
       </c>
       <c r="O6">
         <v>0.7649931027012868</v>
       </c>
       <c r="P6">
-        <v>0.002557400191136058</v>
+        <v>0.002557400191136057</v>
       </c>
       <c r="Q6">
         <v>0.01841142494049645</v>
@@ -3685,10 +3685,10 @@
         <v>0.01601489450356126</v>
       </c>
       <c r="S6">
-        <v>0.003163110344040424</v>
+        <v>0.003163110344040425</v>
       </c>
       <c r="T6">
-        <v>0.006574406934414624</v>
+        <v>0.006574406934414628</v>
       </c>
       <c r="U6">
         <v>0.01544336837323678</v>
@@ -3700,22 +3700,22 @@
         <v>0.02492847441380324</v>
       </c>
       <c r="X6">
-        <v>0.05256203167809047</v>
+        <v>0.0525620316780905</v>
       </c>
       <c r="Y6">
-        <v>0.0235257132025801</v>
+        <v>0.02352571320258011</v>
       </c>
       <c r="Z6">
         <v>0.01381399397861886</v>
       </c>
       <c r="AA6">
-        <v>0.04318895192875026</v>
+        <v>0.04318895192875029</v>
       </c>
       <c r="AB6">
         <v>0.7649931027012868</v>
       </c>
       <c r="AC6">
-        <v>0.002557400191136058</v>
+        <v>0.002557400191136057</v>
       </c>
       <c r="AD6">
         <v>0.01841142494049645</v>
@@ -3724,10 +3724,10 @@
         <v>0.01601489450356126</v>
       </c>
       <c r="AF6">
-        <v>0.003163110344040424</v>
+        <v>0.003163110344040425</v>
       </c>
       <c r="AG6">
-        <v>0.006574406934414624</v>
+        <v>0.006574406934414628</v>
       </c>
       <c r="AH6">
         <v>0.01544336837323678</v>
@@ -3739,22 +3739,22 @@
         <v>0.02492847441380324</v>
       </c>
       <c r="AK6">
-        <v>0.05256203167809047</v>
+        <v>0.0525620316780905</v>
       </c>
       <c r="AL6">
-        <v>0.0235257132025801</v>
+        <v>0.02352571320258011</v>
       </c>
       <c r="AM6">
         <v>0.01381399397861886</v>
       </c>
       <c r="AN6">
-        <v>0.04318895192875026</v>
+        <v>0.04318895192875029</v>
       </c>
       <c r="AO6">
         <v>0.7649931027012868</v>
       </c>
       <c r="AP6">
-        <v>0.002557400191136058</v>
+        <v>0.002557400191136057</v>
       </c>
       <c r="AQ6">
         <v>0.01841142494049645</v>
@@ -3763,10 +3763,10 @@
         <v>0.01601489450356126</v>
       </c>
       <c r="AS6">
-        <v>0.003163110344040424</v>
+        <v>0.003163110344040425</v>
       </c>
       <c r="AT6">
-        <v>0.006574406934414624</v>
+        <v>0.006574406934414628</v>
       </c>
       <c r="AU6">
         <v>0.01544336837323678</v>
@@ -3778,16 +3778,16 @@
         <v>0.02492847441380324</v>
       </c>
       <c r="AX6">
-        <v>0.05256203167809047</v>
+        <v>0.0525620316780905</v>
       </c>
       <c r="AY6">
-        <v>0.0235257132025801</v>
+        <v>0.02352571320258011</v>
       </c>
       <c r="AZ6">
         <v>0.01381399397861886</v>
       </c>
       <c r="BA6">
-        <v>0.04318895192875026</v>
+        <v>0.04318895192875029</v>
       </c>
     </row>
     <row r="7" spans="1:53">
@@ -3801,22 +3801,22 @@
         <v>0.002557400191136056</v>
       </c>
       <c r="D7">
-        <v>0.01841142494049644</v>
+        <v>0.01841142494049643</v>
       </c>
       <c r="E7">
-        <v>0.01601489450356126</v>
+        <v>0.01601489450356125</v>
       </c>
       <c r="F7">
         <v>0.003163110344040424</v>
       </c>
       <c r="G7">
-        <v>0.006574406934414625</v>
+        <v>0.006574406934414623</v>
       </c>
       <c r="H7">
-        <v>0.01544336837323678</v>
+        <v>0.01544336837323677</v>
       </c>
       <c r="I7">
-        <v>0.01482312680998479</v>
+        <v>0.01482312680998478</v>
       </c>
       <c r="J7">
         <v>0.02492847441380323</v>
@@ -3825,13 +3825,13 @@
         <v>0.05256203167809046</v>
       </c>
       <c r="L7">
-        <v>0.02352571320258011</v>
+        <v>0.02352571320258009</v>
       </c>
       <c r="M7">
         <v>0.01381399397861886</v>
       </c>
       <c r="N7">
-        <v>0.04318895192875023</v>
+        <v>0.04318895192875024</v>
       </c>
       <c r="O7">
         <v>0.7649931027012868</v>
@@ -3840,22 +3840,22 @@
         <v>0.002557400191136056</v>
       </c>
       <c r="Q7">
-        <v>0.01841142494049644</v>
+        <v>0.01841142494049643</v>
       </c>
       <c r="R7">
-        <v>0.01601489450356126</v>
+        <v>0.01601489450356125</v>
       </c>
       <c r="S7">
         <v>0.003163110344040424</v>
       </c>
       <c r="T7">
-        <v>0.006574406934414625</v>
+        <v>0.006574406934414623</v>
       </c>
       <c r="U7">
-        <v>0.01544336837323678</v>
+        <v>0.01544336837323677</v>
       </c>
       <c r="V7">
-        <v>0.01482312680998479</v>
+        <v>0.01482312680998478</v>
       </c>
       <c r="W7">
         <v>0.02492847441380323</v>
@@ -3864,13 +3864,13 @@
         <v>0.05256203167809046</v>
       </c>
       <c r="Y7">
-        <v>0.02352571320258011</v>
+        <v>0.02352571320258009</v>
       </c>
       <c r="Z7">
         <v>0.01381399397861886</v>
       </c>
       <c r="AA7">
-        <v>0.04318895192875023</v>
+        <v>0.04318895192875024</v>
       </c>
       <c r="AB7">
         <v>0.7649931027012868</v>
@@ -3879,22 +3879,22 @@
         <v>0.002557400191136056</v>
       </c>
       <c r="AD7">
-        <v>0.01841142494049644</v>
+        <v>0.01841142494049643</v>
       </c>
       <c r="AE7">
-        <v>0.01601489450356126</v>
+        <v>0.01601489450356125</v>
       </c>
       <c r="AF7">
         <v>0.003163110344040424</v>
       </c>
       <c r="AG7">
-        <v>0.006574406934414625</v>
+        <v>0.006574406934414623</v>
       </c>
       <c r="AH7">
-        <v>0.01544336837323678</v>
+        <v>0.01544336837323677</v>
       </c>
       <c r="AI7">
-        <v>0.01482312680998479</v>
+        <v>0.01482312680998478</v>
       </c>
       <c r="AJ7">
         <v>0.02492847441380323</v>
@@ -3903,13 +3903,13 @@
         <v>0.05256203167809046</v>
       </c>
       <c r="AL7">
-        <v>0.02352571320258011</v>
+        <v>0.02352571320258009</v>
       </c>
       <c r="AM7">
         <v>0.01381399397861886</v>
       </c>
       <c r="AN7">
-        <v>0.04318895192875023</v>
+        <v>0.04318895192875024</v>
       </c>
       <c r="AO7">
         <v>0.7649931027012868</v>
@@ -3918,22 +3918,22 @@
         <v>0.002557400191136056</v>
       </c>
       <c r="AQ7">
-        <v>0.01841142494049644</v>
+        <v>0.01841142494049643</v>
       </c>
       <c r="AR7">
-        <v>0.01601489450356126</v>
+        <v>0.01601489450356125</v>
       </c>
       <c r="AS7">
         <v>0.003163110344040424</v>
       </c>
       <c r="AT7">
-        <v>0.006574406934414625</v>
+        <v>0.006574406934414623</v>
       </c>
       <c r="AU7">
-        <v>0.01544336837323678</v>
+        <v>0.01544336837323677</v>
       </c>
       <c r="AV7">
-        <v>0.01482312680998479</v>
+        <v>0.01482312680998478</v>
       </c>
       <c r="AW7">
         <v>0.02492847441380323</v>
@@ -3942,13 +3942,13 @@
         <v>0.05256203167809046</v>
       </c>
       <c r="AY7">
-        <v>0.02352571320258011</v>
+        <v>0.02352571320258009</v>
       </c>
       <c r="AZ7">
         <v>0.01381399397861886</v>
       </c>
       <c r="BA7">
-        <v>0.04318895192875023</v>
+        <v>0.04318895192875024</v>
       </c>
     </row>
     <row r="8" spans="1:53">
@@ -3959,19 +3959,19 @@
         <v>0.7649931027012867</v>
       </c>
       <c r="C8">
-        <v>0.002557400191136055</v>
+        <v>0.002557400191136056</v>
       </c>
       <c r="D8">
-        <v>0.01841142494049645</v>
+        <v>0.01841142494049644</v>
       </c>
       <c r="E8">
         <v>0.01601489450356126</v>
       </c>
       <c r="F8">
-        <v>0.003163110344040425</v>
+        <v>0.003163110344040424</v>
       </c>
       <c r="G8">
-        <v>0.006574406934414626</v>
+        <v>0.006574406934414623</v>
       </c>
       <c r="H8">
         <v>0.01544336837323678</v>
@@ -3983,7 +3983,7 @@
         <v>0.02492847441380322</v>
       </c>
       <c r="K8">
-        <v>0.05256203167809047</v>
+        <v>0.05256203167809045</v>
       </c>
       <c r="L8">
         <v>0.02352571320258009</v>
@@ -3992,124 +3992,124 @@
         <v>0.01381399397861885</v>
       </c>
       <c r="N8">
-        <v>0.04318895192875027</v>
+        <v>0.0431889519287502</v>
       </c>
       <c r="O8">
-        <v>0.7649931027012867</v>
+        <v>0.7649931027012866</v>
       </c>
       <c r="P8">
         <v>0.002557400191136056</v>
       </c>
       <c r="Q8">
-        <v>0.01841142494049644</v>
+        <v>0.01841142494049645</v>
       </c>
       <c r="R8">
-        <v>0.01601489450356126</v>
+        <v>0.01601489450356125</v>
       </c>
       <c r="S8">
         <v>0.003163110344040424</v>
       </c>
       <c r="T8">
-        <v>0.006574406934414623</v>
+        <v>0.006574406934414625</v>
       </c>
       <c r="U8">
         <v>0.01544336837323678</v>
       </c>
       <c r="V8">
-        <v>0.01482312680998478</v>
+        <v>0.01482312680998479</v>
       </c>
       <c r="W8">
-        <v>0.02492847441380323</v>
+        <v>0.02492847441380322</v>
       </c>
       <c r="X8">
-        <v>0.05256203167809045</v>
+        <v>0.05256203167809047</v>
       </c>
       <c r="Y8">
-        <v>0.02352571320258011</v>
+        <v>0.0235257132025801</v>
       </c>
       <c r="Z8">
-        <v>0.01381399397861886</v>
+        <v>0.01381399397861885</v>
       </c>
       <c r="AA8">
-        <v>0.04318895192875023</v>
+        <v>0.04318895192875027</v>
       </c>
       <c r="AB8">
-        <v>0.7649931027012867</v>
+        <v>0.7649931027012866</v>
       </c>
       <c r="AC8">
         <v>0.002557400191136056</v>
       </c>
       <c r="AD8">
-        <v>0.01841142494049644</v>
+        <v>0.01841142494049645</v>
       </c>
       <c r="AE8">
-        <v>0.01601489450356126</v>
+        <v>0.01601489450356125</v>
       </c>
       <c r="AF8">
         <v>0.003163110344040424</v>
       </c>
       <c r="AG8">
-        <v>0.006574406934414623</v>
+        <v>0.006574406934414625</v>
       </c>
       <c r="AH8">
         <v>0.01544336837323678</v>
       </c>
       <c r="AI8">
-        <v>0.01482312680998478</v>
+        <v>0.01482312680998479</v>
       </c>
       <c r="AJ8">
-        <v>0.02492847441380323</v>
+        <v>0.02492847441380322</v>
       </c>
       <c r="AK8">
-        <v>0.05256203167809045</v>
+        <v>0.05256203167809047</v>
       </c>
       <c r="AL8">
-        <v>0.02352571320258011</v>
+        <v>0.0235257132025801</v>
       </c>
       <c r="AM8">
-        <v>0.01381399397861886</v>
+        <v>0.01381399397861885</v>
       </c>
       <c r="AN8">
-        <v>0.04318895192875023</v>
+        <v>0.04318895192875027</v>
       </c>
       <c r="AO8">
-        <v>0.7649931027012867</v>
+        <v>0.7649931027012866</v>
       </c>
       <c r="AP8">
         <v>0.002557400191136056</v>
       </c>
       <c r="AQ8">
-        <v>0.01841142494049644</v>
+        <v>0.01841142494049645</v>
       </c>
       <c r="AR8">
-        <v>0.01601489450356126</v>
+        <v>0.01601489450356125</v>
       </c>
       <c r="AS8">
         <v>0.003163110344040424</v>
       </c>
       <c r="AT8">
-        <v>0.006574406934414623</v>
+        <v>0.006574406934414625</v>
       </c>
       <c r="AU8">
         <v>0.01544336837323678</v>
       </c>
       <c r="AV8">
-        <v>0.01482312680998478</v>
+        <v>0.01482312680998479</v>
       </c>
       <c r="AW8">
-        <v>0.02492847441380323</v>
+        <v>0.02492847441380322</v>
       </c>
       <c r="AX8">
-        <v>0.05256203167809045</v>
+        <v>0.05256203167809047</v>
       </c>
       <c r="AY8">
-        <v>0.02352571320258011</v>
+        <v>0.0235257132025801</v>
       </c>
       <c r="AZ8">
-        <v>0.01381399397861886</v>
+        <v>0.01381399397861885</v>
       </c>
       <c r="BA8">
-        <v>0.04318895192875023</v>
+        <v>0.04318895192875027</v>
       </c>
     </row>
     <row r="9" spans="1:53">
@@ -4120,19 +4120,19 @@
         <v>0.7649931027012867</v>
       </c>
       <c r="C9">
-        <v>0.002557400191136058</v>
+        <v>0.002557400191136057</v>
       </c>
       <c r="D9">
-        <v>0.01841142494049643</v>
+        <v>0.01841142494049645</v>
       </c>
       <c r="E9">
-        <v>0.01601489450356127</v>
+        <v>0.01601489450356125</v>
       </c>
       <c r="F9">
         <v>0.003163110344040425</v>
       </c>
       <c r="G9">
-        <v>0.006574406934414628</v>
+        <v>0.006574406934414625</v>
       </c>
       <c r="H9">
         <v>0.01544336837323678</v>
@@ -4141,25 +4141,25 @@
         <v>0.01482312680998479</v>
       </c>
       <c r="J9">
-        <v>0.02492847441380324</v>
+        <v>0.02492847441380323</v>
       </c>
       <c r="K9">
-        <v>0.05256203167809048</v>
+        <v>0.05256203167809047</v>
       </c>
       <c r="L9">
-        <v>0.02352571320258012</v>
+        <v>0.0235257132025801</v>
       </c>
       <c r="M9">
-        <v>0.01381399397861886</v>
+        <v>0.01381399397861885</v>
       </c>
       <c r="N9">
-        <v>0.04318895192875025</v>
+        <v>0.04318895192875026</v>
       </c>
       <c r="O9">
-        <v>0.7649931027012867</v>
+        <v>0.7649931027012866</v>
       </c>
       <c r="P9">
-        <v>0.002557400191136056</v>
+        <v>0.002557400191136057</v>
       </c>
       <c r="Q9">
         <v>0.01841142494049643</v>
@@ -4168,10 +4168,10 @@
         <v>0.01601489450356125</v>
       </c>
       <c r="S9">
-        <v>0.003163110344040423</v>
+        <v>0.003163110344040424</v>
       </c>
       <c r="T9">
-        <v>0.006574406934414625</v>
+        <v>0.006574406934414623</v>
       </c>
       <c r="U9">
         <v>0.01544336837323677</v>
@@ -4189,28 +4189,28 @@
         <v>0.0235257132025801</v>
       </c>
       <c r="Z9">
-        <v>0.01381399397861886</v>
+        <v>0.01381399397861885</v>
       </c>
       <c r="AA9">
-        <v>0.04318895192875023</v>
+        <v>0.04318895192875025</v>
       </c>
       <c r="AB9">
-        <v>0.7649931027012867</v>
+        <v>0.7649931027012866</v>
       </c>
       <c r="AC9">
         <v>0.002557400191136056</v>
       </c>
       <c r="AD9">
-        <v>0.01841142494049644</v>
+        <v>0.01841142494049643</v>
       </c>
       <c r="AE9">
         <v>0.01601489450356126</v>
       </c>
       <c r="AF9">
-        <v>0.003163110344040424</v>
+        <v>0.003163110344040423</v>
       </c>
       <c r="AG9">
-        <v>0.006574406934414623</v>
+        <v>0.006574406934414622</v>
       </c>
       <c r="AH9">
         <v>0.01544336837323678</v>
@@ -4219,58 +4219,58 @@
         <v>0.01482312680998478</v>
       </c>
       <c r="AJ9">
-        <v>0.02492847441380323</v>
+        <v>0.02492847441380322</v>
       </c>
       <c r="AK9">
-        <v>0.05256203167809047</v>
+        <v>0.05256203167809045</v>
       </c>
       <c r="AL9">
-        <v>0.0235257132025801</v>
+        <v>0.02352571320258009</v>
       </c>
       <c r="AM9">
         <v>0.01381399397861885</v>
       </c>
       <c r="AN9">
-        <v>0.04318895192875025</v>
+        <v>0.04318895192875024</v>
       </c>
       <c r="AO9">
-        <v>0.7649931027012868</v>
+        <v>0.7649931027012866</v>
       </c>
       <c r="AP9">
         <v>0.002557400191136056</v>
       </c>
       <c r="AQ9">
-        <v>0.01841142494049644</v>
+        <v>0.01841142494049643</v>
       </c>
       <c r="AR9">
-        <v>0.01601489450356126</v>
+        <v>0.01601489450356125</v>
       </c>
       <c r="AS9">
         <v>0.003163110344040423</v>
       </c>
       <c r="AT9">
-        <v>0.006574406934414625</v>
+        <v>0.006574406934414623</v>
       </c>
       <c r="AU9">
-        <v>0.01544336837323678</v>
+        <v>0.01544336837323677</v>
       </c>
       <c r="AV9">
-        <v>0.01482312680998479</v>
+        <v>0.01482312680998478</v>
       </c>
       <c r="AW9">
-        <v>0.02492847441380323</v>
+        <v>0.02492847441380322</v>
       </c>
       <c r="AX9">
-        <v>0.05256203167809047</v>
+        <v>0.05256203167809045</v>
       </c>
       <c r="AY9">
-        <v>0.0235257132025801</v>
+        <v>0.02352571320258009</v>
       </c>
       <c r="AZ9">
         <v>0.01381399397861885</v>
       </c>
       <c r="BA9">
-        <v>0.04318895192875025</v>
+        <v>0.04318895192875023</v>
       </c>
     </row>
     <row r="10" spans="1:53">
@@ -4278,64 +4278,64 @@
         <v>2022</v>
       </c>
       <c r="B10">
-        <v>0.7649931027012868</v>
+        <v>0.7649931027012866</v>
       </c>
       <c r="C10">
-        <v>0.002557400191136057</v>
+        <v>0.002557400191136056</v>
       </c>
       <c r="D10">
         <v>0.01841142494049644</v>
       </c>
       <c r="E10">
-        <v>0.01601489450356126</v>
+        <v>0.01601489450356124</v>
       </c>
       <c r="F10">
-        <v>0.003163110344040423</v>
+        <v>0.003163110344040422</v>
       </c>
       <c r="G10">
-        <v>0.006574406934414624</v>
+        <v>0.006574406934414622</v>
       </c>
       <c r="H10">
-        <v>0.01544336837323678</v>
+        <v>0.01544336837323677</v>
       </c>
       <c r="I10">
-        <v>0.01482312680998479</v>
+        <v>0.01482312680998478</v>
       </c>
       <c r="J10">
         <v>0.02492847441380322</v>
       </c>
       <c r="K10">
-        <v>0.05256203167809047</v>
+        <v>0.05256203167809045</v>
       </c>
       <c r="L10">
-        <v>0.0235257132025801</v>
+        <v>0.02352571320258008</v>
       </c>
       <c r="M10">
         <v>0.01381399397861885</v>
       </c>
       <c r="N10">
-        <v>0.04318895192875025</v>
+        <v>0.04318895192875024</v>
       </c>
       <c r="O10">
         <v>0.7649931027012867</v>
       </c>
       <c r="P10">
-        <v>0.002557400191136055</v>
+        <v>0.002557400191136057</v>
       </c>
       <c r="Q10">
-        <v>0.01841142494049643</v>
+        <v>0.01841142494049644</v>
       </c>
       <c r="R10">
-        <v>0.01601489450356125</v>
+        <v>0.01601489450356126</v>
       </c>
       <c r="S10">
-        <v>0.003163110344040423</v>
+        <v>0.003163110344040425</v>
       </c>
       <c r="T10">
-        <v>0.006574406934414623</v>
+        <v>0.006574406934414625</v>
       </c>
       <c r="U10">
-        <v>0.01544336837323677</v>
+        <v>0.01544336837323678</v>
       </c>
       <c r="V10">
         <v>0.01482312680998478</v>
@@ -4344,19 +4344,19 @@
         <v>0.02492847441380322</v>
       </c>
       <c r="X10">
-        <v>0.05256203167809043</v>
+        <v>0.05256203167809047</v>
       </c>
       <c r="Y10">
-        <v>0.0235257132025801</v>
+        <v>0.02352571320258009</v>
       </c>
       <c r="Z10">
         <v>0.01381399397861886</v>
       </c>
       <c r="AA10">
-        <v>0.04318895192875023</v>
+        <v>0.04318895192875024</v>
       </c>
       <c r="AB10">
-        <v>0.7649931027012867</v>
+        <v>0.7649931027012866</v>
       </c>
       <c r="AC10">
         <v>0.002557400191136056</v>
@@ -4365,25 +4365,25 @@
         <v>0.01841142494049644</v>
       </c>
       <c r="AE10">
-        <v>0.01601489450356126</v>
+        <v>0.01601489450356125</v>
       </c>
       <c r="AF10">
-        <v>0.003163110344040425</v>
+        <v>0.003163110344040422</v>
       </c>
       <c r="AG10">
-        <v>0.006574406934414625</v>
+        <v>0.006574406934414623</v>
       </c>
       <c r="AH10">
-        <v>0.01544336837323678</v>
+        <v>0.01544336837323677</v>
       </c>
       <c r="AI10">
-        <v>0.01482312680998479</v>
+        <v>0.01482312680998478</v>
       </c>
       <c r="AJ10">
-        <v>0.02492847441380323</v>
+        <v>0.02492847441380322</v>
       </c>
       <c r="AK10">
-        <v>0.05256203167809047</v>
+        <v>0.05256203167809043</v>
       </c>
       <c r="AL10">
         <v>0.0235257132025801</v>
@@ -4392,13 +4392,13 @@
         <v>0.01381399397861885</v>
       </c>
       <c r="AN10">
-        <v>0.04318895192875025</v>
+        <v>0.04318895192875023</v>
       </c>
       <c r="AO10">
         <v>0.7649931027012866</v>
       </c>
       <c r="AP10">
-        <v>0.002557400191136056</v>
+        <v>0.002557400191136057</v>
       </c>
       <c r="AQ10">
         <v>0.01841142494049644</v>
@@ -4407,7 +4407,7 @@
         <v>0.01601489450356125</v>
       </c>
       <c r="AS10">
-        <v>0.003163110344040425</v>
+        <v>0.003163110344040424</v>
       </c>
       <c r="AT10">
         <v>0.006574406934414624</v>
@@ -4419,19 +4419,19 @@
         <v>0.01482312680998478</v>
       </c>
       <c r="AW10">
-        <v>0.02492847441380323</v>
+        <v>0.02492847441380322</v>
       </c>
       <c r="AX10">
-        <v>0.05256203167809047</v>
+        <v>0.05256203167809045</v>
       </c>
       <c r="AY10">
-        <v>0.0235257132025801</v>
+        <v>0.02352571320258009</v>
       </c>
       <c r="AZ10">
-        <v>0.01381399397861886</v>
+        <v>0.01381399397861885</v>
       </c>
       <c r="BA10">
-        <v>0.04318895192875026</v>
+        <v>0.04318895192875029</v>
       </c>
     </row>
     <row r="11" spans="1:53">
@@ -4445,46 +4445,46 @@
         <v>0.002557400191136057</v>
       </c>
       <c r="D11">
-        <v>0.01841142494049643</v>
+        <v>0.01841142494049644</v>
       </c>
       <c r="E11">
         <v>0.01601489450356126</v>
       </c>
       <c r="F11">
-        <v>0.003163110344040423</v>
+        <v>0.003163110344040424</v>
       </c>
       <c r="G11">
-        <v>0.006574406934414622</v>
+        <v>0.006574406934414626</v>
       </c>
       <c r="H11">
-        <v>0.01544336837323677</v>
+        <v>0.01544336837323678</v>
       </c>
       <c r="I11">
-        <v>0.01482312680998478</v>
+        <v>0.01482312680998479</v>
       </c>
       <c r="J11">
         <v>0.02492847441380323</v>
       </c>
       <c r="K11">
-        <v>0.05256203167809045</v>
+        <v>0.05256203167809047</v>
       </c>
       <c r="L11">
-        <v>0.02352571320258009</v>
+        <v>0.0235257132025801</v>
       </c>
       <c r="M11">
-        <v>0.01381399397861885</v>
+        <v>0.01381399397861886</v>
       </c>
       <c r="N11">
         <v>0.04318895192875024</v>
       </c>
       <c r="O11">
-        <v>0.7649931027012866</v>
+        <v>0.7649931027012867</v>
       </c>
       <c r="P11">
         <v>0.002557400191136057</v>
       </c>
       <c r="Q11">
-        <v>0.01841142494049644</v>
+        <v>0.01841142494049643</v>
       </c>
       <c r="R11">
         <v>0.01601489450356126</v>
@@ -4493,34 +4493,34 @@
         <v>0.003163110344040424</v>
       </c>
       <c r="T11">
-        <v>0.006574406934414625</v>
+        <v>0.006574406934414627</v>
       </c>
       <c r="U11">
         <v>0.01544336837323678</v>
       </c>
       <c r="V11">
-        <v>0.01482312680998478</v>
+        <v>0.01482312680998479</v>
       </c>
       <c r="W11">
-        <v>0.02492847441380323</v>
+        <v>0.02492847441380324</v>
       </c>
       <c r="X11">
-        <v>0.05256203167809047</v>
+        <v>0.05256203167809045</v>
       </c>
       <c r="Y11">
-        <v>0.0235257132025801</v>
+        <v>0.02352571320258011</v>
       </c>
       <c r="Z11">
-        <v>0.01381399397861885</v>
+        <v>0.01381399397861886</v>
       </c>
       <c r="AA11">
-        <v>0.04318895192875024</v>
+        <v>0.04318895192875025</v>
       </c>
       <c r="AB11">
-        <v>0.7649931027012868</v>
+        <v>0.7649931027012867</v>
       </c>
       <c r="AC11">
-        <v>0.002557400191136055</v>
+        <v>0.002557400191136057</v>
       </c>
       <c r="AD11">
         <v>0.01841142494049643</v>
@@ -4535,16 +4535,16 @@
         <v>0.006574406934414623</v>
       </c>
       <c r="AH11">
-        <v>0.01544336837323678</v>
+        <v>0.01544336837323677</v>
       </c>
       <c r="AI11">
         <v>0.01482312680998478</v>
       </c>
       <c r="AJ11">
-        <v>0.02492847441380323</v>
+        <v>0.02492847441380322</v>
       </c>
       <c r="AK11">
-        <v>0.05256203167809045</v>
+        <v>0.05256203167809047</v>
       </c>
       <c r="AL11">
         <v>0.0235257132025801</v>
@@ -4562,7 +4562,7 @@
         <v>0.002557400191136056</v>
       </c>
       <c r="AQ11">
-        <v>0.01841142494049644</v>
+        <v>0.01841142494049645</v>
       </c>
       <c r="AR11">
         <v>0.01601489450356125</v>
@@ -4571,28 +4571,28 @@
         <v>0.003163110344040424</v>
       </c>
       <c r="AT11">
-        <v>0.006574406934414625</v>
+        <v>0.006574406934414624</v>
       </c>
       <c r="AU11">
         <v>0.01544336837323678</v>
       </c>
       <c r="AV11">
-        <v>0.01482312680998479</v>
+        <v>0.01482312680998478</v>
       </c>
       <c r="AW11">
         <v>0.02492847441380322</v>
       </c>
       <c r="AX11">
-        <v>0.05256203167809045</v>
+        <v>0.05256203167809047</v>
       </c>
       <c r="AY11">
         <v>0.0235257132025801</v>
       </c>
       <c r="AZ11">
-        <v>0.01381399397861886</v>
+        <v>0.01381399397861885</v>
       </c>
       <c r="BA11">
-        <v>0.04318895192875025</v>
+        <v>0.04318895192875027</v>
       </c>
     </row>
     <row r="12" spans="1:53">
@@ -4603,49 +4603,49 @@
         <v>0.7649931027012867</v>
       </c>
       <c r="C12">
-        <v>0.002557400191136057</v>
+        <v>0.002557400191136055</v>
       </c>
       <c r="D12">
-        <v>0.01841142494049644</v>
+        <v>0.01841142494049643</v>
       </c>
       <c r="E12">
-        <v>0.01601489450356125</v>
+        <v>0.01601489450356126</v>
       </c>
       <c r="F12">
-        <v>0.003163110344040424</v>
+        <v>0.003163110344040422</v>
       </c>
       <c r="G12">
-        <v>0.006574406934414624</v>
+        <v>0.006574406934414623</v>
       </c>
       <c r="H12">
-        <v>0.01544336837323678</v>
+        <v>0.01544336837323677</v>
       </c>
       <c r="I12">
         <v>0.01482312680998478</v>
       </c>
       <c r="J12">
-        <v>0.02492847441380324</v>
+        <v>0.02492847441380322</v>
       </c>
       <c r="K12">
-        <v>0.05256203167809047</v>
+        <v>0.05256203167809045</v>
       </c>
       <c r="L12">
-        <v>0.0235257132025801</v>
+        <v>0.02352571320258009</v>
       </c>
       <c r="M12">
         <v>0.01381399397861885</v>
       </c>
       <c r="N12">
-        <v>0.04318895192875025</v>
+        <v>0.04318895192875024</v>
       </c>
       <c r="O12">
-        <v>0.7649931027012866</v>
+        <v>0.764993102701287</v>
       </c>
       <c r="P12">
-        <v>0.002557400191136057</v>
+        <v>0.002557400191136056</v>
       </c>
       <c r="Q12">
-        <v>0.01841142494049644</v>
+        <v>0.01841142494049643</v>
       </c>
       <c r="R12">
         <v>0.01601489450356126</v>
@@ -4654,10 +4654,10 @@
         <v>0.003163110344040424</v>
       </c>
       <c r="T12">
-        <v>0.006574406934414625</v>
+        <v>0.006574406934414626</v>
       </c>
       <c r="U12">
-        <v>0.01544336837323677</v>
+        <v>0.01544336837323678</v>
       </c>
       <c r="V12">
         <v>0.01482312680998478</v>
@@ -4666,7 +4666,7 @@
         <v>0.02492847441380323</v>
       </c>
       <c r="X12">
-        <v>0.05256203167809047</v>
+        <v>0.05256203167809046</v>
       </c>
       <c r="Y12">
         <v>0.0235257132025801</v>
@@ -4684,13 +4684,13 @@
         <v>0.002557400191136057</v>
       </c>
       <c r="AD12">
-        <v>0.01841142494049643</v>
+        <v>0.01841142494049645</v>
       </c>
       <c r="AE12">
         <v>0.01601489450356126</v>
       </c>
       <c r="AF12">
-        <v>0.003163110344040424</v>
+        <v>0.003163110344040423</v>
       </c>
       <c r="AG12">
         <v>0.006574406934414625</v>
@@ -4702,34 +4702,34 @@
         <v>0.01482312680998479</v>
       </c>
       <c r="AJ12">
-        <v>0.02492847441380323</v>
+        <v>0.02492847441380324</v>
       </c>
       <c r="AK12">
         <v>0.05256203167809047</v>
       </c>
       <c r="AL12">
-        <v>0.02352571320258011</v>
+        <v>0.0235257132025801</v>
       </c>
       <c r="AM12">
         <v>0.01381399397861886</v>
       </c>
       <c r="AN12">
-        <v>0.04318895192875028</v>
+        <v>0.04318895192875027</v>
       </c>
       <c r="AO12">
         <v>0.7649931027012866</v>
       </c>
       <c r="AP12">
-        <v>0.002557400191136057</v>
+        <v>0.002557400191136055</v>
       </c>
       <c r="AQ12">
-        <v>0.01841142494049644</v>
+        <v>0.01841142494049643</v>
       </c>
       <c r="AR12">
-        <v>0.01601489450356126</v>
+        <v>0.01601489450356125</v>
       </c>
       <c r="AS12">
-        <v>0.003163110344040424</v>
+        <v>0.003163110344040423</v>
       </c>
       <c r="AT12">
         <v>0.006574406934414623</v>
@@ -4744,16 +4744,16 @@
         <v>0.02492847441380322</v>
       </c>
       <c r="AX12">
-        <v>0.05256203167809044</v>
+        <v>0.05256203167809046</v>
       </c>
       <c r="AY12">
-        <v>0.02352571320258009</v>
+        <v>0.02352571320258008</v>
       </c>
       <c r="AZ12">
-        <v>0.01381399397861886</v>
+        <v>0.01381399397861885</v>
       </c>
       <c r="BA12">
-        <v>0.04318895192875023</v>
+        <v>0.04318895192875026</v>
       </c>
     </row>
     <row r="13" spans="1:53">
@@ -4773,40 +4773,40 @@
         <v>0.01601489450356126</v>
       </c>
       <c r="F13">
-        <v>0.003163110344040424</v>
+        <v>0.003163110344040422</v>
       </c>
       <c r="G13">
-        <v>0.006574406934414625</v>
+        <v>0.006574406934414623</v>
       </c>
       <c r="H13">
-        <v>0.01544336837323678</v>
+        <v>0.01544336837323677</v>
       </c>
       <c r="I13">
         <v>0.01482312680998478</v>
       </c>
       <c r="J13">
-        <v>0.02492847441380323</v>
+        <v>0.02492847441380322</v>
       </c>
       <c r="K13">
-        <v>0.05256203167809047</v>
+        <v>0.05256203167809045</v>
       </c>
       <c r="L13">
-        <v>0.0235257132025801</v>
+        <v>0.02352571320258008</v>
       </c>
       <c r="M13">
         <v>0.01381399397861885</v>
       </c>
       <c r="N13">
-        <v>0.04318895192875025</v>
+        <v>0.04318895192875024</v>
       </c>
       <c r="O13">
-        <v>0.7649931027012868</v>
+        <v>0.7649931027012867</v>
       </c>
       <c r="P13">
-        <v>0.002557400191136056</v>
+        <v>0.002557400191136057</v>
       </c>
       <c r="Q13">
-        <v>0.01841142494049644</v>
+        <v>0.01841142494049643</v>
       </c>
       <c r="R13">
         <v>0.01601489450356126</v>
@@ -4827,7 +4827,7 @@
         <v>0.02492847441380323</v>
       </c>
       <c r="X13">
-        <v>0.05256203167809047</v>
+        <v>0.05256203167809046</v>
       </c>
       <c r="Y13">
         <v>0.0235257132025801</v>
@@ -4839,7 +4839,7 @@
         <v>0.04318895192875023</v>
       </c>
       <c r="AB13">
-        <v>0.7649931027012867</v>
+        <v>0.7649931027012868</v>
       </c>
       <c r="AC13">
         <v>0.002557400191136056</v>
@@ -4848,40 +4848,40 @@
         <v>0.01841142494049644</v>
       </c>
       <c r="AE13">
-        <v>0.01601489450356125</v>
+        <v>0.01601489450356126</v>
       </c>
       <c r="AF13">
-        <v>0.003163110344040423</v>
+        <v>0.003163110344040424</v>
       </c>
       <c r="AG13">
-        <v>0.006574406934414624</v>
+        <v>0.006574406934414626</v>
       </c>
       <c r="AH13">
-        <v>0.01544336837323678</v>
+        <v>0.01544336837323677</v>
       </c>
       <c r="AI13">
         <v>0.01482312680998478</v>
       </c>
       <c r="AJ13">
-        <v>0.02492847441380321</v>
+        <v>0.02492847441380322</v>
       </c>
       <c r="AK13">
         <v>0.05256203167809045</v>
       </c>
       <c r="AL13">
-        <v>0.02352571320258009</v>
+        <v>0.0235257132025801</v>
       </c>
       <c r="AM13">
         <v>0.01381399397861885</v>
       </c>
       <c r="AN13">
-        <v>0.04318895192875028</v>
+        <v>0.04318895192875023</v>
       </c>
       <c r="AO13">
-        <v>0.7649931027012867</v>
+        <v>0.7649931027012866</v>
       </c>
       <c r="AP13">
-        <v>0.002557400191136058</v>
+        <v>0.002557400191136056</v>
       </c>
       <c r="AQ13">
         <v>0.01841142494049644</v>
@@ -4890,28 +4890,28 @@
         <v>0.01601489450356126</v>
       </c>
       <c r="AS13">
-        <v>0.003163110344040424</v>
+        <v>0.003163110344040423</v>
       </c>
       <c r="AT13">
-        <v>0.006574406934414624</v>
+        <v>0.006574406934414623</v>
       </c>
       <c r="AU13">
         <v>0.01544336837323678</v>
       </c>
       <c r="AV13">
-        <v>0.01482312680998479</v>
+        <v>0.01482312680998478</v>
       </c>
       <c r="AW13">
-        <v>0.02492847441380323</v>
+        <v>0.02492847441380322</v>
       </c>
       <c r="AX13">
-        <v>0.05256203167809046</v>
+        <v>0.05256203167809047</v>
       </c>
       <c r="AY13">
         <v>0.0235257132025801</v>
       </c>
       <c r="AZ13">
-        <v>0.01381399397861886</v>
+        <v>0.01381399397861885</v>
       </c>
       <c r="BA13">
         <v>0.04318895192875025</v>
@@ -4925,10 +4925,10 @@
         <v>0.7649931027012867</v>
       </c>
       <c r="C14">
-        <v>0.002557400191136057</v>
+        <v>0.002557400191136056</v>
       </c>
       <c r="D14">
-        <v>0.01841142494049645</v>
+        <v>0.01841142494049644</v>
       </c>
       <c r="E14">
         <v>0.01601489450356126</v>
@@ -4937,7 +4937,7 @@
         <v>0.003163110344040425</v>
       </c>
       <c r="G14">
-        <v>0.006574406934414626</v>
+        <v>0.006574406934414627</v>
       </c>
       <c r="H14">
         <v>0.01544336837323678</v>
@@ -4952,7 +4952,7 @@
         <v>0.05256203167809048</v>
       </c>
       <c r="L14">
-        <v>0.0235257132025801</v>
+        <v>0.02352571320258011</v>
       </c>
       <c r="M14">
         <v>0.01381399397861886</v>
@@ -4961,19 +4961,19 @@
         <v>0.04318895192875027</v>
       </c>
       <c r="O14">
-        <v>0.7649931027012868</v>
+        <v>0.7649931027012867</v>
       </c>
       <c r="P14">
-        <v>0.002557400191136057</v>
+        <v>0.002557400191136056</v>
       </c>
       <c r="Q14">
-        <v>0.01841142494049644</v>
+        <v>0.01841142494049645</v>
       </c>
       <c r="R14">
-        <v>0.01601489450356126</v>
+        <v>0.01601489450356125</v>
       </c>
       <c r="S14">
-        <v>0.003163110344040424</v>
+        <v>0.003163110344040423</v>
       </c>
       <c r="T14">
         <v>0.006574406934414624</v>
@@ -4982,31 +4982,31 @@
         <v>0.01544336837323678</v>
       </c>
       <c r="V14">
-        <v>0.01482312680998479</v>
+        <v>0.01482312680998478</v>
       </c>
       <c r="W14">
-        <v>0.02492847441380324</v>
+        <v>0.02492847441380322</v>
       </c>
       <c r="X14">
-        <v>0.05256203167809047</v>
+        <v>0.05256203167809045</v>
       </c>
       <c r="Y14">
-        <v>0.02352571320258011</v>
+        <v>0.0235257132025801</v>
       </c>
       <c r="Z14">
-        <v>0.01381399397861886</v>
+        <v>0.01381399397861885</v>
       </c>
       <c r="AA14">
-        <v>0.04318895192875027</v>
+        <v>0.04318895192875026</v>
       </c>
       <c r="AB14">
         <v>0.7649931027012867</v>
       </c>
       <c r="AC14">
-        <v>0.002557400191136056</v>
+        <v>0.002557400191136058</v>
       </c>
       <c r="AD14">
-        <v>0.01841142494049644</v>
+        <v>0.01841142494049645</v>
       </c>
       <c r="AE14">
         <v>0.01601489450356126</v>
@@ -5015,22 +5015,22 @@
         <v>0.003163110344040424</v>
       </c>
       <c r="AG14">
-        <v>0.006574406934414624</v>
+        <v>0.006574406934414626</v>
       </c>
       <c r="AH14">
-        <v>0.01544336837323678</v>
+        <v>0.01544336837323679</v>
       </c>
       <c r="AI14">
-        <v>0.01482312680998478</v>
+        <v>0.01482312680998479</v>
       </c>
       <c r="AJ14">
-        <v>0.02492847441380324</v>
+        <v>0.02492847441380323</v>
       </c>
       <c r="AK14">
-        <v>0.05256203167809046</v>
+        <v>0.05256203167809048</v>
       </c>
       <c r="AL14">
-        <v>0.0235257132025801</v>
+        <v>0.02352571320258011</v>
       </c>
       <c r="AM14">
         <v>0.01381399397861886</v>
@@ -5039,43 +5039,43 @@
         <v>0.04318895192875026</v>
       </c>
       <c r="AO14">
-        <v>0.7649931027012866</v>
+        <v>0.7649931027012867</v>
       </c>
       <c r="AP14">
-        <v>0.002557400191136055</v>
+        <v>0.002557400191136058</v>
       </c>
       <c r="AQ14">
-        <v>0.01841142494049643</v>
+        <v>0.01841142494049644</v>
       </c>
       <c r="AR14">
-        <v>0.01601489450356125</v>
+        <v>0.01601489450356126</v>
       </c>
       <c r="AS14">
-        <v>0.003163110344040422</v>
+        <v>0.003163110344040423</v>
       </c>
       <c r="AT14">
-        <v>0.006574406934414622</v>
+        <v>0.006574406934414627</v>
       </c>
       <c r="AU14">
-        <v>0.01544336837323677</v>
+        <v>0.01544336837323678</v>
       </c>
       <c r="AV14">
-        <v>0.01482312680998478</v>
+        <v>0.01482312680998479</v>
       </c>
       <c r="AW14">
-        <v>0.02492847441380322</v>
+        <v>0.02492847441380323</v>
       </c>
       <c r="AX14">
-        <v>0.05256203167809044</v>
+        <v>0.05256203167809047</v>
       </c>
       <c r="AY14">
-        <v>0.02352571320258009</v>
+        <v>0.02352571320258011</v>
       </c>
       <c r="AZ14">
-        <v>0.01381399397861885</v>
+        <v>0.01381399397861886</v>
       </c>
       <c r="BA14">
-        <v>0.04318895192875023</v>
+        <v>0.04318895192875025</v>
       </c>
     </row>
     <row r="15" spans="1:53">
@@ -5095,19 +5095,19 @@
         <v>0.01601489450356126</v>
       </c>
       <c r="F15">
-        <v>0.003163110344040425</v>
+        <v>0.003163110344040424</v>
       </c>
       <c r="G15">
-        <v>0.006574406934414626</v>
+        <v>0.006574406934414623</v>
       </c>
       <c r="H15">
-        <v>0.01544336837323679</v>
+        <v>0.01544336837323678</v>
       </c>
       <c r="I15">
         <v>0.01482312680998478</v>
       </c>
       <c r="J15">
-        <v>0.02492847441380323</v>
+        <v>0.02492847441380322</v>
       </c>
       <c r="K15">
         <v>0.05256203167809047</v>
@@ -5116,19 +5116,19 @@
         <v>0.0235257132025801</v>
       </c>
       <c r="M15">
-        <v>0.01381399397861885</v>
+        <v>0.01381399397861886</v>
       </c>
       <c r="N15">
-        <v>0.04318895192875025</v>
+        <v>0.04318895192875028</v>
       </c>
       <c r="O15">
-        <v>0.7649931027012867</v>
+        <v>0.7649931027012866</v>
       </c>
       <c r="P15">
-        <v>0.002557400191136055</v>
+        <v>0.002557400191136057</v>
       </c>
       <c r="Q15">
-        <v>0.01841142494049644</v>
+        <v>0.01841142494049645</v>
       </c>
       <c r="R15">
         <v>0.01601489450356125</v>
@@ -5137,10 +5137,10 @@
         <v>0.003163110344040424</v>
       </c>
       <c r="T15">
-        <v>0.006574406934414623</v>
+        <v>0.006574406934414628</v>
       </c>
       <c r="U15">
-        <v>0.01544336837323677</v>
+        <v>0.01544336837323678</v>
       </c>
       <c r="V15">
         <v>0.01482312680998478</v>
@@ -5149,34 +5149,34 @@
         <v>0.02492847441380323</v>
       </c>
       <c r="X15">
-        <v>0.05256203167809045</v>
+        <v>0.05256203167809048</v>
       </c>
       <c r="Y15">
         <v>0.0235257132025801</v>
       </c>
       <c r="Z15">
-        <v>0.01381399397861885</v>
+        <v>0.01381399397861886</v>
       </c>
       <c r="AA15">
-        <v>0.04318895192875026</v>
+        <v>0.04318895192875028</v>
       </c>
       <c r="AB15">
         <v>0.7649931027012868</v>
       </c>
       <c r="AC15">
-        <v>0.002557400191136058</v>
+        <v>0.002557400191136057</v>
       </c>
       <c r="AD15">
-        <v>0.01841142494049645</v>
+        <v>0.01841142494049644</v>
       </c>
       <c r="AE15">
-        <v>0.01601489450356125</v>
+        <v>0.01601489450356127</v>
       </c>
       <c r="AF15">
-        <v>0.003163110344040423</v>
+        <v>0.003163110344040425</v>
       </c>
       <c r="AG15">
-        <v>0.006574406934414624</v>
+        <v>0.006574406934414626</v>
       </c>
       <c r="AH15">
         <v>0.01544336837323678</v>
@@ -5185,25 +5185,25 @@
         <v>0.01482312680998479</v>
       </c>
       <c r="AJ15">
-        <v>0.02492847441380322</v>
+        <v>0.02492847441380324</v>
       </c>
       <c r="AK15">
         <v>0.05256203167809047</v>
       </c>
       <c r="AL15">
-        <v>0.0235257132025801</v>
+        <v>0.02352571320258011</v>
       </c>
       <c r="AM15">
-        <v>0.01381399397861885</v>
+        <v>0.01381399397861886</v>
       </c>
       <c r="AN15">
-        <v>0.0431889519287503</v>
+        <v>0.04318895192875025</v>
       </c>
       <c r="AO15">
         <v>0.7649931027012866</v>
       </c>
       <c r="AP15">
-        <v>0.002557400191136056</v>
+        <v>0.002557400191136054</v>
       </c>
       <c r="AQ15">
         <v>0.01841142494049643</v>
@@ -5212,10 +5212,10 @@
         <v>0.01601489450356125</v>
       </c>
       <c r="AS15">
-        <v>0.003163110344040422</v>
+        <v>0.003163110344040421</v>
       </c>
       <c r="AT15">
-        <v>0.006574406934414622</v>
+        <v>0.006574406934414624</v>
       </c>
       <c r="AU15">
         <v>0.01544336837323677</v>
@@ -5230,13 +5230,13 @@
         <v>0.05256203167809045</v>
       </c>
       <c r="AY15">
-        <v>0.02352571320258008</v>
+        <v>0.02352571320258009</v>
       </c>
       <c r="AZ15">
         <v>0.01381399397861885</v>
       </c>
       <c r="BA15">
-        <v>0.04318895192875025</v>
+        <v>0.04318895192875023</v>
       </c>
     </row>
     <row r="16" spans="1:53">
@@ -5250,13 +5250,13 @@
         <v>0.002557400191136055</v>
       </c>
       <c r="D16">
-        <v>0.01841142494049645</v>
+        <v>0.01841142494049644</v>
       </c>
       <c r="E16">
         <v>0.01601489450356125</v>
       </c>
       <c r="F16">
-        <v>0.003163110344040424</v>
+        <v>0.003163110344040423</v>
       </c>
       <c r="G16">
         <v>0.006574406934414623</v>
@@ -5268,25 +5268,25 @@
         <v>0.01482312680998478</v>
       </c>
       <c r="J16">
-        <v>0.02492847441380322</v>
+        <v>0.02492847441380321</v>
       </c>
       <c r="K16">
         <v>0.05256203167809045</v>
       </c>
       <c r="L16">
-        <v>0.0235257132025801</v>
+        <v>0.02352571320258009</v>
       </c>
       <c r="M16">
-        <v>0.01381399397861885</v>
+        <v>0.01381399397861884</v>
       </c>
       <c r="N16">
-        <v>0.04318895192875027</v>
+        <v>0.04318895192875026</v>
       </c>
       <c r="O16">
-        <v>0.7649931027012867</v>
+        <v>0.7649931027012866</v>
       </c>
       <c r="P16">
-        <v>0.002557400191136056</v>
+        <v>0.002557400191136057</v>
       </c>
       <c r="Q16">
         <v>0.01841142494049644</v>
@@ -5316,88 +5316,88 @@
         <v>0.02352571320258009</v>
       </c>
       <c r="Z16">
-        <v>0.01381399397861886</v>
+        <v>0.01381399397861885</v>
       </c>
       <c r="AA16">
-        <v>0.04318895192875024</v>
+        <v>0.04318895192875027</v>
       </c>
       <c r="AB16">
-        <v>0.7649931027012867</v>
+        <v>0.7649931027012868</v>
       </c>
       <c r="AC16">
         <v>0.002557400191136056</v>
       </c>
       <c r="AD16">
-        <v>0.01841142494049643</v>
+        <v>0.01841142494049645</v>
       </c>
       <c r="AE16">
-        <v>0.01601489450356125</v>
+        <v>0.01601489450356126</v>
       </c>
       <c r="AF16">
-        <v>0.003163110344040423</v>
+        <v>0.003163110344040424</v>
       </c>
       <c r="AG16">
-        <v>0.006574406934414623</v>
+        <v>0.006574406934414626</v>
       </c>
       <c r="AH16">
-        <v>0.01544336837323677</v>
+        <v>0.01544336837323678</v>
       </c>
       <c r="AI16">
         <v>0.01482312680998478</v>
       </c>
       <c r="AJ16">
-        <v>0.02492847441380321</v>
+        <v>0.02492847441380323</v>
       </c>
       <c r="AK16">
-        <v>0.05256203167809043</v>
+        <v>0.05256203167809046</v>
       </c>
       <c r="AL16">
-        <v>0.02352571320258009</v>
+        <v>0.0235257132025801</v>
       </c>
       <c r="AM16">
-        <v>0.01381399397861885</v>
+        <v>0.01381399397861886</v>
       </c>
       <c r="AN16">
-        <v>0.04318895192875023</v>
+        <v>0.04318895192875025</v>
       </c>
       <c r="AO16">
-        <v>0.7649931027012868</v>
+        <v>0.7649931027012867</v>
       </c>
       <c r="AP16">
         <v>0.002557400191136057</v>
       </c>
       <c r="AQ16">
-        <v>0.01841142494049644</v>
+        <v>0.01841142494049645</v>
       </c>
       <c r="AR16">
         <v>0.01601489450356126</v>
       </c>
       <c r="AS16">
-        <v>0.003163110344040424</v>
+        <v>0.003163110344040426</v>
       </c>
       <c r="AT16">
-        <v>0.006574406934414624</v>
+        <v>0.006574406934414625</v>
       </c>
       <c r="AU16">
         <v>0.01544336837323678</v>
       </c>
       <c r="AV16">
-        <v>0.01482312680998479</v>
+        <v>0.01482312680998478</v>
       </c>
       <c r="AW16">
         <v>0.02492847441380323</v>
       </c>
       <c r="AX16">
-        <v>0.05256203167809047</v>
+        <v>0.05256203167809048</v>
       </c>
       <c r="AY16">
         <v>0.0235257132025801</v>
       </c>
       <c r="AZ16">
-        <v>0.01381399397861885</v>
+        <v>0.01381399397861886</v>
       </c>
       <c r="BA16">
-        <v>0.04318895192875024</v>
+        <v>0.04318895192875026</v>
       </c>
     </row>
     <row r="17" spans="1:53">
@@ -5408,31 +5408,31 @@
         <v>0.7649931027012867</v>
       </c>
       <c r="C17">
-        <v>0.002557400191136055</v>
+        <v>0.002557400191136057</v>
       </c>
       <c r="D17">
-        <v>0.01841142494049643</v>
+        <v>0.01841142494049644</v>
       </c>
       <c r="E17">
         <v>0.01601489450356126</v>
       </c>
       <c r="F17">
-        <v>0.003163110344040423</v>
+        <v>0.003163110344040426</v>
       </c>
       <c r="G17">
-        <v>0.006574406934414624</v>
+        <v>0.006574406934414623</v>
       </c>
       <c r="H17">
         <v>0.01544336837323678</v>
       </c>
       <c r="I17">
-        <v>0.01482312680998479</v>
+        <v>0.01482312680998478</v>
       </c>
       <c r="J17">
-        <v>0.02492847441380323</v>
+        <v>0.02492847441380322</v>
       </c>
       <c r="K17">
-        <v>0.05256203167809045</v>
+        <v>0.05256203167809047</v>
       </c>
       <c r="L17">
         <v>0.0235257132025801</v>
@@ -5441,85 +5441,85 @@
         <v>0.01381399397861885</v>
       </c>
       <c r="N17">
-        <v>0.04318895192875023</v>
+        <v>0.04318895192875027</v>
       </c>
       <c r="O17">
-        <v>0.7649931027012868</v>
+        <v>0.7649931027012867</v>
       </c>
       <c r="P17">
-        <v>0.002557400191136055</v>
+        <v>0.002557400191136056</v>
       </c>
       <c r="Q17">
-        <v>0.01841142494049643</v>
+        <v>0.01841142494049644</v>
       </c>
       <c r="R17">
-        <v>0.01601489450356125</v>
+        <v>0.01601489450356126</v>
       </c>
       <c r="S17">
-        <v>0.003163110344040422</v>
+        <v>0.003163110344040424</v>
       </c>
       <c r="T17">
-        <v>0.006574406934414621</v>
+        <v>0.006574406934414626</v>
       </c>
       <c r="U17">
         <v>0.01544336837323678</v>
       </c>
       <c r="V17">
-        <v>0.01482312680998478</v>
+        <v>0.01482312680998479</v>
       </c>
       <c r="W17">
-        <v>0.02492847441380321</v>
+        <v>0.02492847441380324</v>
       </c>
       <c r="X17">
-        <v>0.05256203167809045</v>
+        <v>0.05256203167809046</v>
       </c>
       <c r="Y17">
-        <v>0.02352571320258009</v>
+        <v>0.02352571320258011</v>
       </c>
       <c r="Z17">
-        <v>0.01381399397861885</v>
+        <v>0.01381399397861886</v>
       </c>
       <c r="AA17">
-        <v>0.04318895192875025</v>
+        <v>0.04318895192875023</v>
       </c>
       <c r="AB17">
-        <v>0.7649931027012867</v>
+        <v>0.7649931027012868</v>
       </c>
       <c r="AC17">
-        <v>0.002557400191136058</v>
+        <v>0.002557400191136056</v>
       </c>
       <c r="AD17">
-        <v>0.01841142494049643</v>
+        <v>0.01841142494049644</v>
       </c>
       <c r="AE17">
         <v>0.01601489450356126</v>
       </c>
       <c r="AF17">
-        <v>0.003163110344040423</v>
+        <v>0.003163110344040424</v>
       </c>
       <c r="AG17">
-        <v>0.006574406934414623</v>
+        <v>0.006574406934414627</v>
       </c>
       <c r="AH17">
-        <v>0.01544336837323677</v>
+        <v>0.01544336837323678</v>
       </c>
       <c r="AI17">
-        <v>0.01482312680998479</v>
+        <v>0.01482312680998478</v>
       </c>
       <c r="AJ17">
-        <v>0.02492847441380324</v>
+        <v>0.02492847441380323</v>
       </c>
       <c r="AK17">
-        <v>0.05256203167809047</v>
+        <v>0.05256203167809046</v>
       </c>
       <c r="AL17">
-        <v>0.02352571320258011</v>
+        <v>0.0235257132025801</v>
       </c>
       <c r="AM17">
-        <v>0.01381399397861886</v>
+        <v>0.01381399397861885</v>
       </c>
       <c r="AN17">
-        <v>0.04318895192875024</v>
+        <v>0.04318895192875025</v>
       </c>
       <c r="AO17">
         <v>0.7649931027012867</v>
@@ -5531,13 +5531,13 @@
         <v>0.01841142494049643</v>
       </c>
       <c r="AR17">
-        <v>0.01601489450356126</v>
+        <v>0.01601489450356125</v>
       </c>
       <c r="AS17">
-        <v>0.003163110344040424</v>
+        <v>0.003163110344040422</v>
       </c>
       <c r="AT17">
-        <v>0.006574406934414622</v>
+        <v>0.006574406934414623</v>
       </c>
       <c r="AU17">
         <v>0.01544336837323677</v>
@@ -5546,19 +5546,19 @@
         <v>0.01482312680998478</v>
       </c>
       <c r="AW17">
-        <v>0.02492847441380323</v>
+        <v>0.02492847441380322</v>
       </c>
       <c r="AX17">
-        <v>0.05256203167809047</v>
+        <v>0.05256203167809045</v>
       </c>
       <c r="AY17">
         <v>0.02352571320258009</v>
       </c>
       <c r="AZ17">
-        <v>0.01381399397861886</v>
+        <v>0.01381399397861885</v>
       </c>
       <c r="BA17">
-        <v>0.04318895192875022</v>
+        <v>0.04318895192875025</v>
       </c>
     </row>
     <row r="18" spans="1:53">
@@ -5566,49 +5566,49 @@
         <v>2030</v>
       </c>
       <c r="B18">
-        <v>0.7649931027012867</v>
+        <v>0.7649931027012868</v>
       </c>
       <c r="C18">
-        <v>0.002557400191136055</v>
+        <v>0.002557400191136056</v>
       </c>
       <c r="D18">
         <v>0.01841142494049643</v>
       </c>
       <c r="E18">
-        <v>0.01601489450356125</v>
+        <v>0.01601489450356126</v>
       </c>
       <c r="F18">
-        <v>0.003163110344040423</v>
+        <v>0.003163110344040424</v>
       </c>
       <c r="G18">
-        <v>0.006574406934414622</v>
+        <v>0.006574406934414627</v>
       </c>
       <c r="H18">
-        <v>0.01544336837323677</v>
+        <v>0.01544336837323678</v>
       </c>
       <c r="I18">
-        <v>0.01482312680998478</v>
+        <v>0.01482312680998479</v>
       </c>
       <c r="J18">
-        <v>0.02492847441380322</v>
+        <v>0.02492847441380323</v>
       </c>
       <c r="K18">
-        <v>0.05256203167809045</v>
+        <v>0.05256203167809048</v>
       </c>
       <c r="L18">
-        <v>0.02352571320258008</v>
+        <v>0.02352571320258011</v>
       </c>
       <c r="M18">
         <v>0.01381399397861886</v>
       </c>
       <c r="N18">
-        <v>0.04318895192875025</v>
+        <v>0.04318895192875023</v>
       </c>
       <c r="O18">
-        <v>0.7649931027012868</v>
+        <v>0.7649931027012867</v>
       </c>
       <c r="P18">
-        <v>0.002557400191136056</v>
+        <v>0.002557400191136058</v>
       </c>
       <c r="Q18">
         <v>0.01841142494049644</v>
@@ -5620,7 +5620,7 @@
         <v>0.003163110344040424</v>
       </c>
       <c r="T18">
-        <v>0.006574406934414626</v>
+        <v>0.006574406934414625</v>
       </c>
       <c r="U18">
         <v>0.01544336837323678</v>
@@ -5632,70 +5632,70 @@
         <v>0.02492847441380323</v>
       </c>
       <c r="X18">
-        <v>0.05256203167809047</v>
+        <v>0.05256203167809046</v>
       </c>
       <c r="Y18">
-        <v>0.0235257132025801</v>
+        <v>0.02352571320258009</v>
       </c>
       <c r="Z18">
-        <v>0.01381399397861885</v>
+        <v>0.01381399397861886</v>
       </c>
       <c r="AA18">
-        <v>0.04318895192875024</v>
+        <v>0.04318895192875027</v>
       </c>
       <c r="AB18">
-        <v>0.7649931027012868</v>
+        <v>0.7649931027012867</v>
       </c>
       <c r="AC18">
         <v>0.002557400191136056</v>
       </c>
       <c r="AD18">
-        <v>0.01841142494049643</v>
+        <v>0.01841142494049644</v>
       </c>
       <c r="AE18">
-        <v>0.01601489450356126</v>
+        <v>0.01601489450356125</v>
       </c>
       <c r="AF18">
-        <v>0.003163110344040424</v>
+        <v>0.003163110344040422</v>
       </c>
       <c r="AG18">
-        <v>0.006574406934414624</v>
+        <v>0.006574406934414622</v>
       </c>
       <c r="AH18">
         <v>0.01544336837323677</v>
       </c>
       <c r="AI18">
-        <v>0.01482312680998478</v>
+        <v>0.01482312680998477</v>
       </c>
       <c r="AJ18">
-        <v>0.02492847441380323</v>
+        <v>0.02492847441380321</v>
       </c>
       <c r="AK18">
-        <v>0.05256203167809047</v>
+        <v>0.05256203167809045</v>
       </c>
       <c r="AL18">
-        <v>0.0235257132025801</v>
+        <v>0.02352571320258009</v>
       </c>
       <c r="AM18">
-        <v>0.01381399397861886</v>
+        <v>0.01381399397861885</v>
       </c>
       <c r="AN18">
-        <v>0.04318895192875024</v>
+        <v>0.04318895192875023</v>
       </c>
       <c r="AO18">
-        <v>0.7649931027012865</v>
+        <v>0.7649931027012866</v>
       </c>
       <c r="AP18">
         <v>0.002557400191136056</v>
       </c>
       <c r="AQ18">
-        <v>0.01841142494049643</v>
+        <v>0.01841142494049644</v>
       </c>
       <c r="AR18">
         <v>0.01601489450356125</v>
       </c>
       <c r="AS18">
-        <v>0.003163110344040423</v>
+        <v>0.003163110344040421</v>
       </c>
       <c r="AT18">
         <v>0.006574406934414623</v>
@@ -5710,16 +5710,16 @@
         <v>0.02492847441380322</v>
       </c>
       <c r="AX18">
-        <v>0.05256203167809045</v>
+        <v>0.05256203167809044</v>
       </c>
       <c r="AY18">
-        <v>0.0235257132025801</v>
+        <v>0.02352571320258009</v>
       </c>
       <c r="AZ18">
         <v>0.01381399397861885</v>
       </c>
       <c r="BA18">
-        <v>0.04318895192875024</v>
+        <v>0.04318895192875023</v>
       </c>
     </row>
   </sheetData>

--- a/Results/NoPrefChange.xlsx
+++ b/Results/NoPrefChange.xlsx
@@ -423,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA18"/>
+  <dimension ref="A1:BA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -653,2417 +653,2739 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B4">
-        <v>1297265.205651887</v>
+        <v>1244062.461856953</v>
       </c>
       <c r="C4">
-        <v>4336.805486446003</v>
+        <v>4709.141953741437</v>
       </c>
       <c r="D4">
-        <v>31221.85138328463</v>
+        <v>29804.35886115274</v>
       </c>
       <c r="E4">
-        <v>27157.84670253174</v>
+        <v>25466.92180733914</v>
       </c>
       <c r="F4">
-        <v>5363.96076836721</v>
+        <v>5054.917298199752</v>
       </c>
       <c r="G4">
-        <v>11148.79249720879</v>
+        <v>10767.06516222544</v>
       </c>
       <c r="H4">
-        <v>26188.6602348724</v>
+        <v>25959.30491894016</v>
       </c>
       <c r="I4">
-        <v>25136.86277909831</v>
+        <v>24236.8822496526</v>
       </c>
       <c r="J4">
-        <v>42273.37785506527</v>
+        <v>40563.31753064592</v>
       </c>
       <c r="K4">
-        <v>89133.99950088764</v>
+        <v>82646.51216860801</v>
       </c>
       <c r="L4">
-        <v>39894.59390952106</v>
+        <v>38400.21862438549</v>
       </c>
       <c r="M4">
-        <v>23425.58864422135</v>
+        <v>19891.73566769674</v>
       </c>
       <c r="N4">
-        <v>73239.25458660923</v>
+        <v>75842.76190046009</v>
       </c>
       <c r="O4">
-        <v>1297265.205651887</v>
+        <v>1244062.461856953</v>
       </c>
       <c r="P4">
-        <v>4336.805486446003</v>
+        <v>4709.141953741437</v>
       </c>
       <c r="Q4">
-        <v>31221.85138328463</v>
+        <v>29804.35886115274</v>
       </c>
       <c r="R4">
-        <v>27157.84670253174</v>
+        <v>25466.92180733914</v>
       </c>
       <c r="S4">
-        <v>5363.96076836721</v>
+        <v>5054.917298199752</v>
       </c>
       <c r="T4">
-        <v>11148.79249720879</v>
+        <v>10767.06516222544</v>
       </c>
       <c r="U4">
-        <v>26188.6602348724</v>
+        <v>25959.30491894016</v>
       </c>
       <c r="V4">
-        <v>25136.86277909831</v>
+        <v>24236.8822496526</v>
       </c>
       <c r="W4">
-        <v>42273.37785506527</v>
+        <v>40563.31753064592</v>
       </c>
       <c r="X4">
-        <v>89133.99950088764</v>
+        <v>82646.51216860801</v>
       </c>
       <c r="Y4">
-        <v>39894.59390952106</v>
+        <v>38400.21862438549</v>
       </c>
       <c r="Z4">
-        <v>23425.58864422135</v>
+        <v>19891.73566769674</v>
       </c>
       <c r="AA4">
-        <v>73239.25458660923</v>
+        <v>75842.76190046009</v>
       </c>
       <c r="AB4">
-        <v>1297265.205651887</v>
+        <v>1244062.461856953</v>
       </c>
       <c r="AC4">
-        <v>4336.805486446003</v>
+        <v>4709.141953741437</v>
       </c>
       <c r="AD4">
-        <v>31221.85138328463</v>
+        <v>29804.35886115274</v>
       </c>
       <c r="AE4">
-        <v>27157.84670253174</v>
+        <v>25466.92180733914</v>
       </c>
       <c r="AF4">
-        <v>5363.96076836721</v>
+        <v>5054.917298199752</v>
       </c>
       <c r="AG4">
-        <v>11148.79249720879</v>
+        <v>10767.06516222544</v>
       </c>
       <c r="AH4">
-        <v>26188.6602348724</v>
+        <v>25959.30491894016</v>
       </c>
       <c r="AI4">
-        <v>25136.86277909831</v>
+        <v>24236.8822496526</v>
       </c>
       <c r="AJ4">
-        <v>42273.37785506527</v>
+        <v>40563.31753064592</v>
       </c>
       <c r="AK4">
-        <v>89133.99950088764</v>
+        <v>82646.51216860801</v>
       </c>
       <c r="AL4">
-        <v>39894.59390952106</v>
+        <v>38400.21862438549</v>
       </c>
       <c r="AM4">
-        <v>23425.58864422135</v>
+        <v>19891.73566769674</v>
       </c>
       <c r="AN4">
-        <v>73239.25458660923</v>
+        <v>75842.76190046009</v>
       </c>
       <c r="AO4">
-        <v>1297265.205651887</v>
+        <v>1244062.461856953</v>
       </c>
       <c r="AP4">
-        <v>4336.805486446003</v>
+        <v>4709.141953741437</v>
       </c>
       <c r="AQ4">
-        <v>31221.85138328463</v>
+        <v>29804.35886115274</v>
       </c>
       <c r="AR4">
-        <v>27157.84670253174</v>
+        <v>25466.92180733914</v>
       </c>
       <c r="AS4">
-        <v>5363.96076836721</v>
+        <v>5054.917298199752</v>
       </c>
       <c r="AT4">
-        <v>11148.79249720879</v>
+        <v>10767.06516222544</v>
       </c>
       <c r="AU4">
-        <v>26188.6602348724</v>
+        <v>25959.30491894016</v>
       </c>
       <c r="AV4">
-        <v>25136.86277909831</v>
+        <v>24236.8822496526</v>
       </c>
       <c r="AW4">
-        <v>42273.37785506527</v>
+        <v>40563.31753064592</v>
       </c>
       <c r="AX4">
-        <v>89133.99950088764</v>
+        <v>82646.51216860801</v>
       </c>
       <c r="AY4">
-        <v>39894.59390952106</v>
+        <v>38400.21862438549</v>
       </c>
       <c r="AZ4">
-        <v>23425.58864422135</v>
+        <v>19891.73566769674</v>
       </c>
       <c r="BA4">
-        <v>73239.25458660923</v>
+        <v>75842.76190046009</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B5">
-        <v>1310121.45378728</v>
+        <v>1271746.591311399</v>
       </c>
       <c r="C5">
-        <v>4379.784398703706</v>
+        <v>5097.578640679196</v>
       </c>
       <c r="D5">
-        <v>31531.26835283036</v>
+        <v>30183.36531526802</v>
       </c>
       <c r="E5">
-        <v>27426.9882893943</v>
+        <v>26666.01761789459</v>
       </c>
       <c r="F5">
-        <v>5417.119066551883</v>
+        <v>5263.821712054966</v>
       </c>
       <c r="G5">
-        <v>11259.28003832965</v>
+        <v>10181.05969539697</v>
       </c>
       <c r="H5">
-        <v>26448.19692239487</v>
+        <v>24411.37985078843</v>
       </c>
       <c r="I5">
-        <v>25385.9758701035</v>
+        <v>23921.54296011368</v>
       </c>
       <c r="J5">
-        <v>42692.31843318157</v>
+        <v>39847.26049181882</v>
       </c>
       <c r="K5">
-        <v>90017.34148053137</v>
+        <v>85686.97100396002</v>
       </c>
       <c r="L5">
-        <v>40289.96009704155</v>
+        <v>38325.04653689267</v>
       </c>
       <c r="M5">
-        <v>23657.74254692039</v>
+        <v>20086.67424970163</v>
       </c>
       <c r="N5">
-        <v>73965.07535642131</v>
+        <v>72282.33561403182</v>
       </c>
       <c r="O5">
-        <v>1310121.45378728</v>
+        <v>1271746.591311399</v>
       </c>
       <c r="P5">
-        <v>4379.784398703706</v>
+        <v>5097.578640679196</v>
       </c>
       <c r="Q5">
-        <v>31531.26835283036</v>
+        <v>30183.36531526802</v>
       </c>
       <c r="R5">
-        <v>27426.9882893943</v>
+        <v>26666.01761789459</v>
       </c>
       <c r="S5">
-        <v>5417.119066551883</v>
+        <v>5263.821712054966</v>
       </c>
       <c r="T5">
-        <v>11259.28003832965</v>
+        <v>10181.05969539697</v>
       </c>
       <c r="U5">
-        <v>26448.19692239487</v>
+        <v>24411.37985078843</v>
       </c>
       <c r="V5">
-        <v>25385.9758701035</v>
+        <v>23921.54296011368</v>
       </c>
       <c r="W5">
-        <v>42692.31843318157</v>
+        <v>39847.26049181882</v>
       </c>
       <c r="X5">
-        <v>90017.34148053137</v>
+        <v>85686.97100396002</v>
       </c>
       <c r="Y5">
-        <v>40289.96009704155</v>
+        <v>38325.04653689267</v>
       </c>
       <c r="Z5">
-        <v>23657.74254692039</v>
+        <v>20086.67424970163</v>
       </c>
       <c r="AA5">
-        <v>73965.07535642131</v>
+        <v>72282.33561403182</v>
       </c>
       <c r="AB5">
-        <v>1310121.45378728</v>
+        <v>1271746.591311399</v>
       </c>
       <c r="AC5">
-        <v>4379.784398703706</v>
+        <v>5097.578640679196</v>
       </c>
       <c r="AD5">
-        <v>31531.26835283036</v>
+        <v>30183.36531526802</v>
       </c>
       <c r="AE5">
-        <v>27426.9882893943</v>
+        <v>26666.01761789459</v>
       </c>
       <c r="AF5">
-        <v>5417.119066551883</v>
+        <v>5263.821712054966</v>
       </c>
       <c r="AG5">
-        <v>11259.28003832965</v>
+        <v>10181.05969539697</v>
       </c>
       <c r="AH5">
-        <v>26448.19692239487</v>
+        <v>24411.37985078843</v>
       </c>
       <c r="AI5">
-        <v>25385.9758701035</v>
+        <v>23921.54296011368</v>
       </c>
       <c r="AJ5">
-        <v>42692.31843318157</v>
+        <v>39847.26049181882</v>
       </c>
       <c r="AK5">
-        <v>90017.34148053137</v>
+        <v>85686.97100396002</v>
       </c>
       <c r="AL5">
-        <v>40289.96009704155</v>
+        <v>38325.04653689267</v>
       </c>
       <c r="AM5">
-        <v>23657.74254692039</v>
+        <v>20086.67424970163</v>
       </c>
       <c r="AN5">
-        <v>73965.07535642131</v>
+        <v>72282.33561403182</v>
       </c>
       <c r="AO5">
-        <v>1310121.45378728</v>
+        <v>1271746.591311399</v>
       </c>
       <c r="AP5">
-        <v>4379.784398703706</v>
+        <v>5097.578640679196</v>
       </c>
       <c r="AQ5">
-        <v>31531.26835283036</v>
+        <v>30183.36531526802</v>
       </c>
       <c r="AR5">
-        <v>27426.9882893943</v>
+        <v>26666.01761789459</v>
       </c>
       <c r="AS5">
-        <v>5417.119066551883</v>
+        <v>5263.821712054966</v>
       </c>
       <c r="AT5">
-        <v>11259.28003832965</v>
+        <v>10181.05969539697</v>
       </c>
       <c r="AU5">
-        <v>26448.19692239487</v>
+        <v>24411.37985078843</v>
       </c>
       <c r="AV5">
-        <v>25385.9758701035</v>
+        <v>23921.54296011368</v>
       </c>
       <c r="AW5">
-        <v>42692.31843318157</v>
+        <v>39847.26049181882</v>
       </c>
       <c r="AX5">
-        <v>90017.34148053137</v>
+        <v>85686.97100396002</v>
       </c>
       <c r="AY5">
-        <v>40289.96009704155</v>
+        <v>38325.04653689267</v>
       </c>
       <c r="AZ5">
-        <v>23657.74254692039</v>
+        <v>20086.67424970163</v>
       </c>
       <c r="BA5">
-        <v>73965.07535642131</v>
+        <v>72282.33561403182</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B6">
-        <v>1316834.521677206</v>
+        <v>1297265.360123306</v>
       </c>
       <c r="C6">
-        <v>4402.226432552356</v>
+        <v>4336.805166164187</v>
       </c>
       <c r="D6">
-        <v>31692.83470570255</v>
+        <v>31221.84712980023</v>
       </c>
       <c r="E6">
-        <v>27567.52429380111</v>
+        <v>27157.83926879812</v>
       </c>
       <c r="F6">
-        <v>5444.876407641484</v>
+        <v>5363.959597179967</v>
       </c>
       <c r="G6">
-        <v>11316.97263703529</v>
+        <v>11148.74825018311</v>
       </c>
       <c r="H6">
-        <v>26583.71759568276</v>
+        <v>26188.68114169352</v>
       </c>
       <c r="I6">
-        <v>25516.05371821093</v>
+        <v>25136.85845425063</v>
       </c>
       <c r="J6">
-        <v>42911.07405403778</v>
+        <v>42273.36527282904</v>
       </c>
       <c r="K6">
-        <v>90478.59072035004</v>
+        <v>89133.9860471264</v>
       </c>
       <c r="L6">
-        <v>40496.40602358674</v>
+        <v>39894.56247218197</v>
       </c>
       <c r="M6">
-        <v>23778.96492014447</v>
+        <v>23425.59109346975</v>
       </c>
       <c r="N6">
-        <v>74344.07271648732</v>
+        <v>73239.19598301659</v>
       </c>
       <c r="O6">
-        <v>1316834.521677206</v>
+        <v>1297265.360123306</v>
       </c>
       <c r="P6">
-        <v>4402.226432552356</v>
+        <v>4336.805166164187</v>
       </c>
       <c r="Q6">
-        <v>31692.83470570255</v>
+        <v>31221.84712980023</v>
       </c>
       <c r="R6">
-        <v>27567.52429380111</v>
+        <v>27157.83926879812</v>
       </c>
       <c r="S6">
-        <v>5444.876407641484</v>
+        <v>5363.959597179967</v>
       </c>
       <c r="T6">
-        <v>11316.97263703529</v>
+        <v>11148.74825018311</v>
       </c>
       <c r="U6">
-        <v>26583.71759568276</v>
+        <v>26188.68114169352</v>
       </c>
       <c r="V6">
-        <v>25516.05371821093</v>
+        <v>25136.85845425063</v>
       </c>
       <c r="W6">
-        <v>42911.07405403778</v>
+        <v>42273.36527282904</v>
       </c>
       <c r="X6">
-        <v>90478.59072035004</v>
+        <v>89133.9860471264</v>
       </c>
       <c r="Y6">
-        <v>40496.40602358674</v>
+        <v>39894.56247218197</v>
       </c>
       <c r="Z6">
-        <v>23778.96492014447</v>
+        <v>23425.59109346975</v>
       </c>
       <c r="AA6">
-        <v>74344.07271648732</v>
+        <v>73239.19598301659</v>
       </c>
       <c r="AB6">
-        <v>1316834.521677206</v>
+        <v>1297265.360123306</v>
       </c>
       <c r="AC6">
-        <v>4402.226432552356</v>
+        <v>4336.805166164187</v>
       </c>
       <c r="AD6">
-        <v>31692.83470570255</v>
+        <v>31221.84712980023</v>
       </c>
       <c r="AE6">
-        <v>27567.52429380111</v>
+        <v>27157.83926879812</v>
       </c>
       <c r="AF6">
-        <v>5444.876407641484</v>
+        <v>5363.959597179967</v>
       </c>
       <c r="AG6">
-        <v>11316.97263703529</v>
+        <v>11148.74825018311</v>
       </c>
       <c r="AH6">
-        <v>26583.71759568276</v>
+        <v>26188.68114169352</v>
       </c>
       <c r="AI6">
-        <v>25516.05371821093</v>
+        <v>25136.85845425063</v>
       </c>
       <c r="AJ6">
-        <v>42911.07405403778</v>
+        <v>42273.36527282904</v>
       </c>
       <c r="AK6">
-        <v>90478.59072035004</v>
+        <v>89133.9860471264</v>
       </c>
       <c r="AL6">
-        <v>40496.40602358674</v>
+        <v>39894.56247218197</v>
       </c>
       <c r="AM6">
-        <v>23778.96492014447</v>
+        <v>23425.59109346975</v>
       </c>
       <c r="AN6">
-        <v>74344.07271648732</v>
+        <v>73239.19598301659</v>
       </c>
       <c r="AO6">
-        <v>1316834.521677206</v>
+        <v>1297265.360123306</v>
       </c>
       <c r="AP6">
-        <v>4402.226432552356</v>
+        <v>4336.805166164187</v>
       </c>
       <c r="AQ6">
-        <v>31692.83470570255</v>
+        <v>31221.84712980023</v>
       </c>
       <c r="AR6">
-        <v>27567.52429380111</v>
+        <v>27157.83926879812</v>
       </c>
       <c r="AS6">
-        <v>5444.876407641484</v>
+        <v>5363.959597179967</v>
       </c>
       <c r="AT6">
-        <v>11316.97263703529</v>
+        <v>11148.74825018311</v>
       </c>
       <c r="AU6">
-        <v>26583.71759568276</v>
+        <v>26188.68114169352</v>
       </c>
       <c r="AV6">
-        <v>25516.05371821093</v>
+        <v>25136.85845425063</v>
       </c>
       <c r="AW6">
-        <v>42911.07405403778</v>
+        <v>42273.36527282904</v>
       </c>
       <c r="AX6">
-        <v>90478.59072035004</v>
+        <v>89133.9860471264</v>
       </c>
       <c r="AY6">
-        <v>40496.40602358674</v>
+        <v>39894.56247218197</v>
       </c>
       <c r="AZ6">
-        <v>23778.96492014447</v>
+        <v>23425.59109346975</v>
       </c>
       <c r="BA6">
-        <v>74344.07271648732</v>
+        <v>73239.19598301659</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B7">
-        <v>1323820.887345211</v>
+        <v>1310121.609789553</v>
       </c>
       <c r="C7">
-        <v>4425.582110965155</v>
+        <v>4379.784075247814</v>
       </c>
       <c r="D7">
-        <v>31860.97863621526</v>
+        <v>31531.26405719275</v>
       </c>
       <c r="E7">
-        <v>27713.78170284349</v>
+        <v>27426.98078199039</v>
       </c>
       <c r="F7">
-        <v>5473.763786408274</v>
+        <v>5417.117883757857</v>
       </c>
       <c r="G7">
-        <v>11377.01397692698</v>
+        <v>11259.23535280401</v>
       </c>
       <c r="H7">
-        <v>26724.75549291364</v>
+        <v>26448.21803640822</v>
       </c>
       <c r="I7">
-        <v>25651.42720572613</v>
+        <v>25385.97150239541</v>
       </c>
       <c r="J7">
-        <v>43138.73550246828</v>
+        <v>42692.30572625199</v>
       </c>
       <c r="K7">
-        <v>90958.6180202821</v>
+        <v>90017.32789343972</v>
       </c>
       <c r="L7">
-        <v>40711.25663394314</v>
+        <v>40289.92834814994</v>
       </c>
       <c r="M7">
-        <v>23905.12241480612</v>
+        <v>23657.74502044151</v>
       </c>
       <c r="N7">
-        <v>74738.49955501255</v>
+        <v>73965.01617205128</v>
       </c>
       <c r="O7">
-        <v>1323820.887345211</v>
+        <v>1310121.609789553</v>
       </c>
       <c r="P7">
-        <v>4425.582110965155</v>
+        <v>4379.784075247814</v>
       </c>
       <c r="Q7">
-        <v>31860.97863621526</v>
+        <v>31531.26405719275</v>
       </c>
       <c r="R7">
-        <v>27713.78170284349</v>
+        <v>27426.98078199039</v>
       </c>
       <c r="S7">
-        <v>5473.763786408274</v>
+        <v>5417.117883757857</v>
       </c>
       <c r="T7">
-        <v>11377.01397692698</v>
+        <v>11259.23535280401</v>
       </c>
       <c r="U7">
-        <v>26724.75549291364</v>
+        <v>26448.21803640822</v>
       </c>
       <c r="V7">
-        <v>25651.42720572613</v>
+        <v>25385.97150239541</v>
       </c>
       <c r="W7">
-        <v>43138.73550246828</v>
+        <v>42692.30572625199</v>
       </c>
       <c r="X7">
-        <v>90958.6180202821</v>
+        <v>90017.32789343972</v>
       </c>
       <c r="Y7">
-        <v>40711.25663394314</v>
+        <v>40289.92834814994</v>
       </c>
       <c r="Z7">
-        <v>23905.12241480612</v>
+        <v>23657.74502044151</v>
       </c>
       <c r="AA7">
-        <v>74738.49955501255</v>
+        <v>73965.01617205128</v>
       </c>
       <c r="AB7">
-        <v>1323820.887345211</v>
+        <v>1310121.609789553</v>
       </c>
       <c r="AC7">
-        <v>4425.582110965155</v>
+        <v>4379.784075247814</v>
       </c>
       <c r="AD7">
-        <v>31860.97863621526</v>
+        <v>31531.26405719275</v>
       </c>
       <c r="AE7">
-        <v>27713.78170284349</v>
+        <v>27426.98078199039</v>
       </c>
       <c r="AF7">
-        <v>5473.763786408274</v>
+        <v>5417.117883757857</v>
       </c>
       <c r="AG7">
-        <v>11377.01397692698</v>
+        <v>11259.23535280401</v>
       </c>
       <c r="AH7">
-        <v>26724.75549291364</v>
+        <v>26448.21803640822</v>
       </c>
       <c r="AI7">
-        <v>25651.42720572613</v>
+        <v>25385.97150239541</v>
       </c>
       <c r="AJ7">
-        <v>43138.73550246828</v>
+        <v>42692.30572625199</v>
       </c>
       <c r="AK7">
-        <v>90958.6180202821</v>
+        <v>90017.32789343972</v>
       </c>
       <c r="AL7">
-        <v>40711.25663394314</v>
+        <v>40289.92834814994</v>
       </c>
       <c r="AM7">
-        <v>23905.12241480612</v>
+        <v>23657.74502044151</v>
       </c>
       <c r="AN7">
-        <v>74738.49955501255</v>
+        <v>73965.01617205128</v>
       </c>
       <c r="AO7">
-        <v>1323820.887345211</v>
+        <v>1310121.609789553</v>
       </c>
       <c r="AP7">
-        <v>4425.582110965155</v>
+        <v>4379.784075247814</v>
       </c>
       <c r="AQ7">
-        <v>31860.97863621526</v>
+        <v>31531.26405719275</v>
       </c>
       <c r="AR7">
-        <v>27713.78170284349</v>
+        <v>27426.98078199039</v>
       </c>
       <c r="AS7">
-        <v>5473.763786408274</v>
+        <v>5417.117883757857</v>
       </c>
       <c r="AT7">
-        <v>11377.01397692698</v>
+        <v>11259.23535280401</v>
       </c>
       <c r="AU7">
-        <v>26724.75549291364</v>
+        <v>26448.21803640822</v>
       </c>
       <c r="AV7">
-        <v>25651.42720572613</v>
+        <v>25385.97150239541</v>
       </c>
       <c r="AW7">
-        <v>43138.73550246828</v>
+        <v>42692.30572625199</v>
       </c>
       <c r="AX7">
-        <v>90958.6180202821</v>
+        <v>90017.32789343972</v>
       </c>
       <c r="AY7">
-        <v>40711.25663394314</v>
+        <v>40289.92834814994</v>
       </c>
       <c r="AZ7">
-        <v>23905.12241480612</v>
+        <v>23657.74502044151</v>
       </c>
       <c r="BA7">
-        <v>74738.49955501255</v>
+        <v>73965.01617205128</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B8">
-        <v>1330865.786618181</v>
+        <v>1316834.678478836</v>
       </c>
       <c r="C8">
-        <v>4449.133469380818</v>
+        <v>4402.226107439077</v>
       </c>
       <c r="D8">
-        <v>32030.53132070306</v>
+        <v>31692.83038805407</v>
       </c>
       <c r="E8">
-        <v>27861.2644948405</v>
+        <v>27567.51674792924</v>
       </c>
       <c r="F8">
-        <v>5502.893191215149</v>
+        <v>5444.875218786819</v>
       </c>
       <c r="G8">
-        <v>11437.55835892064</v>
+        <v>11316.92772254083</v>
       </c>
       <c r="H8">
-        <v>26866.97504265945</v>
+        <v>26583.7388178844</v>
       </c>
       <c r="I8">
-        <v>25787.93488784517</v>
+        <v>25516.04932812269</v>
       </c>
       <c r="J8">
-        <v>43368.30435825785</v>
+        <v>42911.06128199786</v>
       </c>
       <c r="K8">
-        <v>91442.66711490432</v>
+        <v>90478.57706363806</v>
       </c>
       <c r="L8">
-        <v>40927.90731909536</v>
+        <v>40496.37411201371</v>
       </c>
       <c r="M8">
-        <v>24032.33689006496</v>
+        <v>23778.96740633993</v>
       </c>
       <c r="N8">
-        <v>75136.23100509851</v>
+        <v>74344.01322885633</v>
       </c>
       <c r="O8">
-        <v>1232120.350888776</v>
+        <v>1316834.678478836</v>
       </c>
       <c r="P8">
-        <v>4119.023831376932</v>
+        <v>4402.226107439077</v>
       </c>
       <c r="Q8">
-        <v>29653.98155609894</v>
+        <v>31692.83038805407</v>
       </c>
       <c r="R8">
-        <v>25794.05927386466</v>
+        <v>27567.51674792924</v>
       </c>
       <c r="S8">
-        <v>5094.598386883534</v>
+        <v>5444.875218786819</v>
       </c>
       <c r="T8">
-        <v>10588.93282869193</v>
+        <v>11316.92772254083</v>
       </c>
       <c r="U8">
-        <v>24873.54250874493</v>
+        <v>26583.7388178844</v>
       </c>
       <c r="V8">
-        <v>23874.5632371001</v>
+        <v>25516.04932812269</v>
       </c>
       <c r="W8">
-        <v>40150.53277395444</v>
+        <v>42911.06128199786</v>
       </c>
       <c r="X8">
-        <v>84657.95140629426</v>
+        <v>90478.57706363806</v>
       </c>
       <c r="Y8">
-        <v>37891.20438304176</v>
+        <v>40496.37411201371</v>
       </c>
       <c r="Z8">
-        <v>22249.22427144738</v>
+        <v>23778.96740633993</v>
       </c>
       <c r="AA8">
-        <v>69561.39397474959</v>
+        <v>74344.01322885633</v>
       </c>
       <c r="AB8">
-        <v>1232120.350888776</v>
+        <v>1316834.678478836</v>
       </c>
       <c r="AC8">
-        <v>4119.023831376932</v>
+        <v>4402.226107439077</v>
       </c>
       <c r="AD8">
-        <v>29653.98155609894</v>
+        <v>31692.83038805407</v>
       </c>
       <c r="AE8">
-        <v>25794.05927386466</v>
+        <v>27567.51674792924</v>
       </c>
       <c r="AF8">
-        <v>5094.598386883534</v>
+        <v>5444.875218786819</v>
       </c>
       <c r="AG8">
-        <v>10588.93282869193</v>
+        <v>11316.92772254083</v>
       </c>
       <c r="AH8">
-        <v>24873.54250874493</v>
+        <v>26583.7388178844</v>
       </c>
       <c r="AI8">
-        <v>23874.5632371001</v>
+        <v>25516.04932812269</v>
       </c>
       <c r="AJ8">
-        <v>40150.53277395444</v>
+        <v>42911.06128199786</v>
       </c>
       <c r="AK8">
-        <v>84657.95140629426</v>
+        <v>90478.57706363806</v>
       </c>
       <c r="AL8">
-        <v>37891.20438304176</v>
+        <v>40496.37411201371</v>
       </c>
       <c r="AM8">
-        <v>22249.22427144738</v>
+        <v>23778.96740633993</v>
       </c>
       <c r="AN8">
-        <v>69561.39397474959</v>
+        <v>74344.01322885633</v>
       </c>
       <c r="AO8">
-        <v>1232120.350888776</v>
+        <v>1316834.678478836</v>
       </c>
       <c r="AP8">
-        <v>4119.023831376932</v>
+        <v>4402.226107439077</v>
       </c>
       <c r="AQ8">
-        <v>29653.98155609894</v>
+        <v>31692.83038805407</v>
       </c>
       <c r="AR8">
-        <v>25794.05927386466</v>
+        <v>27567.51674792924</v>
       </c>
       <c r="AS8">
-        <v>5094.598386883534</v>
+        <v>5444.875218786819</v>
       </c>
       <c r="AT8">
-        <v>10588.93282869193</v>
+        <v>11316.92772254083</v>
       </c>
       <c r="AU8">
-        <v>24873.54250874493</v>
+        <v>26583.7388178844</v>
       </c>
       <c r="AV8">
-        <v>23874.5632371001</v>
+        <v>25516.04932812269</v>
       </c>
       <c r="AW8">
-        <v>40150.53277395444</v>
+        <v>42911.06128199786</v>
       </c>
       <c r="AX8">
-        <v>84657.95140629426</v>
+        <v>90478.57706363806</v>
       </c>
       <c r="AY8">
-        <v>37891.20438304176</v>
+        <v>40496.37411201371</v>
       </c>
       <c r="AZ8">
-        <v>22249.22427144738</v>
+        <v>23778.96740633993</v>
       </c>
       <c r="BA8">
-        <v>69561.39397474959</v>
+        <v>74344.01322885633</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B9">
-        <v>1336226.905001086</v>
+        <v>1323821.044978739</v>
       </c>
       <c r="C9">
-        <v>4467.055886104227</v>
+        <v>4425.581784127008</v>
       </c>
       <c r="D9">
-        <v>32159.55971109697</v>
+        <v>31860.97429565982</v>
       </c>
       <c r="E9">
-        <v>27973.49785357295</v>
+        <v>27713.77411693756</v>
       </c>
       <c r="F9">
-        <v>5525.060461681659</v>
+        <v>5473.762591246229</v>
       </c>
       <c r="G9">
-        <v>11483.63220422504</v>
+        <v>11376.96882414207</v>
       </c>
       <c r="H9">
-        <v>26975.20311136673</v>
+        <v>26724.77682770807</v>
       </c>
       <c r="I9">
-        <v>25891.81626579817</v>
+        <v>25651.4227923466</v>
       </c>
       <c r="J9">
-        <v>43543.00462936582</v>
+        <v>43138.72266266726</v>
       </c>
       <c r="K9">
-        <v>91811.02504293954</v>
+        <v>90958.60429111549</v>
       </c>
       <c r="L9">
-        <v>41092.77695396653</v>
+        <v>40711.22455306567</v>
       </c>
       <c r="M9">
-        <v>24129.14620350662</v>
+        <v>23905.12491419189</v>
       </c>
       <c r="N9">
-        <v>75438.90181782361</v>
+        <v>74738.43975177441</v>
       </c>
       <c r="O9">
-        <v>1295503.845241315</v>
+        <v>1323821.044978739</v>
       </c>
       <c r="P9">
-        <v>4330.917193551924</v>
+        <v>4425.581784127008</v>
       </c>
       <c r="Q9">
-        <v>31179.45994880257</v>
+        <v>31860.97429565982</v>
       </c>
       <c r="R9">
-        <v>27120.97316594892</v>
+        <v>27713.77411693756</v>
       </c>
       <c r="S9">
-        <v>5356.67785651534</v>
+        <v>5473.762591246229</v>
       </c>
       <c r="T9">
-        <v>11133.65523641993</v>
+        <v>11376.96882414207</v>
       </c>
       <c r="U9">
-        <v>26153.10261015338</v>
+        <v>26724.77682770807</v>
       </c>
       <c r="V9">
-        <v>25102.7332312216</v>
+        <v>25651.4227923466</v>
       </c>
       <c r="W9">
-        <v>42215.98122263369</v>
+        <v>43138.72266266726</v>
       </c>
       <c r="X9">
-        <v>89012.97791079739</v>
+        <v>90958.60429111549</v>
       </c>
       <c r="Y9">
-        <v>39840.42706838332</v>
+        <v>40711.22455306567</v>
       </c>
       <c r="Z9">
-        <v>23393.78257692491</v>
+        <v>23905.12491419189</v>
       </c>
       <c r="AA9">
-        <v>73139.81406899834</v>
+        <v>74738.43975177441</v>
       </c>
       <c r="AB9">
-        <v>1158204.140593811</v>
+        <v>1323821.044978739</v>
       </c>
       <c r="AC9">
-        <v>3871.919210866111</v>
+        <v>4425.581784127008</v>
       </c>
       <c r="AD9">
-        <v>27875.00766348971</v>
+        <v>31860.97429565982</v>
       </c>
       <c r="AE9">
-        <v>24246.64622426081</v>
+        <v>27713.77411693756</v>
       </c>
       <c r="AF9">
-        <v>4788.968011196907</v>
+        <v>5473.762591246229</v>
       </c>
       <c r="AG9">
-        <v>9953.691486236812</v>
+        <v>11376.96882414207</v>
       </c>
       <c r="AH9">
-        <v>23381.3522389138</v>
+        <v>26724.77682770807</v>
       </c>
       <c r="AI9">
-        <v>22442.30279625844</v>
+        <v>25651.4227923466</v>
       </c>
       <c r="AJ9">
-        <v>37741.85960997843</v>
+        <v>43138.72266266726</v>
       </c>
       <c r="AK9">
-        <v>79579.23086184845</v>
+        <v>90958.60429111549</v>
       </c>
       <c r="AL9">
-        <v>35618.07073218848</v>
+        <v>40711.22455306567</v>
       </c>
       <c r="AM9">
-        <v>20914.46964381555</v>
+        <v>23905.12491419189</v>
       </c>
       <c r="AN9">
-        <v>65388.3319668543</v>
+        <v>74738.43975177441</v>
       </c>
       <c r="AO9">
-        <v>1154393.664599952</v>
+        <v>1323821.044978739</v>
       </c>
       <c r="AP9">
-        <v>3859.180648909667</v>
+        <v>4425.581784127008</v>
       </c>
       <c r="AQ9">
-        <v>27783.29926441949</v>
+        <v>31860.97429565982</v>
       </c>
       <c r="AR9">
-        <v>24166.87508536489</v>
+        <v>27713.77411693756</v>
       </c>
       <c r="AS9">
-        <v>4773.212371061942</v>
+        <v>5473.762591246229</v>
       </c>
       <c r="AT9">
-        <v>9920.943975561247</v>
+        <v>11376.96882414207</v>
       </c>
       <c r="AU9">
-        <v>23304.42790555347</v>
+        <v>26724.77682770807</v>
       </c>
       <c r="AV9">
-        <v>22368.46792289301</v>
+        <v>25651.4227923466</v>
       </c>
       <c r="AW9">
-        <v>37617.68940114661</v>
+        <v>43138.72266266726</v>
       </c>
       <c r="AX9">
-        <v>79317.41626614743</v>
+        <v>90958.60429111549</v>
       </c>
       <c r="AY9">
-        <v>35500.88776010639</v>
+        <v>40711.22455306567</v>
       </c>
       <c r="AZ9">
-        <v>20845.66132090523</v>
+        <v>23905.12491419189</v>
       </c>
       <c r="BA9">
-        <v>65173.20523702717</v>
+        <v>74738.43975177441</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B10">
-        <v>1341553.673254558</v>
+        <v>1330865.945090578</v>
       </c>
       <c r="C10">
-        <v>4484.863469076497</v>
+        <v>4449.133140803357</v>
       </c>
       <c r="D10">
-        <v>32287.76138184133</v>
+        <v>32030.52695704874</v>
       </c>
       <c r="E10">
-        <v>28085.01210294727</v>
+        <v>27861.25686856512</v>
       </c>
       <c r="F10">
-        <v>5547.085700475795</v>
+        <v>5502.891989692881</v>
       </c>
       <c r="G10">
-        <v>11529.41084199313</v>
+        <v>11437.51296584883</v>
       </c>
       <c r="H10">
-        <v>27082.73773368783</v>
+        <v>26866.99649098999</v>
       </c>
       <c r="I10">
-        <v>25995.0320477834</v>
+        <v>25787.93045097924</v>
       </c>
       <c r="J10">
-        <v>43716.58554878333</v>
+        <v>43368.29145012805</v>
       </c>
       <c r="K10">
-        <v>92177.02280251696</v>
+        <v>91442.65331267603</v>
       </c>
       <c r="L10">
-        <v>41256.59022468137</v>
+        <v>40927.87506749501</v>
       </c>
       <c r="M10">
-        <v>24225.33523360262</v>
+        <v>24032.33940275159</v>
       </c>
       <c r="N10">
-        <v>75739.63333713071</v>
+        <v>75136.17088360914</v>
       </c>
       <c r="O10">
-        <v>1332105.022088665</v>
+        <v>1232120.497603095</v>
       </c>
       <c r="P10">
-        <v>4453.276279319743</v>
+        <v>4119.023527178735</v>
       </c>
       <c r="Q10">
-        <v>32060.356544967</v>
+        <v>29653.977516212</v>
       </c>
       <c r="R10">
-        <v>27887.20750694714</v>
+        <v>25794.05221343138</v>
       </c>
       <c r="S10">
-        <v>5508.017209355379</v>
+        <v>5094.597274509882</v>
       </c>
       <c r="T10">
-        <v>11448.20843960994</v>
+        <v>10588.89080362214</v>
       </c>
       <c r="U10">
-        <v>26891.99222229714</v>
+        <v>24873.56236568679</v>
       </c>
       <c r="V10">
-        <v>25811.94731941032</v>
+        <v>23874.55912943359</v>
       </c>
       <c r="W10">
-        <v>43408.68674812459</v>
+        <v>40150.52082356127</v>
       </c>
       <c r="X10">
-        <v>91527.81394018448</v>
+        <v>84657.93862814148</v>
       </c>
       <c r="Y10">
-        <v>40966.01733363816</v>
+        <v>37891.17452439367</v>
       </c>
       <c r="Z10">
-        <v>24054.71459682718</v>
+        <v>22249.22659770173</v>
       </c>
       <c r="AA10">
-        <v>75206.19409492795</v>
+        <v>69561.33831405753</v>
       </c>
       <c r="AB10">
-        <v>1167940.901495571</v>
+        <v>1232120.497603095</v>
       </c>
       <c r="AC10">
-        <v>3904.469562108859</v>
+        <v>4119.023527178735</v>
       </c>
       <c r="AD10">
-        <v>28109.34656389716</v>
+        <v>29653.977516212</v>
       </c>
       <c r="AE10">
-        <v>24450.48230866138</v>
+        <v>25794.05221343138</v>
       </c>
       <c r="AF10">
-        <v>4829.22778480408</v>
+        <v>5094.597274509882</v>
       </c>
       <c r="AG10">
-        <v>10037.36992485962</v>
+        <v>10588.89080362214</v>
       </c>
       <c r="AH10">
-        <v>23577.91399200285</v>
+        <v>24873.56236568679</v>
       </c>
       <c r="AI10">
-        <v>22630.97017254671</v>
+        <v>23874.55912943359</v>
       </c>
       <c r="AJ10">
-        <v>38059.14690859032</v>
+        <v>40150.52082356127</v>
       </c>
       <c r="AK10">
-        <v>80248.23550143679</v>
+        <v>84657.93862814148</v>
       </c>
       <c r="AL10">
-        <v>35917.50381686341</v>
+        <v>37891.17452439367</v>
       </c>
       <c r="AM10">
-        <v>21090.29287149329</v>
+        <v>22249.22659770173</v>
       </c>
       <c r="AN10">
-        <v>65938.03692111193</v>
+        <v>69561.33831405753</v>
       </c>
       <c r="AO10">
-        <v>1096703.585263138</v>
+        <v>1232120.497603095</v>
       </c>
       <c r="AP10">
-        <v>3666.320583372275</v>
+        <v>4119.023527178735</v>
       </c>
       <c r="AQ10">
-        <v>26394.84679109596</v>
+        <v>29653.977516212</v>
       </c>
       <c r="AR10">
-        <v>22959.15107946371</v>
+        <v>25794.05221343138</v>
       </c>
       <c r="AS10">
-        <v>4534.674159338949</v>
+        <v>5094.597274509882</v>
       </c>
       <c r="AT10">
-        <v>9425.151194816423</v>
+        <v>10588.89080362214</v>
       </c>
       <c r="AU10">
-        <v>22139.80414158268</v>
+        <v>24873.56236568679</v>
       </c>
       <c r="AV10">
-        <v>21250.61815579309</v>
+        <v>23874.55912943359</v>
       </c>
       <c r="AW10">
-        <v>35737.76961938668</v>
+        <v>40150.52082356127</v>
       </c>
       <c r="AX10">
-        <v>75353.57951140319</v>
+        <v>84657.93862814148</v>
       </c>
       <c r="AY10">
-        <v>33726.75377599653</v>
+        <v>37891.17452439367</v>
       </c>
       <c r="AZ10">
-        <v>19803.91283223162</v>
+        <v>22249.22659770173</v>
       </c>
       <c r="BA10">
-        <v>61916.21631196975</v>
+        <v>69561.33831405753</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B11">
-        <v>1347588.054174367</v>
+        <v>1336227.064111857</v>
       </c>
       <c r="C11">
-        <v>4505.036627322254</v>
+        <v>4467.055556203158</v>
       </c>
       <c r="D11">
-        <v>32432.99347736625</v>
+        <v>32159.55532986458</v>
       </c>
       <c r="E11">
-        <v>28211.34000509934</v>
+        <v>27973.49019657668</v>
       </c>
       <c r="F11">
-        <v>5572.036791720837</v>
+        <v>5525.059255319305</v>
       </c>
       <c r="G11">
-        <v>11581.27075500934</v>
+        <v>11483.5866282966</v>
       </c>
       <c r="H11">
-        <v>27204.55735156408</v>
+        <v>26975.22464609743</v>
       </c>
       <c r="I11">
-        <v>26111.95910670488</v>
+        <v>25891.81181105923</v>
       </c>
       <c r="J11">
-        <v>43913.22511302438</v>
+        <v>43542.99166923824</v>
       </c>
       <c r="K11">
-        <v>92591.64003232551</v>
+        <v>91811.01118511181</v>
       </c>
       <c r="L11">
-        <v>41442.16459701657</v>
+        <v>41092.74457244722</v>
       </c>
       <c r="M11">
-        <v>24334.30210061957</v>
+        <v>24129.14872631508</v>
       </c>
       <c r="N11">
-        <v>76080.31430084801</v>
+        <v>75438.84145414711</v>
       </c>
       <c r="O11">
-        <v>1340621.323236646</v>
+        <v>1295503.999503002</v>
       </c>
       <c r="P11">
-        <v>4481.746588537844</v>
+        <v>4330.916873704971</v>
       </c>
       <c r="Q11">
-        <v>32265.32210452961</v>
+        <v>31179.45570109331</v>
       </c>
       <c r="R11">
-        <v>28065.49364307552</v>
+        <v>27120.96574230848</v>
       </c>
       <c r="S11">
-        <v>5543.23059906964</v>
+        <v>5356.676686918275</v>
       </c>
       <c r="T11">
-        <v>11521.39815743242</v>
+        <v>11133.61104947061</v>
       </c>
       <c r="U11">
-        <v>27063.91583225034</v>
+        <v>26153.12348858829</v>
       </c>
       <c r="V11">
-        <v>25976.96607764851</v>
+        <v>25102.72891224598</v>
       </c>
       <c r="W11">
-        <v>43686.20349241687</v>
+        <v>42215.96865748102</v>
       </c>
       <c r="X11">
-        <v>92112.96181817145</v>
+        <v>89012.96447530299</v>
       </c>
       <c r="Y11">
-        <v>41227.91781044869</v>
+        <v>39840.39567372826</v>
       </c>
       <c r="Z11">
-        <v>24208.49916346302</v>
+        <v>23393.78502284787</v>
       </c>
       <c r="AA11">
-        <v>75686.99597352286</v>
+        <v>73139.75554497466</v>
       </c>
       <c r="AB11">
-        <v>1204421.409225212</v>
+        <v>1158204.278506582</v>
       </c>
       <c r="AC11">
-        <v>4026.425246560245</v>
+        <v>3871.918924917084</v>
       </c>
       <c r="AD11">
-        <v>28987.33896341523</v>
+        <v>27875.0038659599</v>
       </c>
       <c r="AE11">
-        <v>25214.19047892274</v>
+        <v>24246.63958739043</v>
       </c>
       <c r="AF11">
-        <v>4980.068192316271</v>
+        <v>4788.966965555734</v>
       </c>
       <c r="AG11">
-        <v>10350.88608878558</v>
+        <v>9953.651982295656</v>
       </c>
       <c r="AH11">
-        <v>24314.36758527341</v>
+        <v>23381.3709046166</v>
       </c>
       <c r="AI11">
-        <v>23337.84607804133</v>
+        <v>22442.29893501522</v>
       </c>
       <c r="AJ11">
-        <v>39247.92024566969</v>
+        <v>37741.84837650205</v>
       </c>
       <c r="AK11">
-        <v>82754.7804573944</v>
+        <v>79579.21885027064</v>
       </c>
       <c r="AL11">
-        <v>37039.38316362029</v>
+        <v>35618.04266479245</v>
       </c>
       <c r="AM11">
-        <v>21749.04588813455</v>
+        <v>20914.47183051542</v>
       </c>
       <c r="AN11">
-        <v>67997.60437225417</v>
+        <v>65388.27964530641</v>
       </c>
       <c r="AO11">
-        <v>1064030.567990525</v>
+        <v>1154393.802058991</v>
       </c>
       <c r="AP11">
-        <v>3557.093480117462</v>
+        <v>3859.180363901406</v>
       </c>
       <c r="AQ11">
-        <v>25608.49093642214</v>
+        <v>27783.2954793835</v>
       </c>
       <c r="AR11">
-        <v>22275.15154680616</v>
+        <v>24166.86847032971</v>
       </c>
       <c r="AS11">
-        <v>4399.577047298229</v>
+        <v>4773.211328860912</v>
       </c>
       <c r="AT11">
-        <v>9144.356883643144</v>
+        <v>9920.904601587521</v>
       </c>
       <c r="AU11">
-        <v>21480.21461087403</v>
+        <v>23304.44650984636</v>
       </c>
       <c r="AV11">
-        <v>20617.51927348084</v>
+        <v>22368.46407435322</v>
       </c>
       <c r="AW11">
-        <v>34673.06920283909</v>
+        <v>37617.6782046282</v>
       </c>
       <c r="AX11">
-        <v>73108.64401742598</v>
+        <v>79317.40429408751</v>
       </c>
       <c r="AY11">
-        <v>32721.96558757469</v>
+        <v>35500.8597850517</v>
       </c>
       <c r="AZ11">
-        <v>19213.91422665801</v>
+        <v>20845.66350041089</v>
       </c>
       <c r="BA11">
-        <v>60071.60703723077</v>
+        <v>65173.15308761642</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B12">
-        <v>1354726.011070713</v>
+        <v>1341553.832999613</v>
       </c>
       <c r="C12">
-        <v>4528.899080809189</v>
+        <v>4484.863137860306</v>
       </c>
       <c r="D12">
-        <v>32604.78582054099</v>
+        <v>32287.7569831435</v>
       </c>
       <c r="E12">
-        <v>28360.77092972113</v>
+        <v>28085.004415427</v>
       </c>
       <c r="F12">
-        <v>5601.550973240146</v>
+        <v>5547.084489304374</v>
       </c>
       <c r="G12">
-        <v>11642.61488105594</v>
+        <v>11529.36508437967</v>
       </c>
       <c r="H12">
-        <v>27348.65551061062</v>
+        <v>27082.75935426514</v>
       </c>
       <c r="I12">
-        <v>26250.26994880936</v>
+        <v>25995.02757528599</v>
       </c>
       <c r="J12">
-        <v>44145.82639430268</v>
+        <v>43716.57253699121</v>
       </c>
       <c r="K12">
-        <v>93082.08303786078</v>
+        <v>92177.00888944606</v>
       </c>
       <c r="L12">
-        <v>41661.67706870141</v>
+        <v>41256.55771407561</v>
       </c>
       <c r="M12">
-        <v>24463.19697985127</v>
+        <v>24225.33776646808</v>
       </c>
       <c r="N12">
-        <v>76483.29947310279</v>
+        <v>75739.57273281897</v>
       </c>
       <c r="O12">
-        <v>1350279.897200253</v>
+        <v>1332105.180708624</v>
       </c>
       <c r="P12">
-        <v>4514.035557959144</v>
+        <v>4453.275950436326</v>
       </c>
       <c r="Q12">
-        <v>32497.77924556164</v>
+        <v>32060.35217724947</v>
       </c>
       <c r="R12">
-        <v>28267.69290805687</v>
+        <v>27887.19987357055</v>
       </c>
       <c r="S12">
-        <v>5583.167083601439</v>
+        <v>5508.016006714312</v>
       </c>
       <c r="T12">
-        <v>11604.40465176377</v>
+        <v>11448.16300427038</v>
       </c>
       <c r="U12">
-        <v>27258.8991793595</v>
+        <v>26892.01369059929</v>
       </c>
       <c r="V12">
-        <v>26164.11844040917</v>
+        <v>25811.94287841299</v>
       </c>
       <c r="W12">
-        <v>44000.94294964253</v>
+        <v>43408.67382797538</v>
       </c>
       <c r="X12">
-        <v>92776.59429910179</v>
+        <v>91527.80012510423</v>
       </c>
       <c r="Y12">
-        <v>41524.94642444709</v>
+        <v>40965.98505200672</v>
       </c>
       <c r="Z12">
-        <v>24382.91051711335</v>
+        <v>24054.71711185348</v>
       </c>
       <c r="AA12">
-        <v>76232.28675476191</v>
+        <v>75206.13391745641</v>
       </c>
       <c r="AB12">
-        <v>1214079.983188818</v>
+        <v>1167941.040567742</v>
       </c>
       <c r="AC12">
-        <v>4058.714215981545</v>
+        <v>3904.469273755923</v>
       </c>
       <c r="AD12">
-        <v>29219.79610444729</v>
+        <v>28109.34273444239</v>
       </c>
       <c r="AE12">
-        <v>25416.38974390407</v>
+        <v>24450.47561599631</v>
       </c>
       <c r="AF12">
-        <v>5020.004676848064</v>
+        <v>4829.226730372437</v>
       </c>
       <c r="AG12">
-        <v>10433.89258311691</v>
+        <v>10037.33008881775</v>
       </c>
       <c r="AH12">
-        <v>24509.35093238258</v>
+        <v>23577.932814624</v>
       </c>
       <c r="AI12">
-        <v>23524.99844080198</v>
+        <v>22630.96627884288</v>
       </c>
       <c r="AJ12">
-        <v>39562.65970289537</v>
+        <v>38059.13558067662</v>
       </c>
       <c r="AK12">
-        <v>83418.41293832468</v>
+        <v>80248.22338888037</v>
       </c>
       <c r="AL12">
-        <v>37336.41177761868</v>
+        <v>35917.47551351109</v>
       </c>
       <c r="AM12">
-        <v>21923.45724178488</v>
+        <v>21090.29507657625</v>
       </c>
       <c r="AN12">
-        <v>68542.89515349321</v>
+        <v>65937.98415970856</v>
       </c>
       <c r="AO12">
-        <v>1069835.429035985</v>
+        <v>1096703.71585275</v>
       </c>
       <c r="AP12">
-        <v>3576.499344947821</v>
+        <v>3666.32031260712</v>
       </c>
       <c r="AQ12">
-        <v>25748.19907634013</v>
+        <v>26394.84319521471</v>
       </c>
       <c r="AR12">
-        <v>22396.67452122595</v>
+        <v>22959.14479501067</v>
       </c>
       <c r="AS12">
-        <v>4423.579114707431</v>
+        <v>4534.673169221243</v>
       </c>
       <c r="AT12">
-        <v>9194.244285994653</v>
+        <v>9425.113788531657</v>
       </c>
       <c r="AU12">
-        <v>21597.40077525112</v>
+        <v>22139.82181613802</v>
       </c>
       <c r="AV12">
-        <v>20729.99896916353</v>
+        <v>21250.61449958161</v>
       </c>
       <c r="AW12">
-        <v>34862.22950969214</v>
+        <v>35737.75898240707</v>
       </c>
       <c r="AX12">
-        <v>73507.49113000909</v>
+        <v>75353.5681376393</v>
       </c>
       <c r="AY12">
-        <v>32900.4815711229</v>
+        <v>33726.7271989772</v>
       </c>
       <c r="AZ12">
-        <v>19318.73649923217</v>
+        <v>19803.91490281789</v>
       </c>
       <c r="BA12">
-        <v>60399.33007651073</v>
+        <v>61916.16676869216</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="B13">
-        <v>1363037.493298079</v>
+        <v>1347588.214637963</v>
       </c>
       <c r="C13">
-        <v>4556.684672812352</v>
+        <v>4505.036294616233</v>
       </c>
       <c r="D13">
-        <v>32804.82191319734</v>
+        <v>32432.98905888283</v>
       </c>
       <c r="E13">
-        <v>28534.76924496016</v>
+        <v>28211.33228300015</v>
       </c>
       <c r="F13">
-        <v>5635.917473166559</v>
+        <v>5572.035575101499</v>
       </c>
       <c r="G13">
-        <v>11714.04437002507</v>
+        <v>11581.22479157567</v>
       </c>
       <c r="H13">
-        <v>27516.444319832</v>
+        <v>27204.57906939191</v>
       </c>
       <c r="I13">
-        <v>26411.31996952216</v>
+        <v>26111.95461408992</v>
       </c>
       <c r="J13">
-        <v>44416.668799697</v>
+        <v>43913.2120427045</v>
       </c>
       <c r="K13">
-        <v>93653.15798034598</v>
+        <v>92591.62605667285</v>
       </c>
       <c r="L13">
-        <v>41917.27878129057</v>
+        <v>41442.1319401763</v>
       </c>
       <c r="M13">
-        <v>24613.28299374708</v>
+        <v>24334.30464487798</v>
       </c>
       <c r="N13">
-        <v>76952.53796049154</v>
+        <v>76080.25342393479</v>
       </c>
       <c r="O13">
-        <v>1358882.821156296</v>
+        <v>1340621.482870681</v>
       </c>
       <c r="P13">
-        <v>4542.795450423308</v>
+        <v>4481.746257551835</v>
       </c>
       <c r="Q13">
-        <v>32704.82959428531</v>
+        <v>32265.31770888878</v>
       </c>
       <c r="R13">
-        <v>28447.79246593746</v>
+        <v>28065.48596089789</v>
       </c>
       <c r="S13">
-        <v>5618.738643211933</v>
+        <v>5543.229388739952</v>
       </c>
       <c r="T13">
-        <v>11678.33881236356</v>
+        <v>11521.35243161949</v>
       </c>
       <c r="U13">
-        <v>27432.57149518953</v>
+        <v>27063.93743780182</v>
       </c>
       <c r="V13">
-        <v>26330.8156724323</v>
+        <v>25976.96160825937</v>
       </c>
       <c r="W13">
-        <v>44281.28243108995</v>
+        <v>43686.19048966763</v>
       </c>
       <c r="X13">
-        <v>93367.69395726218</v>
+        <v>92112.94791476981</v>
       </c>
       <c r="Y13">
-        <v>41789.51079892161</v>
+        <v>41227.88532243701</v>
       </c>
       <c r="Z13">
-        <v>24538.25928994237</v>
+        <v>24208.50169456817</v>
       </c>
       <c r="AA13">
-        <v>76717.97906737527</v>
+        <v>75686.9354113298</v>
       </c>
       <c r="AB13">
-        <v>1222682.907144862</v>
+        <v>1204421.552641288</v>
       </c>
       <c r="AC13">
-        <v>4087.474108445709</v>
+        <v>4026.424949200636</v>
       </c>
       <c r="AD13">
-        <v>29426.84645317095</v>
+        <v>28987.33501434787</v>
       </c>
       <c r="AE13">
-        <v>25596.48930178467</v>
+        <v>25214.183577213</v>
       </c>
       <c r="AF13">
-        <v>5055.576236458563</v>
+        <v>4980.067104949567</v>
       </c>
       <c r="AG13">
-        <v>10507.82674371672</v>
+        <v>10350.84500846924</v>
       </c>
       <c r="AH13">
-        <v>24683.02324821261</v>
+        <v>24314.3869958171</v>
       </c>
       <c r="AI13">
-        <v>23691.69567282511</v>
+        <v>23337.84206271807</v>
       </c>
       <c r="AJ13">
-        <v>39842.99918434279</v>
+        <v>39247.90856392985</v>
       </c>
       <c r="AK13">
-        <v>84009.51259648509</v>
+        <v>82754.76796650354</v>
       </c>
       <c r="AL13">
-        <v>37600.97615209323</v>
+        <v>37039.35397621583</v>
       </c>
       <c r="AM13">
-        <v>22078.8060146139</v>
+        <v>21749.04816209304</v>
       </c>
       <c r="AN13">
-        <v>69028.58746610658</v>
+        <v>67997.54996285404</v>
       </c>
       <c r="AO13">
-        <v>1085982.791292299</v>
+        <v>1064030.694689609</v>
       </c>
       <c r="AP13">
-        <v>3630.480573242326</v>
+        <v>3557.093217418951</v>
       </c>
       <c r="AQ13">
-        <v>26136.82473468834</v>
+        <v>25608.48744766945</v>
       </c>
       <c r="AR13">
-        <v>22734.71456646624</v>
+        <v>22275.14544957968</v>
       </c>
       <c r="AS13">
-        <v>4490.345584106381</v>
+        <v>4399.576086678131</v>
       </c>
       <c r="AT13">
-        <v>9333.015903693624</v>
+        <v>9144.320591767239</v>
       </c>
       <c r="AU13">
-        <v>21923.37713072387</v>
+        <v>21480.23175886863</v>
       </c>
       <c r="AV13">
-        <v>21042.88335665266</v>
+        <v>20617.51572619528</v>
       </c>
       <c r="AW13">
-        <v>35388.41609285943</v>
+        <v>34673.05888275662</v>
       </c>
       <c r="AX13">
-        <v>74616.96278855995</v>
+        <v>73108.63298250949</v>
       </c>
       <c r="AY13">
-        <v>33397.05887630227</v>
+        <v>32721.93980233848</v>
       </c>
       <c r="AZ13">
-        <v>19610.32025886562</v>
+        <v>19213.91623555734</v>
       </c>
       <c r="BA13">
-        <v>61310.95614189807</v>
+        <v>60071.55896994763</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="B14">
-        <v>1372333.262870676</v>
+        <v>1354726.172384258</v>
       </c>
       <c r="C14">
-        <v>4587.760773757274</v>
+        <v>4528.898746340876</v>
       </c>
       <c r="D14">
-        <v>33028.54728162965</v>
+        <v>32604.78137865357</v>
       </c>
       <c r="E14">
-        <v>28729.37331198882</v>
+        <v>28360.76316671921</v>
       </c>
       <c r="F14">
-        <v>5674.353826105</v>
+        <v>5601.549750176572</v>
       </c>
       <c r="G14">
-        <v>11793.93289676211</v>
+        <v>11642.56867416136</v>
       </c>
       <c r="H14">
-        <v>27704.10352004626</v>
+        <v>27348.67734347429</v>
       </c>
       <c r="I14">
-        <v>26591.44234014804</v>
+        <v>26250.26543239775</v>
       </c>
       <c r="J14">
-        <v>44719.58571898534</v>
+        <v>44145.81325475143</v>
       </c>
       <c r="K14">
-        <v>94291.86247718622</v>
+        <v>93082.0689881813</v>
       </c>
       <c r="L14">
-        <v>42203.15012861382</v>
+        <v>41661.64423888311</v>
       </c>
       <c r="M14">
-        <v>24781.14294496632</v>
+        <v>24463.1995375862</v>
       </c>
       <c r="N14">
-        <v>77477.34601927533</v>
+        <v>76483.2382737344</v>
       </c>
       <c r="O14">
-        <v>1368504.54644648</v>
+        <v>1350280.057984378</v>
       </c>
       <c r="P14">
-        <v>4574.961233368649</v>
+        <v>4514.03522458853</v>
       </c>
       <c r="Q14">
-        <v>32936.39988211244</v>
+        <v>32497.77481825219</v>
       </c>
       <c r="R14">
-        <v>28649.22031531336</v>
+        <v>28267.68517053255</v>
       </c>
       <c r="S14">
-        <v>5658.522765036592</v>
+        <v>5583.165864551866</v>
       </c>
       <c r="T14">
-        <v>11761.02862648796</v>
+        <v>11604.3585965169</v>
       </c>
       <c r="U14">
-        <v>27626.81095632675</v>
+        <v>27258.92094056926</v>
       </c>
       <c r="V14">
-        <v>26517.25402541039</v>
+        <v>26164.11393882006</v>
       </c>
       <c r="W14">
-        <v>44594.82111773433</v>
+        <v>44000.92985321429</v>
       </c>
       <c r="X14">
-        <v>94028.7945968819</v>
+        <v>92776.58029553235</v>
       </c>
       <c r="Y14">
-        <v>42085.40621143129</v>
+        <v>41524.91370237387</v>
       </c>
       <c r="Z14">
-        <v>24712.00524236098</v>
+        <v>24382.91306645396</v>
       </c>
       <c r="AA14">
-        <v>77261.18949575958</v>
+        <v>76232.22575624539</v>
       </c>
       <c r="AB14">
-        <v>1232304.632435045</v>
+        <v>1214080.127754986</v>
       </c>
       <c r="AC14">
-        <v>4119.639891391054</v>
+        <v>4058.713916237331</v>
       </c>
       <c r="AD14">
-        <v>29658.41674099807</v>
+        <v>29219.79212371127</v>
       </c>
       <c r="AE14">
-        <v>25797.9171511606</v>
+        <v>25416.38278684771</v>
       </c>
       <c r="AF14">
-        <v>5095.360358283226</v>
+        <v>5020.003580761481</v>
       </c>
       <c r="AG14">
-        <v>10590.51655784112</v>
+        <v>10433.85117336666</v>
       </c>
       <c r="AH14">
-        <v>24877.26270934985</v>
+        <v>24509.37049858455</v>
       </c>
       <c r="AI14">
-        <v>23878.13402580322</v>
+        <v>23524.99439327879</v>
       </c>
       <c r="AJ14">
-        <v>40156.5378709872</v>
+        <v>39562.64792747654</v>
       </c>
       <c r="AK14">
-        <v>84670.61323610487</v>
+        <v>83418.4003472661</v>
       </c>
       <c r="AL14">
-        <v>37896.87156460294</v>
+        <v>37336.38235615273</v>
       </c>
       <c r="AM14">
-        <v>22252.55196703253</v>
+        <v>21923.45953397885</v>
       </c>
       <c r="AN14">
-        <v>69571.79789449088</v>
+        <v>68542.84030776971</v>
       </c>
       <c r="AO14">
-        <v>1095604.516582483</v>
+        <v>1069835.556426281</v>
       </c>
       <c r="AP14">
-        <v>3662.646356187672</v>
+        <v>3576.499080816148</v>
       </c>
       <c r="AQ14">
-        <v>26368.39502251547</v>
+        <v>25748.19556855444</v>
       </c>
       <c r="AR14">
-        <v>22936.14241584218</v>
+        <v>22396.6683907358</v>
       </c>
       <c r="AS14">
-        <v>4530.129705931046</v>
+        <v>4423.578148846635</v>
       </c>
       <c r="AT14">
-        <v>9415.705717818029</v>
+        <v>9194.207796126975</v>
       </c>
       <c r="AU14">
-        <v>22117.6165918611</v>
+        <v>21597.4180167973</v>
       </c>
       <c r="AV14">
-        <v>21229.32170963076</v>
+        <v>20729.99540252562</v>
       </c>
       <c r="AW14">
-        <v>35701.95477950385</v>
+        <v>34862.21913330805</v>
       </c>
       <c r="AX14">
-        <v>75278.06342817971</v>
+        <v>73507.48003489117</v>
       </c>
       <c r="AY14">
-        <v>33692.95428881199</v>
+        <v>32900.45564521432</v>
       </c>
       <c r="AZ14">
-        <v>19784.06621128427</v>
+        <v>19318.73851909113</v>
       </c>
       <c r="BA14">
-        <v>61854.16657028236</v>
+        <v>60399.28174699462</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="B15">
-        <v>1382391.605316703</v>
+        <v>1363037.655601312</v>
       </c>
       <c r="C15">
-        <v>4621.386183977511</v>
+        <v>4556.684336292014</v>
       </c>
       <c r="D15">
-        <v>33270.62582628178</v>
+        <v>32804.81744405816</v>
       </c>
       <c r="E15">
-        <v>28939.94160676823</v>
+        <v>28534.76143433089</v>
       </c>
       <c r="F15">
-        <v>5715.943282170136</v>
+        <v>5635.916242599275</v>
       </c>
       <c r="G15">
-        <v>11880.37503080537</v>
+        <v>11713.99787964307</v>
       </c>
       <c r="H15">
-        <v>27907.15723003351</v>
+        <v>27516.46628664414</v>
       </c>
       <c r="I15">
-        <v>26786.3409412586</v>
+        <v>26411.31542540157</v>
       </c>
       <c r="J15">
-        <v>45047.35224580191</v>
+        <v>44416.6555795323</v>
       </c>
       <c r="K15">
-        <v>94982.96271379002</v>
+        <v>93653.14384446928</v>
       </c>
       <c r="L15">
-        <v>42512.47276020747</v>
+        <v>41917.24575005561</v>
       </c>
       <c r="M15">
-        <v>24962.77318645956</v>
+        <v>24613.28556717419</v>
       </c>
       <c r="N15">
-        <v>78045.20639193807</v>
+        <v>76952.47638565424</v>
       </c>
       <c r="O15">
-        <v>1378915.584191602</v>
+        <v>1358882.982964813</v>
       </c>
       <c r="P15">
-        <v>4609.765716997698</v>
+        <v>4542.79511492872</v>
       </c>
       <c r="Q15">
-        <v>33186.96689940991</v>
+        <v>32704.82513876852</v>
       </c>
       <c r="R15">
-        <v>28867.17217732621</v>
+        <v>28447.78467911576</v>
       </c>
       <c r="S15">
-        <v>5701.570553399009</v>
+        <v>5618.737416395536</v>
       </c>
       <c r="T15">
-        <v>11850.50184984683</v>
+        <v>11678.29246368881</v>
       </c>
       <c r="U15">
-        <v>27836.9847349894</v>
+        <v>27432.59339504464</v>
       </c>
       <c r="V15">
-        <v>26718.98673669177</v>
+        <v>26330.81114216264</v>
       </c>
       <c r="W15">
-        <v>44934.08076221216</v>
+        <v>44281.26925122161</v>
       </c>
       <c r="X15">
-        <v>94744.12823038609</v>
+        <v>93367.67986447302</v>
       </c>
       <c r="Y15">
-        <v>42405.57522637813</v>
+        <v>41789.47786836907</v>
       </c>
       <c r="Z15">
-        <v>24900.00433962664</v>
+        <v>24538.2618555254</v>
       </c>
       <c r="AA15">
-        <v>77848.96186535976</v>
+        <v>76717.91768022414</v>
       </c>
       <c r="AB15">
-        <v>1242715.670180168</v>
+        <v>1222683.052735419</v>
       </c>
       <c r="AC15">
-        <v>4154.444375020102</v>
+        <v>4087.473806577519</v>
       </c>
       <c r="AD15">
-        <v>29908.98375829554</v>
+        <v>29426.8424442276</v>
       </c>
       <c r="AE15">
-        <v>26015.86901317347</v>
+        <v>25596.48229543088</v>
       </c>
       <c r="AF15">
-        <v>5138.408146645644</v>
+        <v>5055.575132605151</v>
       </c>
       <c r="AG15">
-        <v>10679.98978119999</v>
+        <v>10507.78504053857</v>
       </c>
       <c r="AH15">
-        <v>25087.43648801251</v>
+        <v>24683.04295305994</v>
       </c>
       <c r="AI15">
-        <v>24079.86673708461</v>
+        <v>23691.69159662135</v>
       </c>
       <c r="AJ15">
-        <v>40495.79751546505</v>
+        <v>39842.98732548384</v>
       </c>
       <c r="AK15">
-        <v>85385.94686960902</v>
+        <v>84009.49991620677</v>
       </c>
       <c r="AL15">
-        <v>38217.04057954978</v>
+        <v>37600.94652214791</v>
       </c>
       <c r="AM15">
-        <v>22440.5510642982</v>
+        <v>22078.80832305027</v>
       </c>
       <c r="AN15">
-        <v>70159.57026409103</v>
+        <v>69028.53223174841</v>
       </c>
       <c r="AO15">
-        <v>1106015.554327606</v>
+        <v>1085982.920605337</v>
       </c>
       <c r="AP15">
-        <v>3697.450839816717</v>
+        <v>3630.480305124033</v>
       </c>
       <c r="AQ15">
-        <v>26618.96203981294</v>
+        <v>26136.82117395855</v>
       </c>
       <c r="AR15">
-        <v>23154.09427785503</v>
+        <v>22734.70834344669</v>
       </c>
       <c r="AS15">
-        <v>4573.177494293462</v>
+        <v>4490.344603667548</v>
       </c>
       <c r="AT15">
-        <v>9505.1789411769</v>
+        <v>9332.978863072913</v>
       </c>
       <c r="AU15">
-        <v>22327.79037052377</v>
+        <v>21923.39463250212</v>
       </c>
       <c r="AV15">
-        <v>21431.05442091216</v>
+        <v>21042.87973618237</v>
       </c>
       <c r="AW15">
-        <v>36041.21442398168</v>
+        <v>35388.40555986133</v>
       </c>
       <c r="AX15">
-        <v>75993.39706168388</v>
+        <v>74616.95152597997</v>
       </c>
       <c r="AY15">
-        <v>34013.12330375882</v>
+        <v>33397.03255908582</v>
       </c>
       <c r="AZ15">
-        <v>19972.06530854993</v>
+        <v>19610.32230921095</v>
       </c>
       <c r="BA15">
-        <v>62441.93893988252</v>
+        <v>61310.90708292941</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="B16">
-        <v>1393129.455777712</v>
+        <v>1372333.4262808</v>
       </c>
       <c r="C16">
-        <v>4657.283214583936</v>
+        <v>4587.760434941907</v>
       </c>
       <c r="D16">
-        <v>33529.05838872847</v>
+        <v>33028.54278201143</v>
       </c>
       <c r="E16">
-        <v>29164.73519212322</v>
+        <v>28729.3654480919</v>
       </c>
       <c r="F16">
-        <v>5760.342382954237</v>
+        <v>5674.352587145376</v>
       </c>
       <c r="G16">
-        <v>11972.65690665795</v>
+        <v>11793.88608932069</v>
       </c>
       <c r="H16">
-        <v>28123.92857035087</v>
+        <v>27704.12563666969</v>
       </c>
       <c r="I16">
-        <v>26994.40624078632</v>
+        <v>26591.43776503703</v>
       </c>
       <c r="J16">
-        <v>45397.26158424077</v>
+        <v>44719.57240866053</v>
       </c>
       <c r="K16">
-        <v>95720.75137370494</v>
+        <v>94291.84824490437</v>
       </c>
       <c r="L16">
-        <v>42842.69219547541</v>
+        <v>42203.11687210934</v>
       </c>
       <c r="M16">
-        <v>25156.67376031819</v>
+        <v>24781.14553594391</v>
       </c>
       <c r="N16">
-        <v>78651.42951439632</v>
+        <v>77477.28402450419</v>
       </c>
       <c r="O16">
-        <v>1390029.956867908</v>
+        <v>1368504.7094007</v>
       </c>
       <c r="P16">
-        <v>4646.921475273654</v>
+        <v>4574.960895498554</v>
       </c>
       <c r="Q16">
-        <v>33454.46138735748</v>
+        <v>32936.39539504782</v>
       </c>
       <c r="R16">
-        <v>29099.8481390516</v>
+        <v>28649.21247335617</v>
       </c>
       <c r="S16">
-        <v>5747.526506538721</v>
+        <v>5658.521529533587</v>
       </c>
       <c r="T16">
-        <v>11946.01958528359</v>
+        <v>11760.98194963612</v>
       </c>
       <c r="U16">
-        <v>28061.35715203674</v>
+        <v>27626.8330112463</v>
       </c>
       <c r="V16">
-        <v>26934.3478360436</v>
+        <v>26517.24946306363</v>
       </c>
       <c r="W16">
-        <v>45296.25965494781</v>
+        <v>44594.80784454443</v>
       </c>
       <c r="X16">
-        <v>95507.7874145424</v>
+        <v>94028.78040430717</v>
       </c>
       <c r="Y16">
-        <v>42747.37379042538</v>
+        <v>42085.37304771021</v>
       </c>
       <c r="Z16">
-        <v>25100.70402787804</v>
+        <v>24712.00782610993</v>
       </c>
       <c r="AA16">
-        <v>78476.44217275101</v>
+        <v>77261.12767394965</v>
       </c>
       <c r="AB16">
-        <v>1253830.042856473</v>
+        <v>1232304.779171307</v>
       </c>
       <c r="AC16">
-        <v>4191.600133296051</v>
+        <v>4119.639587147354</v>
       </c>
       <c r="AD16">
-        <v>30176.47824624311</v>
+        <v>29658.41270050693</v>
       </c>
       <c r="AE16">
-        <v>26248.5449748988</v>
+        <v>25797.91008967131</v>
       </c>
       <c r="AF16">
-        <v>5184.364099785348</v>
+        <v>5095.359245743202</v>
       </c>
       <c r="AG16">
-        <v>10775.50751663675</v>
+        <v>10590.47452648586</v>
       </c>
       <c r="AH16">
-        <v>25311.80890505982</v>
+        <v>24877.28256926159</v>
       </c>
       <c r="AI16">
-        <v>24295.2278364364</v>
+        <v>23878.12991752235</v>
       </c>
       <c r="AJ16">
-        <v>40857.97640820064</v>
+        <v>40156.52591880665</v>
       </c>
       <c r="AK16">
-        <v>86149.60605376527</v>
+        <v>84670.60045604089</v>
       </c>
       <c r="AL16">
-        <v>38558.839143597</v>
+        <v>37896.84170148904</v>
       </c>
       <c r="AM16">
-        <v>22641.25075254957</v>
+        <v>22252.55429363481</v>
       </c>
       <c r="AN16">
-        <v>70787.05057148222</v>
+        <v>69571.74222547401</v>
       </c>
       <c r="AO16">
-        <v>1117129.92700391</v>
+        <v>1095604.647041224</v>
       </c>
       <c r="AP16">
-        <v>3734.606598092671</v>
+        <v>3662.646085693865</v>
       </c>
       <c r="AQ16">
-        <v>26886.4565277605</v>
+        <v>26368.39143023785</v>
       </c>
       <c r="AR16">
-        <v>23386.77023958038</v>
+        <v>22936.13613768712</v>
       </c>
       <c r="AS16">
-        <v>4619.133447433173</v>
+        <v>4530.128716805597</v>
       </c>
       <c r="AT16">
-        <v>9600.696676613654</v>
+        <v>9415.668349020214</v>
       </c>
       <c r="AU16">
-        <v>22552.16278757108</v>
+        <v>22117.63424870378</v>
       </c>
       <c r="AV16">
-        <v>21646.41552026395</v>
+        <v>21229.31805708336</v>
       </c>
       <c r="AW16">
-        <v>36403.39331671729</v>
+        <v>35701.94415318414</v>
       </c>
       <c r="AX16">
-        <v>76757.05624584015</v>
+        <v>75278.0520658141</v>
       </c>
       <c r="AY16">
-        <v>34354.92186780605</v>
+        <v>33692.92773842697</v>
       </c>
       <c r="AZ16">
-        <v>20172.7649968013</v>
+        <v>19784.06827979548</v>
       </c>
       <c r="BA16">
-        <v>63069.4192472737</v>
+        <v>61854.11707665494</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="B17">
-        <v>1404486.857664145</v>
+        <v>1382391.769924521</v>
       </c>
       <c r="C17">
-        <v>4695.251428483661</v>
+        <v>4621.385842678842</v>
       </c>
       <c r="D17">
-        <v>33802.40196739962</v>
+        <v>33270.62129368416</v>
       </c>
       <c r="E17">
-        <v>29402.498895356</v>
+        <v>28939.93368523387</v>
       </c>
       <c r="F17">
-        <v>5807.30321862916</v>
+        <v>5715.942034129719</v>
       </c>
       <c r="G17">
-        <v>12070.26325298374</v>
+        <v>11880.32788029475</v>
       </c>
       <c r="H17">
-        <v>28353.20716185155</v>
+        <v>27907.17950875794</v>
       </c>
       <c r="I17">
-        <v>27214.47647122381</v>
+        <v>26786.33633261491</v>
       </c>
       <c r="J17">
-        <v>45767.35995680584</v>
+        <v>45047.33883792081</v>
       </c>
       <c r="K17">
-        <v>96501.10889016825</v>
+        <v>94982.94837719451</v>
       </c>
       <c r="L17">
-        <v>43191.96459879929</v>
+        <v>42512.4392599537</v>
       </c>
       <c r="M17">
-        <v>25361.76199015706</v>
+        <v>24962.77579642741</v>
       </c>
       <c r="N17">
-        <v>79292.63043813879</v>
+        <v>78045.14394278414</v>
       </c>
       <c r="O17">
-        <v>1401785.60551088</v>
+        <v>1378915.748385514</v>
       </c>
       <c r="P17">
-        <v>4686.221042786489</v>
+        <v>4609.76537655722</v>
       </c>
       <c r="Q17">
-        <v>33737.38974560366</v>
+        <v>33186.96237820951</v>
       </c>
       <c r="R17">
-        <v>29345.94901522074</v>
+        <v>28867.16427571053</v>
       </c>
       <c r="S17">
-        <v>5796.13402168126</v>
+        <v>5701.569308496786</v>
       </c>
       <c r="T17">
-        <v>12047.04849349726</v>
+        <v>11850.45481789608</v>
       </c>
       <c r="U17">
-        <v>28298.67538643479</v>
+        <v>27837.00695769401</v>
       </c>
       <c r="V17">
-        <v>27162.1348186361</v>
+        <v>26718.98213963649</v>
       </c>
       <c r="W17">
-        <v>45679.3355093303</v>
+        <v>44934.06738804509</v>
       </c>
       <c r="X17">
-        <v>96315.50813017566</v>
+        <v>94744.11392983988</v>
       </c>
       <c r="Y17">
-        <v>43108.89341394657</v>
+        <v>42405.54181036066</v>
       </c>
       <c r="Z17">
-        <v>25312.98366673407</v>
+        <v>24900.00694303172</v>
       </c>
       <c r="AA17">
-        <v>79140.12677636341</v>
+        <v>77848.8995732341</v>
       </c>
       <c r="AB17">
-        <v>1265585.691499445</v>
+        <v>1242715.818156121</v>
       </c>
       <c r="AC17">
-        <v>4230.899700808891</v>
+        <v>4154.444068206023</v>
       </c>
       <c r="AD17">
-        <v>30459.40660448928</v>
+        <v>29908.97968366859</v>
       </c>
       <c r="AE17">
-        <v>26494.64585106795</v>
+        <v>26015.8618920257</v>
       </c>
       <c r="AF17">
-        <v>5232.971614927887</v>
+        <v>5138.407024706402</v>
       </c>
       <c r="AG17">
-        <v>10876.53642485042</v>
+        <v>10679.94739474583</v>
       </c>
       <c r="AH17">
-        <v>25549.12713945788</v>
+        <v>25087.45651570931</v>
       </c>
       <c r="AI17">
-        <v>24523.0148190289</v>
+        <v>24079.86259409522</v>
       </c>
       <c r="AJ17">
-        <v>41241.05226258312</v>
+        <v>40495.78546230736</v>
       </c>
       <c r="AK17">
-        <v>86957.32676939855</v>
+        <v>85385.93398157362</v>
       </c>
       <c r="AL17">
-        <v>38920.35876711817</v>
+        <v>38217.01046413951</v>
       </c>
       <c r="AM17">
-        <v>22853.53039140559</v>
+        <v>22440.55341055661</v>
       </c>
       <c r="AN17">
-        <v>71450.73517509473</v>
+        <v>70159.5141247584</v>
       </c>
       <c r="AO17">
-        <v>1128885.575646883</v>
+        <v>1106015.686026037</v>
       </c>
       <c r="AP17">
-        <v>3773.90616560551</v>
+        <v>3697.450566752532</v>
       </c>
       <c r="AQ17">
-        <v>27169.38488600668</v>
+        <v>26618.95841339953</v>
       </c>
       <c r="AR17">
-        <v>23632.87111574952</v>
+        <v>23154.08794004149</v>
       </c>
       <c r="AS17">
-        <v>4667.740962575708</v>
+        <v>4573.176495768796</v>
       </c>
       <c r="AT17">
-        <v>9701.725584827323</v>
+        <v>9505.141217280179</v>
       </c>
       <c r="AU17">
-        <v>22789.48102196913</v>
+        <v>22327.80819515149</v>
       </c>
       <c r="AV17">
-        <v>21874.20250285645</v>
+        <v>21431.05073365624</v>
       </c>
       <c r="AW17">
-        <v>36786.46917109976</v>
+        <v>36041.20369668483</v>
       </c>
       <c r="AX17">
-        <v>77564.77696147341</v>
+        <v>75993.38559134677</v>
       </c>
       <c r="AY17">
-        <v>34716.44149132723</v>
+        <v>34013.09650107741</v>
       </c>
       <c r="AZ17">
-        <v>20385.04463565732</v>
+        <v>19972.06739671727</v>
       </c>
       <c r="BA17">
-        <v>63733.10385088623</v>
+        <v>62441.88897593939</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B18">
+        <v>1393129.621664135</v>
+      </c>
+      <c r="C18">
+        <v>4657.282870634202</v>
+      </c>
+      <c r="D18">
+        <v>33529.0538209235</v>
+      </c>
+      <c r="E18">
+        <v>29164.72720905764</v>
+      </c>
+      <c r="F18">
+        <v>5760.341125219556</v>
+      </c>
+      <c r="G18">
+        <v>11972.60938990153</v>
+      </c>
+      <c r="H18">
+        <v>28123.95102212726</v>
+      </c>
+      <c r="I18">
+        <v>26994.40159634459</v>
+      </c>
+      <c r="J18">
+        <v>45397.24807221275</v>
+      </c>
+      <c r="K18">
+        <v>95720.73692574861</v>
+      </c>
+      <c r="L18">
+        <v>42842.65843500542</v>
+      </c>
+      <c r="M18">
+        <v>25156.67639055921</v>
+      </c>
+      <c r="N18">
+        <v>78651.36658016304</v>
+      </c>
+      <c r="O18">
+        <v>1390030.12238526</v>
+      </c>
+      <c r="P18">
+        <v>4646.921132089149</v>
+      </c>
+      <c r="Q18">
+        <v>33454.45682971516</v>
+      </c>
+      <c r="R18">
+        <v>29099.84017374709</v>
+      </c>
+      <c r="S18">
+        <v>5747.525251602301</v>
+      </c>
+      <c r="T18">
+        <v>11945.97217424464</v>
+      </c>
+      <c r="U18">
+        <v>28061.37955386138</v>
+      </c>
+      <c r="V18">
+        <v>26934.34320193501</v>
+      </c>
+      <c r="W18">
+        <v>45296.24617298193</v>
+      </c>
+      <c r="X18">
+        <v>95507.77299873052</v>
+      </c>
+      <c r="Y18">
+        <v>42747.34010506723</v>
+      </c>
+      <c r="Z18">
+        <v>25100.70665226714</v>
+      </c>
+      <c r="AA18">
+        <v>78476.37937853664</v>
+      </c>
+      <c r="AB18">
+        <v>1253830.192155867</v>
+      </c>
+      <c r="AC18">
+        <v>4191.599823737949</v>
+      </c>
+      <c r="AD18">
+        <v>30176.47413517428</v>
+      </c>
+      <c r="AE18">
+        <v>26248.53779006224</v>
+      </c>
+      <c r="AF18">
+        <v>5184.362967811917</v>
+      </c>
+      <c r="AG18">
+        <v>10775.46475109439</v>
+      </c>
+      <c r="AH18">
+        <v>25311.82911187667</v>
+      </c>
+      <c r="AI18">
+        <v>24295.22365639373</v>
+      </c>
+      <c r="AJ18">
+        <v>40857.96424724416</v>
+      </c>
+      <c r="AK18">
+        <v>86149.59305046427</v>
+      </c>
+      <c r="AL18">
+        <v>38558.80875884608</v>
+      </c>
+      <c r="AM18">
+        <v>22641.25311979203</v>
+      </c>
+      <c r="AN18">
+        <v>70786.99393006095</v>
+      </c>
+      <c r="AO18">
+        <v>1117130.060025783</v>
+      </c>
+      <c r="AP18">
+        <v>3734.60632228446</v>
+      </c>
+      <c r="AQ18">
+        <v>26886.45286490519</v>
+      </c>
+      <c r="AR18">
+        <v>23386.76383807805</v>
+      </c>
+      <c r="AS18">
+        <v>4619.132438874313</v>
+      </c>
+      <c r="AT18">
+        <v>9600.658573628745</v>
+      </c>
+      <c r="AU18">
+        <v>22552.18079131886</v>
+      </c>
+      <c r="AV18">
+        <v>21646.41179595475</v>
+      </c>
+      <c r="AW18">
+        <v>36403.38248162167</v>
+      </c>
+      <c r="AX18">
+        <v>76757.04466023746</v>
+      </c>
+      <c r="AY18">
+        <v>34354.89479578398</v>
+      </c>
+      <c r="AZ18">
+        <v>20172.7671059527</v>
+      </c>
+      <c r="BA18">
+        <v>63069.36878124192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53">
+      <c r="A19" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B19">
+        <v>1404487.024902947</v>
+      </c>
+      <c r="C19">
+        <v>4695.251081729893</v>
+      </c>
+      <c r="D19">
+        <v>33802.39736235593</v>
+      </c>
+      <c r="E19">
+        <v>29402.49084720894</v>
+      </c>
+      <c r="F19">
+        <v>5807.301950640868</v>
+      </c>
+      <c r="G19">
+        <v>12070.21534884989</v>
+      </c>
+      <c r="H19">
+        <v>28353.22979666466</v>
+      </c>
+      <c r="I19">
+        <v>27214.47178891853</v>
+      </c>
+      <c r="J19">
+        <v>45767.34633462181</v>
+      </c>
+      <c r="K19">
+        <v>96501.09432442584</v>
+      </c>
+      <c r="L19">
+        <v>43191.93056309913</v>
+      </c>
+      <c r="M19">
+        <v>25361.76464184094</v>
+      </c>
+      <c r="N19">
+        <v>79292.56699083801</v>
+      </c>
+      <c r="O19">
+        <v>1401785.772428031</v>
+      </c>
+      <c r="P19">
+        <v>4686.220696699635</v>
+      </c>
+      <c r="Q19">
+        <v>33737.38514941685</v>
+      </c>
+      <c r="R19">
+        <v>29345.9409825527</v>
+      </c>
+      <c r="S19">
+        <v>5796.132756131693</v>
+      </c>
+      <c r="T19">
+        <v>12047.00068149751</v>
+      </c>
+      <c r="U19">
+        <v>28298.69797771433</v>
+      </c>
+      <c r="V19">
+        <v>27162.1301453363</v>
+      </c>
+      <c r="W19">
+        <v>45679.3219133458</v>
+      </c>
+      <c r="X19">
+        <v>96315.49359244756</v>
+      </c>
+      <c r="Y19">
+        <v>43108.8594437073</v>
+      </c>
+      <c r="Z19">
+        <v>25312.98631331793</v>
+      </c>
+      <c r="AA19">
+        <v>79140.06345109097</v>
+      </c>
+      <c r="AB19">
+        <v>1265585.842198638</v>
+      </c>
+      <c r="AC19">
+        <v>4230.899388348435</v>
+      </c>
+      <c r="AD19">
+        <v>30459.40245487591</v>
+      </c>
+      <c r="AE19">
+        <v>26494.63859886784</v>
+      </c>
+      <c r="AF19">
+        <v>5232.970472341308</v>
+      </c>
+      <c r="AG19">
+        <v>10876.49325834727</v>
+      </c>
+      <c r="AH19">
+        <v>25549.14753572962</v>
+      </c>
+      <c r="AI19">
+        <v>24523.01059979502</v>
+      </c>
+      <c r="AJ19">
+        <v>41241.03998760804</v>
+      </c>
+      <c r="AK19">
+        <v>86957.31364418128</v>
+      </c>
+      <c r="AL19">
+        <v>38920.32809748615</v>
+      </c>
+      <c r="AM19">
+        <v>22853.53278084282</v>
+      </c>
+      <c r="AN19">
+        <v>71450.67800261531</v>
+      </c>
+      <c r="AO19">
+        <v>1128885.710068555</v>
+      </c>
+      <c r="AP19">
+        <v>3773.905886894945</v>
+      </c>
+      <c r="AQ19">
+        <v>27169.38118460684</v>
+      </c>
+      <c r="AR19">
+        <v>23632.86464688365</v>
+      </c>
+      <c r="AS19">
+        <v>4667.739943403702</v>
+      </c>
+      <c r="AT19">
+        <v>9701.687080881613</v>
+      </c>
+      <c r="AU19">
+        <v>22789.4992151718</v>
+      </c>
+      <c r="AV19">
+        <v>21874.19873935603</v>
+      </c>
+      <c r="AW19">
+        <v>36786.45822198552</v>
+      </c>
+      <c r="AX19">
+        <v>77564.76525395447</v>
+      </c>
+      <c r="AY19">
+        <v>34716.41413442406</v>
+      </c>
+      <c r="AZ19">
+        <v>20385.04676700349</v>
+      </c>
+      <c r="BA19">
+        <v>63733.05285379628</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53">
+      <c r="A20" s="1">
         <v>2030</v>
       </c>
-      <c r="B18">
-        <v>1416421.966272874</v>
-      </c>
-      <c r="C18">
-        <v>4735.15093728892</v>
-      </c>
-      <c r="D18">
-        <v>34089.64946744941</v>
-      </c>
-      <c r="E18">
-        <v>29652.35671052114</v>
-      </c>
-      <c r="F18">
-        <v>5856.652768794002</v>
-      </c>
-      <c r="G18">
-        <v>12172.83445332941</v>
-      </c>
-      <c r="H18">
-        <v>28594.14826075602</v>
-      </c>
-      <c r="I18">
-        <v>27445.74081566487</v>
-      </c>
-      <c r="J18">
-        <v>46156.2837896196</v>
-      </c>
-      <c r="K18">
-        <v>97321.16014887672</v>
-      </c>
-      <c r="L18">
-        <v>43559.00312657052</v>
-      </c>
-      <c r="M18">
-        <v>25577.28225808232</v>
-      </c>
-      <c r="N18">
-        <v>79966.44675118344</v>
-      </c>
-      <c r="O18">
-        <v>1414139.218134865</v>
-      </c>
-      <c r="P18">
-        <v>4727.519625968802</v>
-      </c>
-      <c r="Q18">
-        <v>34034.70956556979</v>
-      </c>
-      <c r="R18">
-        <v>29604.56808278145</v>
-      </c>
-      <c r="S18">
-        <v>5847.214011473605</v>
-      </c>
-      <c r="T18">
-        <v>12153.21634810067</v>
-      </c>
-      <c r="U18">
-        <v>28548.06507350361</v>
-      </c>
-      <c r="V18">
-        <v>27401.50843630683</v>
-      </c>
-      <c r="W18">
-        <v>46081.89693782895</v>
-      </c>
-      <c r="X18">
-        <v>97164.31444723645</v>
-      </c>
-      <c r="Y18">
-        <v>43488.80213022309</v>
-      </c>
-      <c r="Z18">
-        <v>25536.06114259538</v>
-      </c>
-      <c r="AA18">
-        <v>79837.57042635159</v>
-      </c>
-      <c r="AB18">
-        <v>1277939.304123431</v>
-      </c>
-      <c r="AC18">
-        <v>4272.198283991202</v>
-      </c>
-      <c r="AD18">
-        <v>30756.72642445542</v>
-      </c>
-      <c r="AE18">
-        <v>26753.26491862867</v>
-      </c>
-      <c r="AF18">
-        <v>5284.051604720234</v>
-      </c>
-      <c r="AG18">
-        <v>10982.70427945383</v>
-      </c>
-      <c r="AH18">
-        <v>25798.51682652669</v>
-      </c>
-      <c r="AI18">
-        <v>24762.38843669964</v>
-      </c>
-      <c r="AJ18">
-        <v>41643.61369108179</v>
-      </c>
-      <c r="AK18">
-        <v>87806.13308645938</v>
-      </c>
-      <c r="AL18">
-        <v>39300.26748339473</v>
-      </c>
-      <c r="AM18">
-        <v>23076.60786726692</v>
-      </c>
-      <c r="AN18">
-        <v>72148.17882508284</v>
-      </c>
-      <c r="AO18">
-        <v>1141239.188270869</v>
-      </c>
-      <c r="AP18">
-        <v>3815.204748787819</v>
-      </c>
-      <c r="AQ18">
-        <v>27466.70470597282</v>
-      </c>
-      <c r="AR18">
-        <v>23891.49018331024</v>
-      </c>
-      <c r="AS18">
-        <v>4718.820952368055</v>
-      </c>
-      <c r="AT18">
-        <v>9807.89343943074</v>
-      </c>
-      <c r="AU18">
-        <v>23038.87070903796</v>
-      </c>
-      <c r="AV18">
-        <v>22113.57612052719</v>
-      </c>
-      <c r="AW18">
-        <v>37189.03059959845</v>
-      </c>
-      <c r="AX18">
-        <v>78413.58327853422</v>
-      </c>
-      <c r="AY18">
-        <v>35096.35020760378</v>
-      </c>
-      <c r="AZ18">
-        <v>20608.12211151865</v>
-      </c>
-      <c r="BA18">
-        <v>64430.54750087434</v>
+      <c r="B20">
+        <v>1416422.134932845</v>
+      </c>
+      <c r="C20">
+        <v>4735.150587588495</v>
+      </c>
+      <c r="D20">
+        <v>34089.64482327278</v>
+      </c>
+      <c r="E20">
+        <v>29652.3485939822</v>
+      </c>
+      <c r="F20">
+        <v>5856.651490030548</v>
+      </c>
+      <c r="G20">
+        <v>12172.78614211375</v>
+      </c>
+      <c r="H20">
+        <v>28594.17108791623</v>
+      </c>
+      <c r="I20">
+        <v>27445.73609357009</v>
+      </c>
+      <c r="J20">
+        <v>46156.27005167639</v>
+      </c>
+      <c r="K20">
+        <v>97321.14545935688</v>
+      </c>
+      <c r="L20">
+        <v>43558.96880164032</v>
+      </c>
+      <c r="M20">
+        <v>25577.28493229978</v>
+      </c>
+      <c r="N20">
+        <v>79966.38276471758</v>
+      </c>
+      <c r="O20">
+        <v>1414139.38652302</v>
+      </c>
+      <c r="P20">
+        <v>4727.519276831959</v>
+      </c>
+      <c r="Q20">
+        <v>34034.70492887784</v>
+      </c>
+      <c r="R20">
+        <v>29604.55997932338</v>
+      </c>
+      <c r="S20">
+        <v>5847.212734771042</v>
+      </c>
+      <c r="T20">
+        <v>12153.16811474482</v>
+      </c>
+      <c r="U20">
+        <v>28548.08786387487</v>
+      </c>
+      <c r="V20">
+        <v>27401.50372182232</v>
+      </c>
+      <c r="W20">
+        <v>46081.8832220262</v>
+      </c>
+      <c r="X20">
+        <v>97164.2997813907</v>
+      </c>
+      <c r="Y20">
+        <v>43488.76786061199</v>
+      </c>
+      <c r="Z20">
+        <v>25536.06381250298</v>
+      </c>
+      <c r="AA20">
+        <v>79837.50654300814</v>
+      </c>
+      <c r="AB20">
+        <v>1277939.456293626</v>
+      </c>
+      <c r="AC20">
+        <v>4272.197968480759</v>
+      </c>
+      <c r="AD20">
+        <v>30756.72223433694</v>
+      </c>
+      <c r="AE20">
+        <v>26753.25759563851</v>
+      </c>
+      <c r="AF20">
+        <v>5284.050450980659</v>
+      </c>
+      <c r="AG20">
+        <v>10982.66069159457</v>
+      </c>
+      <c r="AH20">
+        <v>25798.53742189016</v>
+      </c>
+      <c r="AI20">
+        <v>24762.38417628103</v>
+      </c>
+      <c r="AJ20">
+        <v>41643.60129628843</v>
+      </c>
+      <c r="AK20">
+        <v>87806.11983312445</v>
+      </c>
+      <c r="AL20">
+        <v>39300.23651439082</v>
+      </c>
+      <c r="AM20">
+        <v>23076.61028002787</v>
+      </c>
+      <c r="AN20">
+        <v>72148.12109453246</v>
+      </c>
+      <c r="AO20">
+        <v>1141239.324163543</v>
+      </c>
+      <c r="AP20">
+        <v>3815.204467027269</v>
+      </c>
+      <c r="AQ20">
+        <v>27466.70096406786</v>
+      </c>
+      <c r="AR20">
+        <v>23891.48364365432</v>
+      </c>
+      <c r="AS20">
+        <v>4718.819922043052</v>
+      </c>
+      <c r="AT20">
+        <v>9807.854514128918</v>
+      </c>
+      <c r="AU20">
+        <v>23038.88910133234</v>
+      </c>
+      <c r="AV20">
+        <v>22113.57231584205</v>
+      </c>
+      <c r="AW20">
+        <v>37189.0195306659</v>
+      </c>
+      <c r="AX20">
+        <v>78413.57144289761</v>
+      </c>
+      <c r="AY20">
+        <v>35096.32255132872</v>
+      </c>
+      <c r="AZ20">
+        <v>20608.12426618853</v>
+      </c>
+      <c r="BA20">
+        <v>64430.49594571341</v>
       </c>
     </row>
   </sheetData>
@@ -3079,7 +3401,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA18"/>
+  <dimension ref="A1:BA20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3309,2417 +3631,2739 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B4">
-        <v>0.7649931027012866</v>
+        <v>0.7644452383947508</v>
       </c>
       <c r="C4">
-        <v>0.002557400191136056</v>
+        <v>0.002893649839807259</v>
       </c>
       <c r="D4">
-        <v>0.01841142494049642</v>
+        <v>0.01831403238452217</v>
       </c>
       <c r="E4">
-        <v>0.01601489450356125</v>
+        <v>0.01564878590029378</v>
       </c>
       <c r="F4">
-        <v>0.003163110344040423</v>
+        <v>0.003106120132682197</v>
       </c>
       <c r="G4">
-        <v>0.006574406934414623</v>
+        <v>0.006616091994660358</v>
       </c>
       <c r="H4">
-        <v>0.01544336837323677</v>
+        <v>0.01595134299583346</v>
       </c>
       <c r="I4">
-        <v>0.01482312680998478</v>
+        <v>0.01489295738545609</v>
       </c>
       <c r="J4">
-        <v>0.02492847441380323</v>
+        <v>0.02492514314234012</v>
       </c>
       <c r="K4">
-        <v>0.05256203167809043</v>
+        <v>0.05078421271784243</v>
       </c>
       <c r="L4">
-        <v>0.02352571320258009</v>
+        <v>0.02359597301642902</v>
       </c>
       <c r="M4">
-        <v>0.01381399397861885</v>
+        <v>0.01222297358918805</v>
       </c>
       <c r="N4">
-        <v>0.04318895192875024</v>
+        <v>0.04660347850619419</v>
       </c>
       <c r="O4">
-        <v>0.7649931027012866</v>
+        <v>0.7644452383947508</v>
       </c>
       <c r="P4">
-        <v>0.002557400191136056</v>
+        <v>0.002893649839807259</v>
       </c>
       <c r="Q4">
-        <v>0.01841142494049642</v>
+        <v>0.01831403238452217</v>
       </c>
       <c r="R4">
-        <v>0.01601489450356125</v>
+        <v>0.01564878590029378</v>
       </c>
       <c r="S4">
-        <v>0.003163110344040423</v>
+        <v>0.003106120132682197</v>
       </c>
       <c r="T4">
-        <v>0.006574406934414623</v>
+        <v>0.006616091994660358</v>
       </c>
       <c r="U4">
-        <v>0.01544336837323677</v>
+        <v>0.01595134299583346</v>
       </c>
       <c r="V4">
-        <v>0.01482312680998478</v>
+        <v>0.01489295738545609</v>
       </c>
       <c r="W4">
-        <v>0.02492847441380323</v>
+        <v>0.02492514314234012</v>
       </c>
       <c r="X4">
-        <v>0.05256203167809043</v>
+        <v>0.05078421271784243</v>
       </c>
       <c r="Y4">
-        <v>0.02352571320258009</v>
+        <v>0.02359597301642902</v>
       </c>
       <c r="Z4">
-        <v>0.01381399397861885</v>
+        <v>0.01222297358918805</v>
       </c>
       <c r="AA4">
-        <v>0.04318895192875024</v>
+        <v>0.04660347850619419</v>
       </c>
       <c r="AB4">
-        <v>0.7649931027012866</v>
+        <v>0.7644452383947508</v>
       </c>
       <c r="AC4">
-        <v>0.002557400191136056</v>
+        <v>0.002893649839807259</v>
       </c>
       <c r="AD4">
-        <v>0.01841142494049642</v>
+        <v>0.01831403238452217</v>
       </c>
       <c r="AE4">
-        <v>0.01601489450356125</v>
+        <v>0.01564878590029378</v>
       </c>
       <c r="AF4">
-        <v>0.003163110344040423</v>
+        <v>0.003106120132682197</v>
       </c>
       <c r="AG4">
-        <v>0.006574406934414623</v>
+        <v>0.006616091994660358</v>
       </c>
       <c r="AH4">
-        <v>0.01544336837323677</v>
+        <v>0.01595134299583346</v>
       </c>
       <c r="AI4">
-        <v>0.01482312680998478</v>
+        <v>0.01489295738545609</v>
       </c>
       <c r="AJ4">
-        <v>0.02492847441380323</v>
+        <v>0.02492514314234012</v>
       </c>
       <c r="AK4">
-        <v>0.05256203167809043</v>
+        <v>0.05078421271784243</v>
       </c>
       <c r="AL4">
-        <v>0.02352571320258009</v>
+        <v>0.02359597301642902</v>
       </c>
       <c r="AM4">
-        <v>0.01381399397861885</v>
+        <v>0.01222297358918805</v>
       </c>
       <c r="AN4">
-        <v>0.04318895192875024</v>
+        <v>0.04660347850619419</v>
       </c>
       <c r="AO4">
-        <v>0.7649931027012866</v>
+        <v>0.7644452383947508</v>
       </c>
       <c r="AP4">
-        <v>0.002557400191136056</v>
+        <v>0.002893649839807259</v>
       </c>
       <c r="AQ4">
-        <v>0.01841142494049642</v>
+        <v>0.01831403238452217</v>
       </c>
       <c r="AR4">
-        <v>0.01601489450356125</v>
+        <v>0.01564878590029378</v>
       </c>
       <c r="AS4">
-        <v>0.003163110344040423</v>
+        <v>0.003106120132682197</v>
       </c>
       <c r="AT4">
-        <v>0.006574406934414623</v>
+        <v>0.006616091994660358</v>
       </c>
       <c r="AU4">
-        <v>0.01544336837323677</v>
+        <v>0.01595134299583346</v>
       </c>
       <c r="AV4">
-        <v>0.01482312680998478</v>
+        <v>0.01489295738545609</v>
       </c>
       <c r="AW4">
-        <v>0.02492847441380323</v>
+        <v>0.02492514314234012</v>
       </c>
       <c r="AX4">
-        <v>0.05256203167809043</v>
+        <v>0.05078421271784243</v>
       </c>
       <c r="AY4">
-        <v>0.02352571320258009</v>
+        <v>0.02359597301642902</v>
       </c>
       <c r="AZ4">
-        <v>0.01381399397861885</v>
+        <v>0.01222297358918805</v>
       </c>
       <c r="BA4">
-        <v>0.04318895192875024</v>
+        <v>0.04660347850619419</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B5">
-        <v>0.7649931027012868</v>
+        <v>0.7814564428876234</v>
       </c>
       <c r="C5">
-        <v>0.002557400191136056</v>
+        <v>0.003132334459632678</v>
       </c>
       <c r="D5">
-        <v>0.01841142494049645</v>
+        <v>0.01854692236235884</v>
       </c>
       <c r="E5">
-        <v>0.01601489450356126</v>
+        <v>0.01638560025717903</v>
       </c>
       <c r="F5">
-        <v>0.003163110344040424</v>
+        <v>0.003234486665189652</v>
       </c>
       <c r="G5">
-        <v>0.006574406934414624</v>
+        <v>0.006256006305617337</v>
       </c>
       <c r="H5">
-        <v>0.01544336837323678</v>
+        <v>0.01500018179290302</v>
       </c>
       <c r="I5">
-        <v>0.01482312680998479</v>
+        <v>0.0146991892863793</v>
       </c>
       <c r="J5">
-        <v>0.02492847441380324</v>
+        <v>0.02448514401807319</v>
       </c>
       <c r="K5">
-        <v>0.05256203167809046</v>
+        <v>0.05265249855595925</v>
       </c>
       <c r="L5">
-        <v>0.02352571320258011</v>
+        <v>0.02354978165055636</v>
       </c>
       <c r="M5">
-        <v>0.01381399397861886</v>
+        <v>0.01234275846765037</v>
       </c>
       <c r="N5">
-        <v>0.04318895192875025</v>
+        <v>0.04441568568648886</v>
       </c>
       <c r="O5">
-        <v>0.7649931027012868</v>
+        <v>0.7814564428876234</v>
       </c>
       <c r="P5">
-        <v>0.002557400191136056</v>
+        <v>0.003132334459632678</v>
       </c>
       <c r="Q5">
-        <v>0.01841142494049645</v>
+        <v>0.01854692236235884</v>
       </c>
       <c r="R5">
-        <v>0.01601489450356126</v>
+        <v>0.01638560025717903</v>
       </c>
       <c r="S5">
-        <v>0.003163110344040424</v>
+        <v>0.003234486665189652</v>
       </c>
       <c r="T5">
-        <v>0.006574406934414624</v>
+        <v>0.006256006305617337</v>
       </c>
       <c r="U5">
-        <v>0.01544336837323678</v>
+        <v>0.01500018179290302</v>
       </c>
       <c r="V5">
-        <v>0.01482312680998479</v>
+        <v>0.0146991892863793</v>
       </c>
       <c r="W5">
-        <v>0.02492847441380324</v>
+        <v>0.02448514401807319</v>
       </c>
       <c r="X5">
-        <v>0.05256203167809046</v>
+        <v>0.05265249855595925</v>
       </c>
       <c r="Y5">
-        <v>0.02352571320258011</v>
+        <v>0.02354978165055636</v>
       </c>
       <c r="Z5">
-        <v>0.01381399397861886</v>
+        <v>0.01234275846765037</v>
       </c>
       <c r="AA5">
-        <v>0.04318895192875025</v>
+        <v>0.04441568568648886</v>
       </c>
       <c r="AB5">
-        <v>0.7649931027012868</v>
+        <v>0.7814564428876234</v>
       </c>
       <c r="AC5">
-        <v>0.002557400191136056</v>
+        <v>0.003132334459632678</v>
       </c>
       <c r="AD5">
-        <v>0.01841142494049645</v>
+        <v>0.01854692236235884</v>
       </c>
       <c r="AE5">
-        <v>0.01601489450356126</v>
+        <v>0.01638560025717903</v>
       </c>
       <c r="AF5">
-        <v>0.003163110344040424</v>
+        <v>0.003234486665189652</v>
       </c>
       <c r="AG5">
-        <v>0.006574406934414624</v>
+        <v>0.006256006305617337</v>
       </c>
       <c r="AH5">
-        <v>0.01544336837323678</v>
+        <v>0.01500018179290302</v>
       </c>
       <c r="AI5">
-        <v>0.01482312680998479</v>
+        <v>0.0146991892863793</v>
       </c>
       <c r="AJ5">
-        <v>0.02492847441380324</v>
+        <v>0.02448514401807319</v>
       </c>
       <c r="AK5">
-        <v>0.05256203167809046</v>
+        <v>0.05265249855595925</v>
       </c>
       <c r="AL5">
-        <v>0.02352571320258011</v>
+        <v>0.02354978165055636</v>
       </c>
       <c r="AM5">
-        <v>0.01381399397861886</v>
+        <v>0.01234275846765037</v>
       </c>
       <c r="AN5">
-        <v>0.04318895192875025</v>
+        <v>0.04441568568648886</v>
       </c>
       <c r="AO5">
-        <v>0.7649931027012868</v>
+        <v>0.7814564428876234</v>
       </c>
       <c r="AP5">
-        <v>0.002557400191136056</v>
+        <v>0.003132334459632678</v>
       </c>
       <c r="AQ5">
-        <v>0.01841142494049645</v>
+        <v>0.01854692236235884</v>
       </c>
       <c r="AR5">
-        <v>0.01601489450356126</v>
+        <v>0.01638560025717903</v>
       </c>
       <c r="AS5">
-        <v>0.003163110344040424</v>
+        <v>0.003234486665189652</v>
       </c>
       <c r="AT5">
-        <v>0.006574406934414624</v>
+        <v>0.006256006305617337</v>
       </c>
       <c r="AU5">
-        <v>0.01544336837323678</v>
+        <v>0.01500018179290302</v>
       </c>
       <c r="AV5">
-        <v>0.01482312680998479</v>
+        <v>0.0146991892863793</v>
       </c>
       <c r="AW5">
-        <v>0.02492847441380324</v>
+        <v>0.02448514401807319</v>
       </c>
       <c r="AX5">
-        <v>0.05256203167809046</v>
+        <v>0.05265249855595925</v>
       </c>
       <c r="AY5">
-        <v>0.02352571320258011</v>
+        <v>0.02354978165055636</v>
       </c>
       <c r="AZ5">
-        <v>0.01381399397861886</v>
+        <v>0.01234275846765037</v>
       </c>
       <c r="BA5">
-        <v>0.04318895192875025</v>
+        <v>0.04441568568648886</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B6">
-        <v>0.7649931027012868</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="C6">
-        <v>0.002557400191136057</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="D6">
-        <v>0.01841142494049645</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="E6">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="F6">
-        <v>0.003163110344040425</v>
+        <v>0.00316310965339509</v>
       </c>
       <c r="G6">
-        <v>0.006574406934414628</v>
+        <v>0.006574380842086464</v>
       </c>
       <c r="H6">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="I6">
-        <v>0.01482312680998479</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="J6">
-        <v>0.02492847441380324</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="K6">
-        <v>0.0525620316780905</v>
+        <v>0.0525620237444509</v>
       </c>
       <c r="L6">
-        <v>0.02352571320258011</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="M6">
-        <v>0.01381399397861886</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="N6">
-        <v>0.04318895192875029</v>
+        <v>0.04318891737040093</v>
       </c>
       <c r="O6">
-        <v>0.7649931027012868</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="P6">
-        <v>0.002557400191136057</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="Q6">
-        <v>0.01841142494049645</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="R6">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="S6">
-        <v>0.003163110344040425</v>
+        <v>0.00316310965339509</v>
       </c>
       <c r="T6">
-        <v>0.006574406934414628</v>
+        <v>0.006574380842086464</v>
       </c>
       <c r="U6">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="V6">
-        <v>0.01482312680998479</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="W6">
-        <v>0.02492847441380324</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="X6">
-        <v>0.0525620316780905</v>
+        <v>0.0525620237444509</v>
       </c>
       <c r="Y6">
-        <v>0.02352571320258011</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="Z6">
-        <v>0.01381399397861886</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AA6">
-        <v>0.04318895192875029</v>
+        <v>0.04318891737040093</v>
       </c>
       <c r="AB6">
-        <v>0.7649931027012868</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="AC6">
-        <v>0.002557400191136057</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="AD6">
-        <v>0.01841142494049645</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="AE6">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="AF6">
-        <v>0.003163110344040425</v>
+        <v>0.00316310965339509</v>
       </c>
       <c r="AG6">
-        <v>0.006574406934414628</v>
+        <v>0.006574380842086464</v>
       </c>
       <c r="AH6">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="AI6">
-        <v>0.01482312680998479</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="AJ6">
-        <v>0.02492847441380324</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="AK6">
-        <v>0.0525620316780905</v>
+        <v>0.0525620237444509</v>
       </c>
       <c r="AL6">
-        <v>0.02352571320258011</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="AM6">
-        <v>0.01381399397861886</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AN6">
-        <v>0.04318895192875029</v>
+        <v>0.04318891737040093</v>
       </c>
       <c r="AO6">
-        <v>0.7649931027012868</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="AP6">
-        <v>0.002557400191136057</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="AQ6">
-        <v>0.01841142494049645</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="AR6">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="AS6">
-        <v>0.003163110344040425</v>
+        <v>0.00316310965339509</v>
       </c>
       <c r="AT6">
-        <v>0.006574406934414628</v>
+        <v>0.006574380842086464</v>
       </c>
       <c r="AU6">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="AV6">
-        <v>0.01482312680998479</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="AW6">
-        <v>0.02492847441380324</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="AX6">
-        <v>0.0525620316780905</v>
+        <v>0.0525620237444509</v>
       </c>
       <c r="AY6">
-        <v>0.02352571320258011</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="AZ6">
-        <v>0.01381399397861886</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="BA6">
-        <v>0.04318895192875029</v>
+        <v>0.04318891737040093</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B7">
-        <v>0.7649931027012868</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="C7">
-        <v>0.002557400191136056</v>
+        <v>0.002557400002266906</v>
       </c>
       <c r="D7">
-        <v>0.01841142494049643</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="E7">
-        <v>0.01601489450356125</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="F7">
-        <v>0.003163110344040424</v>
+        <v>0.003163109653395088</v>
       </c>
       <c r="G7">
-        <v>0.006574406934414623</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="H7">
-        <v>0.01544336837323677</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="I7">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="J7">
-        <v>0.02492847441380323</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="K7">
-        <v>0.05256203167809046</v>
+        <v>0.05256202374445091</v>
       </c>
       <c r="L7">
-        <v>0.02352571320258009</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="M7">
-        <v>0.01381399397861886</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="N7">
-        <v>0.04318895192875024</v>
+        <v>0.04318891737040093</v>
       </c>
       <c r="O7">
-        <v>0.7649931027012868</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="P7">
-        <v>0.002557400191136056</v>
+        <v>0.002557400002266906</v>
       </c>
       <c r="Q7">
-        <v>0.01841142494049643</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="R7">
-        <v>0.01601489450356125</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="S7">
-        <v>0.003163110344040424</v>
+        <v>0.003163109653395088</v>
       </c>
       <c r="T7">
-        <v>0.006574406934414623</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="U7">
-        <v>0.01544336837323677</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="V7">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="W7">
-        <v>0.02492847441380323</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="X7">
-        <v>0.05256203167809046</v>
+        <v>0.05256202374445091</v>
       </c>
       <c r="Y7">
-        <v>0.02352571320258009</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="Z7">
-        <v>0.01381399397861886</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AA7">
-        <v>0.04318895192875024</v>
+        <v>0.04318891737040093</v>
       </c>
       <c r="AB7">
-        <v>0.7649931027012868</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="AC7">
-        <v>0.002557400191136056</v>
+        <v>0.002557400002266906</v>
       </c>
       <c r="AD7">
-        <v>0.01841142494049643</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="AE7">
-        <v>0.01601489450356125</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="AF7">
-        <v>0.003163110344040424</v>
+        <v>0.003163109653395088</v>
       </c>
       <c r="AG7">
-        <v>0.006574406934414623</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="AH7">
-        <v>0.01544336837323677</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="AI7">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="AJ7">
-        <v>0.02492847441380323</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="AK7">
-        <v>0.05256203167809046</v>
+        <v>0.05256202374445091</v>
       </c>
       <c r="AL7">
-        <v>0.02352571320258009</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="AM7">
-        <v>0.01381399397861886</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AN7">
-        <v>0.04318895192875024</v>
+        <v>0.04318891737040093</v>
       </c>
       <c r="AO7">
-        <v>0.7649931027012868</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="AP7">
-        <v>0.002557400191136056</v>
+        <v>0.002557400002266906</v>
       </c>
       <c r="AQ7">
-        <v>0.01841142494049643</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="AR7">
-        <v>0.01601489450356125</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="AS7">
-        <v>0.003163110344040424</v>
+        <v>0.003163109653395088</v>
       </c>
       <c r="AT7">
-        <v>0.006574406934414623</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="AU7">
-        <v>0.01544336837323677</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="AV7">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="AW7">
-        <v>0.02492847441380323</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="AX7">
-        <v>0.05256203167809046</v>
+        <v>0.05256202374445091</v>
       </c>
       <c r="AY7">
-        <v>0.02352571320258009</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="AZ7">
-        <v>0.01381399397861886</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="BA7">
-        <v>0.04318895192875024</v>
+        <v>0.04318891737040093</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B8">
-        <v>0.7649931027012867</v>
+        <v>0.7649931937925842</v>
       </c>
       <c r="C8">
-        <v>0.002557400191136056</v>
+        <v>0.002557400002266906</v>
       </c>
       <c r="D8">
-        <v>0.01841142494049644</v>
+        <v>0.0184114224322304</v>
       </c>
       <c r="E8">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="F8">
-        <v>0.003163110344040424</v>
+        <v>0.003163109653395089</v>
       </c>
       <c r="G8">
-        <v>0.006574406934414623</v>
+        <v>0.006574380842086462</v>
       </c>
       <c r="H8">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192167</v>
       </c>
       <c r="I8">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="J8">
-        <v>0.02492847441380322</v>
+        <v>0.02492846699409916</v>
       </c>
       <c r="K8">
-        <v>0.05256203167809045</v>
+        <v>0.0525620237444509</v>
       </c>
       <c r="L8">
-        <v>0.02352571320258009</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="M8">
-        <v>0.01381399397861885</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="N8">
-        <v>0.0431889519287502</v>
+        <v>0.04318891737040094</v>
       </c>
       <c r="O8">
-        <v>0.7649931027012866</v>
+        <v>0.7649931937925842</v>
       </c>
       <c r="P8">
-        <v>0.002557400191136056</v>
+        <v>0.002557400002266906</v>
       </c>
       <c r="Q8">
-        <v>0.01841142494049645</v>
+        <v>0.0184114224322304</v>
       </c>
       <c r="R8">
-        <v>0.01601489450356125</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="S8">
-        <v>0.003163110344040424</v>
+        <v>0.003163109653395089</v>
       </c>
       <c r="T8">
-        <v>0.006574406934414625</v>
+        <v>0.006574380842086462</v>
       </c>
       <c r="U8">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192167</v>
       </c>
       <c r="V8">
-        <v>0.01482312680998479</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="W8">
-        <v>0.02492847441380322</v>
+        <v>0.02492846699409916</v>
       </c>
       <c r="X8">
-        <v>0.05256203167809047</v>
+        <v>0.0525620237444509</v>
       </c>
       <c r="Y8">
-        <v>0.0235257132025801</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="Z8">
-        <v>0.01381399397861885</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AA8">
-        <v>0.04318895192875027</v>
+        <v>0.04318891737040094</v>
       </c>
       <c r="AB8">
-        <v>0.7649931027012866</v>
+        <v>0.7649931937925842</v>
       </c>
       <c r="AC8">
-        <v>0.002557400191136056</v>
+        <v>0.002557400002266906</v>
       </c>
       <c r="AD8">
-        <v>0.01841142494049645</v>
+        <v>0.0184114224322304</v>
       </c>
       <c r="AE8">
-        <v>0.01601489450356125</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="AF8">
-        <v>0.003163110344040424</v>
+        <v>0.003163109653395089</v>
       </c>
       <c r="AG8">
-        <v>0.006574406934414625</v>
+        <v>0.006574380842086462</v>
       </c>
       <c r="AH8">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192167</v>
       </c>
       <c r="AI8">
-        <v>0.01482312680998479</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="AJ8">
-        <v>0.02492847441380322</v>
+        <v>0.02492846699409916</v>
       </c>
       <c r="AK8">
-        <v>0.05256203167809047</v>
+        <v>0.0525620237444509</v>
       </c>
       <c r="AL8">
-        <v>0.0235257132025801</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="AM8">
-        <v>0.01381399397861885</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AN8">
-        <v>0.04318895192875027</v>
+        <v>0.04318891737040094</v>
       </c>
       <c r="AO8">
-        <v>0.7649931027012866</v>
+        <v>0.7649931937925842</v>
       </c>
       <c r="AP8">
-        <v>0.002557400191136056</v>
+        <v>0.002557400002266906</v>
       </c>
       <c r="AQ8">
-        <v>0.01841142494049645</v>
+        <v>0.0184114224322304</v>
       </c>
       <c r="AR8">
-        <v>0.01601489450356125</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="AS8">
-        <v>0.003163110344040424</v>
+        <v>0.003163109653395089</v>
       </c>
       <c r="AT8">
-        <v>0.006574406934414625</v>
+        <v>0.006574380842086462</v>
       </c>
       <c r="AU8">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192167</v>
       </c>
       <c r="AV8">
-        <v>0.01482312680998479</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="AW8">
-        <v>0.02492847441380322</v>
+        <v>0.02492846699409916</v>
       </c>
       <c r="AX8">
-        <v>0.05256203167809047</v>
+        <v>0.0525620237444509</v>
       </c>
       <c r="AY8">
-        <v>0.0235257132025801</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="AZ8">
-        <v>0.01381399397861885</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="BA8">
-        <v>0.04318895192875027</v>
+        <v>0.04318891737040094</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B9">
-        <v>0.7649931027012867</v>
+        <v>0.7649931937925843</v>
       </c>
       <c r="C9">
-        <v>0.002557400191136057</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="D9">
-        <v>0.01841142494049645</v>
+        <v>0.0184114224322304</v>
       </c>
       <c r="E9">
-        <v>0.01601489450356125</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="F9">
-        <v>0.003163110344040425</v>
+        <v>0.003163109653395091</v>
       </c>
       <c r="G9">
-        <v>0.006574406934414625</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="H9">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="I9">
-        <v>0.01482312680998479</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="J9">
-        <v>0.02492847441380323</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="K9">
-        <v>0.05256203167809047</v>
+        <v>0.05256202374445093</v>
       </c>
       <c r="L9">
-        <v>0.0235257132025801</v>
+        <v>0.02352569466408277</v>
       </c>
       <c r="M9">
-        <v>0.01381399397861885</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="N9">
-        <v>0.04318895192875026</v>
+        <v>0.04318891737040092</v>
       </c>
       <c r="O9">
-        <v>0.7649931027012866</v>
+        <v>0.7649931937925843</v>
       </c>
       <c r="P9">
-        <v>0.002557400191136057</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="Q9">
-        <v>0.01841142494049643</v>
+        <v>0.0184114224322304</v>
       </c>
       <c r="R9">
-        <v>0.01601489450356125</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="S9">
-        <v>0.003163110344040424</v>
+        <v>0.003163109653395091</v>
       </c>
       <c r="T9">
-        <v>0.006574406934414623</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="U9">
-        <v>0.01544336837323677</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="V9">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="W9">
-        <v>0.02492847441380322</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="X9">
-        <v>0.05256203167809045</v>
+        <v>0.05256202374445093</v>
       </c>
       <c r="Y9">
-        <v>0.0235257132025801</v>
+        <v>0.02352569466408277</v>
       </c>
       <c r="Z9">
-        <v>0.01381399397861885</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AA9">
-        <v>0.04318895192875025</v>
+        <v>0.04318891737040092</v>
       </c>
       <c r="AB9">
-        <v>0.7649931027012866</v>
+        <v>0.7649931937925843</v>
       </c>
       <c r="AC9">
-        <v>0.002557400191136056</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="AD9">
-        <v>0.01841142494049643</v>
+        <v>0.0184114224322304</v>
       </c>
       <c r="AE9">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="AF9">
-        <v>0.003163110344040423</v>
+        <v>0.003163109653395091</v>
       </c>
       <c r="AG9">
-        <v>0.006574406934414622</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="AH9">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="AI9">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="AJ9">
-        <v>0.02492847441380322</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="AK9">
-        <v>0.05256203167809045</v>
+        <v>0.05256202374445093</v>
       </c>
       <c r="AL9">
-        <v>0.02352571320258009</v>
+        <v>0.02352569466408277</v>
       </c>
       <c r="AM9">
-        <v>0.01381399397861885</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AN9">
-        <v>0.04318895192875024</v>
+        <v>0.04318891737040092</v>
       </c>
       <c r="AO9">
-        <v>0.7649931027012866</v>
+        <v>0.7649931937925843</v>
       </c>
       <c r="AP9">
-        <v>0.002557400191136056</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="AQ9">
-        <v>0.01841142494049643</v>
+        <v>0.0184114224322304</v>
       </c>
       <c r="AR9">
-        <v>0.01601489450356125</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="AS9">
-        <v>0.003163110344040423</v>
+        <v>0.003163109653395091</v>
       </c>
       <c r="AT9">
-        <v>0.006574406934414623</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="AU9">
-        <v>0.01544336837323677</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="AV9">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="AW9">
-        <v>0.02492847441380322</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="AX9">
-        <v>0.05256203167809045</v>
+        <v>0.05256202374445093</v>
       </c>
       <c r="AY9">
-        <v>0.02352571320258009</v>
+        <v>0.02352569466408277</v>
       </c>
       <c r="AZ9">
-        <v>0.01381399397861885</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="BA9">
-        <v>0.04318895192875023</v>
+        <v>0.04318891737040092</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B10">
-        <v>0.7649931027012866</v>
+        <v>0.7649931937925843</v>
       </c>
       <c r="C10">
-        <v>0.002557400191136056</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="D10">
-        <v>0.01841142494049644</v>
+        <v>0.0184114224322304</v>
       </c>
       <c r="E10">
-        <v>0.01601489450356124</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="F10">
-        <v>0.003163110344040422</v>
+        <v>0.003163109653395088</v>
       </c>
       <c r="G10">
-        <v>0.006574406934414622</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="H10">
-        <v>0.01544336837323677</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="I10">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="J10">
-        <v>0.02492847441380322</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="K10">
-        <v>0.05256203167809045</v>
+        <v>0.05256202374445091</v>
       </c>
       <c r="L10">
-        <v>0.02352571320258008</v>
+        <v>0.02352569466408277</v>
       </c>
       <c r="M10">
-        <v>0.01381399397861885</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="N10">
-        <v>0.04318895192875024</v>
+        <v>0.04318891737040094</v>
       </c>
       <c r="O10">
-        <v>0.7649931027012867</v>
+        <v>0.7649931937925842</v>
       </c>
       <c r="P10">
-        <v>0.002557400191136057</v>
+        <v>0.002557400002266906</v>
       </c>
       <c r="Q10">
-        <v>0.01841142494049644</v>
+        <v>0.0184114224322304</v>
       </c>
       <c r="R10">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="S10">
-        <v>0.003163110344040425</v>
+        <v>0.003163109653395089</v>
       </c>
       <c r="T10">
-        <v>0.006574406934414625</v>
+        <v>0.006574380842086462</v>
       </c>
       <c r="U10">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="V10">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="W10">
-        <v>0.02492847441380322</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="X10">
-        <v>0.05256203167809047</v>
+        <v>0.0525620237444509</v>
       </c>
       <c r="Y10">
-        <v>0.02352571320258009</v>
+        <v>0.02352569466408275</v>
       </c>
       <c r="Z10">
-        <v>0.01381399397861886</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AA10">
-        <v>0.04318895192875024</v>
+        <v>0.04318891737040092</v>
       </c>
       <c r="AB10">
-        <v>0.7649931027012866</v>
+        <v>0.7649931937925842</v>
       </c>
       <c r="AC10">
-        <v>0.002557400191136056</v>
+        <v>0.002557400002266906</v>
       </c>
       <c r="AD10">
-        <v>0.01841142494049644</v>
+        <v>0.0184114224322304</v>
       </c>
       <c r="AE10">
-        <v>0.01601489450356125</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="AF10">
-        <v>0.003163110344040422</v>
+        <v>0.003163109653395089</v>
       </c>
       <c r="AG10">
-        <v>0.006574406934414623</v>
+        <v>0.006574380842086462</v>
       </c>
       <c r="AH10">
-        <v>0.01544336837323677</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="AI10">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="AJ10">
-        <v>0.02492847441380322</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="AK10">
-        <v>0.05256203167809043</v>
+        <v>0.0525620237444509</v>
       </c>
       <c r="AL10">
-        <v>0.0235257132025801</v>
+        <v>0.02352569466408275</v>
       </c>
       <c r="AM10">
-        <v>0.01381399397861885</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AN10">
-        <v>0.04318895192875023</v>
+        <v>0.04318891737040092</v>
       </c>
       <c r="AO10">
-        <v>0.7649931027012866</v>
+        <v>0.7649931937925842</v>
       </c>
       <c r="AP10">
-        <v>0.002557400191136057</v>
+        <v>0.002557400002266906</v>
       </c>
       <c r="AQ10">
-        <v>0.01841142494049644</v>
+        <v>0.0184114224322304</v>
       </c>
       <c r="AR10">
-        <v>0.01601489450356125</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="AS10">
-        <v>0.003163110344040424</v>
+        <v>0.003163109653395089</v>
       </c>
       <c r="AT10">
-        <v>0.006574406934414624</v>
+        <v>0.006574380842086462</v>
       </c>
       <c r="AU10">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="AV10">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="AW10">
-        <v>0.02492847441380322</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="AX10">
-        <v>0.05256203167809045</v>
+        <v>0.0525620237444509</v>
       </c>
       <c r="AY10">
-        <v>0.02352571320258009</v>
+        <v>0.02352569466408275</v>
       </c>
       <c r="AZ10">
-        <v>0.01381399397861885</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="BA10">
-        <v>0.04318895192875029</v>
+        <v>0.04318891737040092</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B11">
-        <v>0.7649931027012867</v>
+        <v>0.7649931937925843</v>
       </c>
       <c r="C11">
-        <v>0.002557400191136057</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="D11">
-        <v>0.01841142494049644</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="E11">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="F11">
-        <v>0.003163110344040424</v>
+        <v>0.003163109653395089</v>
       </c>
       <c r="G11">
-        <v>0.006574406934414626</v>
+        <v>0.006574380842086464</v>
       </c>
       <c r="H11">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="I11">
-        <v>0.01482312680998479</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="J11">
-        <v>0.02492847441380323</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="K11">
-        <v>0.05256203167809047</v>
+        <v>0.05256202374445093</v>
       </c>
       <c r="L11">
-        <v>0.0235257132025801</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="M11">
-        <v>0.01381399397861886</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="N11">
-        <v>0.04318895192875024</v>
+        <v>0.04318891737040093</v>
       </c>
       <c r="O11">
-        <v>0.7649931027012867</v>
+        <v>0.7649931937925843</v>
       </c>
       <c r="P11">
-        <v>0.002557400191136057</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="Q11">
-        <v>0.01841142494049643</v>
+        <v>0.01841142243223041</v>
       </c>
       <c r="R11">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="S11">
-        <v>0.003163110344040424</v>
+        <v>0.003163109653395089</v>
       </c>
       <c r="T11">
-        <v>0.006574406934414627</v>
+        <v>0.006574380842086466</v>
       </c>
       <c r="U11">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="V11">
-        <v>0.01482312680998479</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="W11">
-        <v>0.02492847441380324</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="X11">
-        <v>0.05256203167809045</v>
+        <v>0.05256202374445091</v>
       </c>
       <c r="Y11">
-        <v>0.02352571320258011</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="Z11">
-        <v>0.01381399397861886</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AA11">
-        <v>0.04318895192875025</v>
+        <v>0.04318891737040092</v>
       </c>
       <c r="AB11">
-        <v>0.7649931027012867</v>
+        <v>0.7649931937925843</v>
       </c>
       <c r="AC11">
-        <v>0.002557400191136057</v>
+        <v>0.002557400002266904</v>
       </c>
       <c r="AD11">
-        <v>0.01841142494049643</v>
+        <v>0.0184114224322304</v>
       </c>
       <c r="AE11">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="AF11">
-        <v>0.003163110344040424</v>
+        <v>0.003163109653395088</v>
       </c>
       <c r="AG11">
-        <v>0.006574406934414623</v>
+        <v>0.006574380842086461</v>
       </c>
       <c r="AH11">
-        <v>0.01544336837323677</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="AI11">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="AJ11">
-        <v>0.02492847441380322</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="AK11">
-        <v>0.05256203167809047</v>
+        <v>0.0525620237444509</v>
       </c>
       <c r="AL11">
-        <v>0.0235257132025801</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="AM11">
-        <v>0.01381399397861886</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AN11">
-        <v>0.04318895192875024</v>
+        <v>0.04318891737040094</v>
       </c>
       <c r="AO11">
-        <v>0.7649931027012866</v>
+        <v>0.7649931937925842</v>
       </c>
       <c r="AP11">
-        <v>0.002557400191136056</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="AQ11">
-        <v>0.01841142494049645</v>
+        <v>0.01841142243223041</v>
       </c>
       <c r="AR11">
-        <v>0.01601489450356125</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="AS11">
-        <v>0.003163110344040424</v>
+        <v>0.00316310965339509</v>
       </c>
       <c r="AT11">
-        <v>0.006574406934414624</v>
+        <v>0.006574380842086465</v>
       </c>
       <c r="AU11">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="AV11">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="AW11">
-        <v>0.02492847441380322</v>
+        <v>0.02492846699409918</v>
       </c>
       <c r="AX11">
-        <v>0.05256203167809047</v>
+        <v>0.05256202374445092</v>
       </c>
       <c r="AY11">
-        <v>0.0235257132025801</v>
+        <v>0.02352569466408277</v>
       </c>
       <c r="AZ11">
-        <v>0.01381399397861885</v>
+        <v>0.01381399542293275</v>
       </c>
       <c r="BA11">
-        <v>0.04318895192875027</v>
+        <v>0.04318891737040093</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B12">
-        <v>0.7649931027012867</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="C12">
-        <v>0.002557400191136055</v>
+        <v>0.002557400002266907</v>
       </c>
       <c r="D12">
-        <v>0.01841142494049643</v>
+        <v>0.01841142243223041</v>
       </c>
       <c r="E12">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="F12">
-        <v>0.003163110344040422</v>
+        <v>0.00316310965339509</v>
       </c>
       <c r="G12">
-        <v>0.006574406934414623</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="H12">
-        <v>0.01544336837323677</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="I12">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="J12">
-        <v>0.02492847441380322</v>
+        <v>0.02492846699409918</v>
       </c>
       <c r="K12">
-        <v>0.05256203167809045</v>
+        <v>0.05256202374445092</v>
       </c>
       <c r="L12">
-        <v>0.02352571320258009</v>
+        <v>0.02352569466408277</v>
       </c>
       <c r="M12">
-        <v>0.01381399397861885</v>
+        <v>0.01381399542293275</v>
       </c>
       <c r="N12">
-        <v>0.04318895192875024</v>
+        <v>0.04318891737040093</v>
       </c>
       <c r="O12">
-        <v>0.764993102701287</v>
+        <v>0.7649931937925843</v>
       </c>
       <c r="P12">
-        <v>0.002557400191136056</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="Q12">
-        <v>0.01841142494049643</v>
+        <v>0.01841142243223041</v>
       </c>
       <c r="R12">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="S12">
-        <v>0.003163110344040424</v>
+        <v>0.003163109653395088</v>
       </c>
       <c r="T12">
-        <v>0.006574406934414626</v>
+        <v>0.006574380842086466</v>
       </c>
       <c r="U12">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="V12">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="W12">
-        <v>0.02492847441380323</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="X12">
-        <v>0.05256203167809046</v>
+        <v>0.05256202374445092</v>
       </c>
       <c r="Y12">
-        <v>0.0235257132025801</v>
+        <v>0.02352569466408277</v>
       </c>
       <c r="Z12">
-        <v>0.01381399397861886</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AA12">
-        <v>0.04318895192875025</v>
+        <v>0.04318891737040094</v>
       </c>
       <c r="AB12">
-        <v>0.7649931027012868</v>
+        <v>0.7649931937925841</v>
       </c>
       <c r="AC12">
-        <v>0.002557400191136057</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="AD12">
-        <v>0.01841142494049645</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="AE12">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="AF12">
-        <v>0.003163110344040423</v>
+        <v>0.003163109653395089</v>
       </c>
       <c r="AG12">
-        <v>0.006574406934414625</v>
+        <v>0.006574380842086465</v>
       </c>
       <c r="AH12">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="AI12">
-        <v>0.01482312680998479</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="AJ12">
-        <v>0.02492847441380324</v>
+        <v>0.02492846699409916</v>
       </c>
       <c r="AK12">
-        <v>0.05256203167809047</v>
+        <v>0.05256202374445092</v>
       </c>
       <c r="AL12">
-        <v>0.0235257132025801</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="AM12">
-        <v>0.01381399397861886</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AN12">
-        <v>0.04318895192875027</v>
+        <v>0.04318891737040093</v>
       </c>
       <c r="AO12">
-        <v>0.7649931027012866</v>
+        <v>0.7649931937925841</v>
       </c>
       <c r="AP12">
-        <v>0.002557400191136055</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="AQ12">
-        <v>0.01841142494049643</v>
+        <v>0.0184114224322304</v>
       </c>
       <c r="AR12">
-        <v>0.01601489450356125</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="AS12">
-        <v>0.003163110344040423</v>
+        <v>0.003163109653395088</v>
       </c>
       <c r="AT12">
-        <v>0.006574406934414623</v>
+        <v>0.006574380842086461</v>
       </c>
       <c r="AU12">
-        <v>0.01544336837323677</v>
+        <v>0.01544338070192167</v>
       </c>
       <c r="AV12">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="AW12">
-        <v>0.02492847441380322</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="AX12">
-        <v>0.05256203167809046</v>
+        <v>0.05256202374445091</v>
       </c>
       <c r="AY12">
-        <v>0.02352571320258008</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="AZ12">
-        <v>0.01381399397861885</v>
+        <v>0.01381399542293273</v>
       </c>
       <c r="BA12">
-        <v>0.04318895192875026</v>
+        <v>0.04318891737040092</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="B13">
-        <v>0.7649931027012867</v>
+        <v>0.7649931937925843</v>
       </c>
       <c r="C13">
-        <v>0.002557400191136056</v>
+        <v>0.002557400002266906</v>
       </c>
       <c r="D13">
-        <v>0.01841142494049643</v>
+        <v>0.01841142243223041</v>
       </c>
       <c r="E13">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="F13">
-        <v>0.003163110344040422</v>
+        <v>0.00316310965339509</v>
       </c>
       <c r="G13">
-        <v>0.006574406934414623</v>
+        <v>0.006574380842086464</v>
       </c>
       <c r="H13">
-        <v>0.01544336837323677</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="I13">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="J13">
-        <v>0.02492847441380322</v>
+        <v>0.02492846699409918</v>
       </c>
       <c r="K13">
-        <v>0.05256203167809045</v>
+        <v>0.05256202374445092</v>
       </c>
       <c r="L13">
-        <v>0.02352571320258008</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="M13">
-        <v>0.01381399397861885</v>
+        <v>0.01381399542293275</v>
       </c>
       <c r="N13">
-        <v>0.04318895192875024</v>
+        <v>0.04318891737040092</v>
       </c>
       <c r="O13">
-        <v>0.7649931027012867</v>
+        <v>0.7649931937925842</v>
       </c>
       <c r="P13">
-        <v>0.002557400191136057</v>
+        <v>0.002557400002266903</v>
       </c>
       <c r="Q13">
-        <v>0.01841142494049643</v>
+        <v>0.01841142243223041</v>
       </c>
       <c r="R13">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="S13">
-        <v>0.003163110344040424</v>
+        <v>0.003163109653395088</v>
       </c>
       <c r="T13">
-        <v>0.006574406934414623</v>
+        <v>0.00657438084208646</v>
       </c>
       <c r="U13">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192167</v>
       </c>
       <c r="V13">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="W13">
-        <v>0.02492847441380323</v>
+        <v>0.02492846699409916</v>
       </c>
       <c r="X13">
-        <v>0.05256203167809046</v>
+        <v>0.05256202374445089</v>
       </c>
       <c r="Y13">
-        <v>0.0235257132025801</v>
+        <v>0.02352569466408275</v>
       </c>
       <c r="Z13">
-        <v>0.01381399397861886</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AA13">
-        <v>0.04318895192875023</v>
+        <v>0.04318891737040093</v>
       </c>
       <c r="AB13">
-        <v>0.7649931027012868</v>
+        <v>0.7649931937925843</v>
       </c>
       <c r="AC13">
-        <v>0.002557400191136056</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="AD13">
-        <v>0.01841142494049644</v>
+        <v>0.01841142243223041</v>
       </c>
       <c r="AE13">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="AF13">
-        <v>0.003163110344040424</v>
+        <v>0.003163109653395089</v>
       </c>
       <c r="AG13">
-        <v>0.006574406934414626</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="AH13">
-        <v>0.01544336837323677</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="AI13">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="AJ13">
-        <v>0.02492847441380322</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="AK13">
-        <v>0.05256203167809045</v>
+        <v>0.05256202374445091</v>
       </c>
       <c r="AL13">
-        <v>0.0235257132025801</v>
+        <v>0.02352569466408275</v>
       </c>
       <c r="AM13">
-        <v>0.01381399397861885</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AN13">
-        <v>0.04318895192875023</v>
+        <v>0.0431889173704009</v>
       </c>
       <c r="AO13">
-        <v>0.7649931027012866</v>
+        <v>0.7649931937925843</v>
       </c>
       <c r="AP13">
-        <v>0.002557400191136056</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="AQ13">
-        <v>0.01841142494049644</v>
+        <v>0.0184114224322304</v>
       </c>
       <c r="AR13">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="AS13">
-        <v>0.003163110344040423</v>
+        <v>0.003163109653395088</v>
       </c>
       <c r="AT13">
-        <v>0.006574406934414623</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="AU13">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192167</v>
       </c>
       <c r="AV13">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="AW13">
-        <v>0.02492847441380322</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="AX13">
-        <v>0.05256203167809047</v>
+        <v>0.0525620237444509</v>
       </c>
       <c r="AY13">
-        <v>0.0235257132025801</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="AZ13">
-        <v>0.01381399397861885</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="BA13">
-        <v>0.04318895192875025</v>
+        <v>0.04318891737040092</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="B14">
-        <v>0.7649931027012867</v>
+        <v>0.7649931937925842</v>
       </c>
       <c r="C14">
-        <v>0.002557400191136056</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="D14">
-        <v>0.01841142494049644</v>
+        <v>0.01841142243223041</v>
       </c>
       <c r="E14">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="F14">
-        <v>0.003163110344040425</v>
+        <v>0.00316310965339509</v>
       </c>
       <c r="G14">
-        <v>0.006574406934414627</v>
+        <v>0.006574380842086462</v>
       </c>
       <c r="H14">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="I14">
-        <v>0.01482312680998479</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="J14">
-        <v>0.02492847441380324</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="K14">
-        <v>0.05256203167809048</v>
+        <v>0.0525620237444509</v>
       </c>
       <c r="L14">
-        <v>0.02352571320258011</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="M14">
-        <v>0.01381399397861886</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="N14">
-        <v>0.04318895192875027</v>
+        <v>0.04318891737040096</v>
       </c>
       <c r="O14">
-        <v>0.7649931027012867</v>
+        <v>0.7649931937925843</v>
       </c>
       <c r="P14">
-        <v>0.002557400191136056</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="Q14">
-        <v>0.01841142494049645</v>
+        <v>0.01841142243223041</v>
       </c>
       <c r="R14">
-        <v>0.01601489450356125</v>
+        <v>0.01601489011991255</v>
       </c>
       <c r="S14">
-        <v>0.003163110344040423</v>
+        <v>0.003163109653395089</v>
       </c>
       <c r="T14">
-        <v>0.006574406934414624</v>
+        <v>0.006574380842086464</v>
       </c>
       <c r="U14">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="V14">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="W14">
-        <v>0.02492847441380322</v>
+        <v>0.02492846699409916</v>
       </c>
       <c r="X14">
-        <v>0.05256203167809045</v>
+        <v>0.0525620237444509</v>
       </c>
       <c r="Y14">
-        <v>0.0235257132025801</v>
+        <v>0.02352569466408275</v>
       </c>
       <c r="Z14">
-        <v>0.01381399397861885</v>
+        <v>0.01381399542293273</v>
       </c>
       <c r="AA14">
-        <v>0.04318895192875026</v>
+        <v>0.04318891737040091</v>
       </c>
       <c r="AB14">
-        <v>0.7649931027012867</v>
+        <v>0.7649931937925843</v>
       </c>
       <c r="AC14">
-        <v>0.002557400191136058</v>
+        <v>0.002557400002266904</v>
       </c>
       <c r="AD14">
-        <v>0.01841142494049645</v>
+        <v>0.01841142243223039</v>
       </c>
       <c r="AE14">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="AF14">
-        <v>0.003163110344040424</v>
+        <v>0.003163109653395087</v>
       </c>
       <c r="AG14">
-        <v>0.006574406934414626</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="AH14">
-        <v>0.01544336837323679</v>
+        <v>0.01544338070192167</v>
       </c>
       <c r="AI14">
-        <v>0.01482312680998479</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="AJ14">
-        <v>0.02492847441380323</v>
+        <v>0.02492846699409915</v>
       </c>
       <c r="AK14">
-        <v>0.05256203167809048</v>
+        <v>0.05256202374445089</v>
       </c>
       <c r="AL14">
-        <v>0.02352571320258011</v>
+        <v>0.02352569466408275</v>
       </c>
       <c r="AM14">
-        <v>0.01381399397861886</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AN14">
-        <v>0.04318895192875026</v>
+        <v>0.0431889173704009</v>
       </c>
       <c r="AO14">
-        <v>0.7649931027012867</v>
+        <v>0.7649931937925842</v>
       </c>
       <c r="AP14">
-        <v>0.002557400191136058</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="AQ14">
-        <v>0.01841142494049644</v>
+        <v>0.0184114224322304</v>
       </c>
       <c r="AR14">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="AS14">
-        <v>0.003163110344040423</v>
+        <v>0.003163109653395088</v>
       </c>
       <c r="AT14">
-        <v>0.006574406934414627</v>
+        <v>0.006574380842086462</v>
       </c>
       <c r="AU14">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192167</v>
       </c>
       <c r="AV14">
-        <v>0.01482312680998479</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="AW14">
-        <v>0.02492847441380323</v>
+        <v>0.02492846699409916</v>
       </c>
       <c r="AX14">
-        <v>0.05256203167809047</v>
+        <v>0.05256202374445089</v>
       </c>
       <c r="AY14">
-        <v>0.02352571320258011</v>
+        <v>0.02352569466408275</v>
       </c>
       <c r="AZ14">
-        <v>0.01381399397861886</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="BA14">
-        <v>0.04318895192875025</v>
+        <v>0.04318891737040093</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="B15">
-        <v>0.7649931027012866</v>
+        <v>0.7649931937925843</v>
       </c>
       <c r="C15">
-        <v>0.002557400191136057</v>
+        <v>0.002557400002266903</v>
       </c>
       <c r="D15">
-        <v>0.01841142494049645</v>
+        <v>0.0184114224322304</v>
       </c>
       <c r="E15">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="F15">
-        <v>0.003163110344040424</v>
+        <v>0.003163109653395088</v>
       </c>
       <c r="G15">
-        <v>0.006574406934414623</v>
+        <v>0.006574380842086462</v>
       </c>
       <c r="H15">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="I15">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="J15">
-        <v>0.02492847441380322</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="K15">
-        <v>0.05256203167809047</v>
+        <v>0.0525620237444509</v>
       </c>
       <c r="L15">
-        <v>0.0235257132025801</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="M15">
-        <v>0.01381399397861886</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="N15">
-        <v>0.04318895192875028</v>
+        <v>0.04318891737040092</v>
       </c>
       <c r="O15">
-        <v>0.7649931027012866</v>
+        <v>0.7649931937925843</v>
       </c>
       <c r="P15">
-        <v>0.002557400191136057</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="Q15">
-        <v>0.01841142494049645</v>
+        <v>0.0184114224322304</v>
       </c>
       <c r="R15">
-        <v>0.01601489450356125</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="S15">
-        <v>0.003163110344040424</v>
+        <v>0.003163109653395089</v>
       </c>
       <c r="T15">
-        <v>0.006574406934414628</v>
+        <v>0.00657438084208646</v>
       </c>
       <c r="U15">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192167</v>
       </c>
       <c r="V15">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="W15">
-        <v>0.02492847441380323</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="X15">
-        <v>0.05256203167809048</v>
+        <v>0.0525620237444509</v>
       </c>
       <c r="Y15">
-        <v>0.0235257132025801</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="Z15">
-        <v>0.01381399397861886</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AA15">
-        <v>0.04318895192875028</v>
+        <v>0.04318891737040092</v>
       </c>
       <c r="AB15">
-        <v>0.7649931027012868</v>
+        <v>0.7649931937925841</v>
       </c>
       <c r="AC15">
-        <v>0.002557400191136057</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="AD15">
-        <v>0.01841142494049644</v>
+        <v>0.0184114224322304</v>
       </c>
       <c r="AE15">
-        <v>0.01601489450356127</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="AF15">
-        <v>0.003163110344040425</v>
+        <v>0.003163109653395089</v>
       </c>
       <c r="AG15">
-        <v>0.006574406934414626</v>
+        <v>0.006574380842086464</v>
       </c>
       <c r="AH15">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192167</v>
       </c>
       <c r="AI15">
-        <v>0.01482312680998479</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="AJ15">
-        <v>0.02492847441380324</v>
+        <v>0.02492846699409918</v>
       </c>
       <c r="AK15">
-        <v>0.05256203167809047</v>
+        <v>0.05256202374445092</v>
       </c>
       <c r="AL15">
-        <v>0.02352571320258011</v>
+        <v>0.02352569466408277</v>
       </c>
       <c r="AM15">
-        <v>0.01381399397861886</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AN15">
-        <v>0.04318895192875025</v>
+        <v>0.0431889173704009</v>
       </c>
       <c r="AO15">
-        <v>0.7649931027012866</v>
+        <v>0.7649931937925842</v>
       </c>
       <c r="AP15">
-        <v>0.002557400191136054</v>
+        <v>0.002557400002266906</v>
       </c>
       <c r="AQ15">
-        <v>0.01841142494049643</v>
+        <v>0.01841142243223041</v>
       </c>
       <c r="AR15">
-        <v>0.01601489450356125</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="AS15">
-        <v>0.003163110344040421</v>
+        <v>0.003163109653395089</v>
       </c>
       <c r="AT15">
-        <v>0.006574406934414624</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="AU15">
-        <v>0.01544336837323677</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="AV15">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="AW15">
-        <v>0.02492847441380322</v>
+        <v>0.02492846699409918</v>
       </c>
       <c r="AX15">
-        <v>0.05256203167809045</v>
+        <v>0.05256202374445092</v>
       </c>
       <c r="AY15">
-        <v>0.02352571320258009</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="AZ15">
-        <v>0.01381399397861885</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="BA15">
-        <v>0.04318895192875023</v>
+        <v>0.04318891737040092</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="B16">
-        <v>0.7649931027012868</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="C16">
-        <v>0.002557400191136055</v>
+        <v>0.002557400002266904</v>
       </c>
       <c r="D16">
-        <v>0.01841142494049644</v>
+        <v>0.01841142243223041</v>
       </c>
       <c r="E16">
-        <v>0.01601489450356125</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="F16">
-        <v>0.003163110344040423</v>
+        <v>0.003163109653395089</v>
       </c>
       <c r="G16">
-        <v>0.006574406934414623</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="H16">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="I16">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="J16">
-        <v>0.02492847441380321</v>
+        <v>0.02492846699409918</v>
       </c>
       <c r="K16">
-        <v>0.05256203167809045</v>
+        <v>0.05256202374445092</v>
       </c>
       <c r="L16">
-        <v>0.02352571320258009</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="M16">
-        <v>0.01381399397861884</v>
+        <v>0.01381399542293275</v>
       </c>
       <c r="N16">
-        <v>0.04318895192875026</v>
+        <v>0.04318891737040091</v>
       </c>
       <c r="O16">
-        <v>0.7649931027012866</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="P16">
-        <v>0.002557400191136057</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="Q16">
-        <v>0.01841142494049644</v>
+        <v>0.0184114224322304</v>
       </c>
       <c r="R16">
-        <v>0.01601489450356125</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="S16">
-        <v>0.003163110344040424</v>
+        <v>0.003163109653395091</v>
       </c>
       <c r="T16">
-        <v>0.006574406934414623</v>
+        <v>0.006574380842086466</v>
       </c>
       <c r="U16">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="V16">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="W16">
-        <v>0.02492847441380322</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="X16">
-        <v>0.05256203167809045</v>
+        <v>0.05256202374445092</v>
       </c>
       <c r="Y16">
-        <v>0.02352571320258009</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="Z16">
-        <v>0.01381399397861885</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AA16">
-        <v>0.04318895192875027</v>
+        <v>0.04318891737040092</v>
       </c>
       <c r="AB16">
-        <v>0.7649931027012868</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="AC16">
-        <v>0.002557400191136056</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="AD16">
-        <v>0.01841142494049645</v>
+        <v>0.01841142243223041</v>
       </c>
       <c r="AE16">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="AF16">
-        <v>0.003163110344040424</v>
+        <v>0.00316310965339509</v>
       </c>
       <c r="AG16">
-        <v>0.006574406934414626</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="AH16">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192167</v>
       </c>
       <c r="AI16">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="AJ16">
-        <v>0.02492847441380323</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="AK16">
-        <v>0.05256203167809046</v>
+        <v>0.0525620237444509</v>
       </c>
       <c r="AL16">
-        <v>0.0235257132025801</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="AM16">
-        <v>0.01381399397861886</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AN16">
-        <v>0.04318895192875025</v>
+        <v>0.04318891737040095</v>
       </c>
       <c r="AO16">
-        <v>0.7649931027012867</v>
+        <v>0.7649931937925843</v>
       </c>
       <c r="AP16">
-        <v>0.002557400191136057</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="AQ16">
-        <v>0.01841142494049645</v>
+        <v>0.0184114224322304</v>
       </c>
       <c r="AR16">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="AS16">
-        <v>0.003163110344040426</v>
+        <v>0.00316310965339509</v>
       </c>
       <c r="AT16">
-        <v>0.006574406934414625</v>
+        <v>0.006574380842086462</v>
       </c>
       <c r="AU16">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="AV16">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="AW16">
-        <v>0.02492847441380323</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="AX16">
-        <v>0.05256203167809048</v>
+        <v>0.05256202374445092</v>
       </c>
       <c r="AY16">
-        <v>0.0235257132025801</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="AZ16">
-        <v>0.01381399397861886</v>
+        <v>0.01381399542293273</v>
       </c>
       <c r="BA16">
-        <v>0.04318895192875026</v>
+        <v>0.04318891737040093</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="B17">
-        <v>0.7649931027012867</v>
+        <v>0.7649931937925842</v>
       </c>
       <c r="C17">
-        <v>0.002557400191136057</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="D17">
-        <v>0.01841142494049644</v>
+        <v>0.0184114224322304</v>
       </c>
       <c r="E17">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="F17">
-        <v>0.003163110344040426</v>
+        <v>0.003163109653395089</v>
       </c>
       <c r="G17">
-        <v>0.006574406934414623</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="H17">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="I17">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="J17">
-        <v>0.02492847441380322</v>
+        <v>0.02492846699409918</v>
       </c>
       <c r="K17">
-        <v>0.05256203167809047</v>
+        <v>0.05256202374445091</v>
       </c>
       <c r="L17">
-        <v>0.0235257132025801</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="M17">
-        <v>0.01381399397861885</v>
+        <v>0.01381399542293275</v>
       </c>
       <c r="N17">
-        <v>0.04318895192875027</v>
+        <v>0.04318891737040091</v>
       </c>
       <c r="O17">
-        <v>0.7649931027012867</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="P17">
-        <v>0.002557400191136056</v>
+        <v>0.002557400002266904</v>
       </c>
       <c r="Q17">
-        <v>0.01841142494049644</v>
+        <v>0.01841142243223041</v>
       </c>
       <c r="R17">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="S17">
-        <v>0.003163110344040424</v>
+        <v>0.003163109653395089</v>
       </c>
       <c r="T17">
-        <v>0.006574406934414626</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="U17">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="V17">
-        <v>0.01482312680998479</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="W17">
-        <v>0.02492847441380324</v>
+        <v>0.02492846699409916</v>
       </c>
       <c r="X17">
-        <v>0.05256203167809046</v>
+        <v>0.05256202374445092</v>
       </c>
       <c r="Y17">
-        <v>0.02352571320258011</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="Z17">
-        <v>0.01381399397861886</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AA17">
-        <v>0.04318895192875023</v>
+        <v>0.04318891737040093</v>
       </c>
       <c r="AB17">
-        <v>0.7649931027012868</v>
+        <v>0.7649931937925843</v>
       </c>
       <c r="AC17">
-        <v>0.002557400191136056</v>
+        <v>0.002557400002266906</v>
       </c>
       <c r="AD17">
-        <v>0.01841142494049644</v>
+        <v>0.0184114224322304</v>
       </c>
       <c r="AE17">
-        <v>0.01601489450356126</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="AF17">
-        <v>0.003163110344040424</v>
+        <v>0.003163109653395089</v>
       </c>
       <c r="AG17">
-        <v>0.006574406934414627</v>
+        <v>0.006574380842086464</v>
       </c>
       <c r="AH17">
-        <v>0.01544336837323678</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="AI17">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="AJ17">
-        <v>0.02492847441380323</v>
+        <v>0.02492846699409918</v>
       </c>
       <c r="AK17">
-        <v>0.05256203167809046</v>
+        <v>0.05256202374445092</v>
       </c>
       <c r="AL17">
-        <v>0.0235257132025801</v>
+        <v>0.02352569466408277</v>
       </c>
       <c r="AM17">
-        <v>0.01381399397861885</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AN17">
-        <v>0.04318895192875025</v>
+        <v>0.04318891737040091</v>
       </c>
       <c r="AO17">
-        <v>0.7649931027012867</v>
+        <v>0.764993193792584</v>
       </c>
       <c r="AP17">
-        <v>0.002557400191136056</v>
+        <v>0.002557400002266904</v>
       </c>
       <c r="AQ17">
-        <v>0.01841142494049643</v>
+        <v>0.0184114224322304</v>
       </c>
       <c r="AR17">
-        <v>0.01601489450356125</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="AS17">
-        <v>0.003163110344040422</v>
+        <v>0.003163109653395087</v>
       </c>
       <c r="AT17">
-        <v>0.006574406934414623</v>
+        <v>0.006574380842086462</v>
       </c>
       <c r="AU17">
-        <v>0.01544336837323677</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="AV17">
-        <v>0.01482312680998478</v>
+        <v>0.01482312425963607</v>
       </c>
       <c r="AW17">
-        <v>0.02492847441380322</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="AX17">
-        <v>0.05256203167809045</v>
+        <v>0.05256202374445089</v>
       </c>
       <c r="AY17">
-        <v>0.02352571320258009</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="AZ17">
-        <v>0.01381399397861885</v>
+        <v>0.01381399542293273</v>
       </c>
       <c r="BA17">
-        <v>0.04318895192875025</v>
+        <v>0.04318891737040093</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B18">
+        <v>0.7649931937925842</v>
+      </c>
+      <c r="C18">
+        <v>0.002557400002266905</v>
+      </c>
+      <c r="D18">
+        <v>0.0184114224322304</v>
+      </c>
+      <c r="E18">
+        <v>0.01601489011991256</v>
+      </c>
+      <c r="F18">
+        <v>0.00316310965339509</v>
+      </c>
+      <c r="G18">
+        <v>0.006574380842086463</v>
+      </c>
+      <c r="H18">
+        <v>0.01544338070192167</v>
+      </c>
+      <c r="I18">
+        <v>0.01482312425963608</v>
+      </c>
+      <c r="J18">
+        <v>0.02492846699409917</v>
+      </c>
+      <c r="K18">
+        <v>0.0525620237444509</v>
+      </c>
+      <c r="L18">
+        <v>0.02352569466408276</v>
+      </c>
+      <c r="M18">
+        <v>0.01381399542293274</v>
+      </c>
+      <c r="N18">
+        <v>0.04318891737040093</v>
+      </c>
+      <c r="O18">
+        <v>0.7649931937925843</v>
+      </c>
+      <c r="P18">
+        <v>0.002557400002266905</v>
+      </c>
+      <c r="Q18">
+        <v>0.0184114224322304</v>
+      </c>
+      <c r="R18">
+        <v>0.01601489011991256</v>
+      </c>
+      <c r="S18">
+        <v>0.003163109653395089</v>
+      </c>
+      <c r="T18">
+        <v>0.006574380842086459</v>
+      </c>
+      <c r="U18">
+        <v>0.01544338070192167</v>
+      </c>
+      <c r="V18">
+        <v>0.01482312425963607</v>
+      </c>
+      <c r="W18">
+        <v>0.02492846699409917</v>
+      </c>
+      <c r="X18">
+        <v>0.0525620237444509</v>
+      </c>
+      <c r="Y18">
+        <v>0.02352569466408276</v>
+      </c>
+      <c r="Z18">
+        <v>0.01381399542293274</v>
+      </c>
+      <c r="AA18">
+        <v>0.04318891737040092</v>
+      </c>
+      <c r="AB18">
+        <v>0.7649931937925845</v>
+      </c>
+      <c r="AC18">
+        <v>0.002557400002266905</v>
+      </c>
+      <c r="AD18">
+        <v>0.01841142243223041</v>
+      </c>
+      <c r="AE18">
+        <v>0.01601489011991256</v>
+      </c>
+      <c r="AF18">
+        <v>0.003163109653395088</v>
+      </c>
+      <c r="AG18">
+        <v>0.00657438084208646</v>
+      </c>
+      <c r="AH18">
+        <v>0.01544338070192167</v>
+      </c>
+      <c r="AI18">
+        <v>0.01482312425963607</v>
+      </c>
+      <c r="AJ18">
+        <v>0.02492846699409917</v>
+      </c>
+      <c r="AK18">
+        <v>0.0525620237444509</v>
+      </c>
+      <c r="AL18">
+        <v>0.02352569466408276</v>
+      </c>
+      <c r="AM18">
+        <v>0.01381399542293274</v>
+      </c>
+      <c r="AN18">
+        <v>0.0431889173704009</v>
+      </c>
+      <c r="AO18">
+        <v>0.7649931937925843</v>
+      </c>
+      <c r="AP18">
+        <v>0.002557400002266906</v>
+      </c>
+      <c r="AQ18">
+        <v>0.0184114224322304</v>
+      </c>
+      <c r="AR18">
+        <v>0.01601489011991257</v>
+      </c>
+      <c r="AS18">
+        <v>0.003163109653395089</v>
+      </c>
+      <c r="AT18">
+        <v>0.006574380842086464</v>
+      </c>
+      <c r="AU18">
+        <v>0.01544338070192168</v>
+      </c>
+      <c r="AV18">
+        <v>0.01482312425963608</v>
+      </c>
+      <c r="AW18">
+        <v>0.02492846699409918</v>
+      </c>
+      <c r="AX18">
+        <v>0.05256202374445091</v>
+      </c>
+      <c r="AY18">
+        <v>0.02352569466408276</v>
+      </c>
+      <c r="AZ18">
+        <v>0.01381399542293274</v>
+      </c>
+      <c r="BA18">
+        <v>0.04318891737040092</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53">
+      <c r="A19" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B19">
+        <v>0.7649931937925843</v>
+      </c>
+      <c r="C19">
+        <v>0.002557400002266906</v>
+      </c>
+      <c r="D19">
+        <v>0.01841142243223042</v>
+      </c>
+      <c r="E19">
+        <v>0.01601489011991256</v>
+      </c>
+      <c r="F19">
+        <v>0.00316310965339509</v>
+      </c>
+      <c r="G19">
+        <v>0.006574380842086463</v>
+      </c>
+      <c r="H19">
+        <v>0.01544338070192167</v>
+      </c>
+      <c r="I19">
+        <v>0.01482312425963607</v>
+      </c>
+      <c r="J19">
+        <v>0.02492846699409917</v>
+      </c>
+      <c r="K19">
+        <v>0.05256202374445092</v>
+      </c>
+      <c r="L19">
+        <v>0.02352569466408276</v>
+      </c>
+      <c r="M19">
+        <v>0.01381399542293274</v>
+      </c>
+      <c r="N19">
+        <v>0.04318891737040092</v>
+      </c>
+      <c r="O19">
+        <v>0.7649931937925843</v>
+      </c>
+      <c r="P19">
+        <v>0.002557400002266906</v>
+      </c>
+      <c r="Q19">
+        <v>0.01841142243223042</v>
+      </c>
+      <c r="R19">
+        <v>0.01601489011991257</v>
+      </c>
+      <c r="S19">
+        <v>0.00316310965339509</v>
+      </c>
+      <c r="T19">
+        <v>0.006574380842086463</v>
+      </c>
+      <c r="U19">
+        <v>0.01544338070192168</v>
+      </c>
+      <c r="V19">
+        <v>0.01482312425963608</v>
+      </c>
+      <c r="W19">
+        <v>0.02492846699409917</v>
+      </c>
+      <c r="X19">
+        <v>0.05256202374445092</v>
+      </c>
+      <c r="Y19">
+        <v>0.02352569466408276</v>
+      </c>
+      <c r="Z19">
+        <v>0.01381399542293274</v>
+      </c>
+      <c r="AA19">
+        <v>0.04318891737040091</v>
+      </c>
+      <c r="AB19">
+        <v>0.7649931937925842</v>
+      </c>
+      <c r="AC19">
+        <v>0.002557400002266906</v>
+      </c>
+      <c r="AD19">
+        <v>0.0184114224322304</v>
+      </c>
+      <c r="AE19">
+        <v>0.01601489011991257</v>
+      </c>
+      <c r="AF19">
+        <v>0.003163109653395089</v>
+      </c>
+      <c r="AG19">
+        <v>0.006574380842086463</v>
+      </c>
+      <c r="AH19">
+        <v>0.01544338070192168</v>
+      </c>
+      <c r="AI19">
+        <v>0.01482312425963608</v>
+      </c>
+      <c r="AJ19">
+        <v>0.02492846699409918</v>
+      </c>
+      <c r="AK19">
+        <v>0.05256202374445091</v>
+      </c>
+      <c r="AL19">
+        <v>0.02352569466408276</v>
+      </c>
+      <c r="AM19">
+        <v>0.01381399542293275</v>
+      </c>
+      <c r="AN19">
+        <v>0.04318891737040093</v>
+      </c>
+      <c r="AO19">
+        <v>0.7649931937925843</v>
+      </c>
+      <c r="AP19">
+        <v>0.002557400002266905</v>
+      </c>
+      <c r="AQ19">
+        <v>0.0184114224322304</v>
+      </c>
+      <c r="AR19">
+        <v>0.01601489011991256</v>
+      </c>
+      <c r="AS19">
+        <v>0.003163109653395089</v>
+      </c>
+      <c r="AT19">
+        <v>0.006574380842086463</v>
+      </c>
+      <c r="AU19">
+        <v>0.01544338070192168</v>
+      </c>
+      <c r="AV19">
+        <v>0.01482312425963607</v>
+      </c>
+      <c r="AW19">
+        <v>0.02492846699409917</v>
+      </c>
+      <c r="AX19">
+        <v>0.0525620237444509</v>
+      </c>
+      <c r="AY19">
+        <v>0.02352569466408276</v>
+      </c>
+      <c r="AZ19">
+        <v>0.01381399542293274</v>
+      </c>
+      <c r="BA19">
+        <v>0.04318891737040093</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53">
+      <c r="A20" s="1">
         <v>2030</v>
       </c>
-      <c r="B18">
-        <v>0.7649931027012868</v>
-      </c>
-      <c r="C18">
-        <v>0.002557400191136056</v>
-      </c>
-      <c r="D18">
-        <v>0.01841142494049643</v>
-      </c>
-      <c r="E18">
-        <v>0.01601489450356126</v>
-      </c>
-      <c r="F18">
-        <v>0.003163110344040424</v>
-      </c>
-      <c r="G18">
-        <v>0.006574406934414627</v>
-      </c>
-      <c r="H18">
-        <v>0.01544336837323678</v>
-      </c>
-      <c r="I18">
-        <v>0.01482312680998479</v>
-      </c>
-      <c r="J18">
-        <v>0.02492847441380323</v>
-      </c>
-      <c r="K18">
-        <v>0.05256203167809048</v>
-      </c>
-      <c r="L18">
-        <v>0.02352571320258011</v>
-      </c>
-      <c r="M18">
-        <v>0.01381399397861886</v>
-      </c>
-      <c r="N18">
-        <v>0.04318895192875023</v>
-      </c>
-      <c r="O18">
-        <v>0.7649931027012867</v>
-      </c>
-      <c r="P18">
-        <v>0.002557400191136058</v>
-      </c>
-      <c r="Q18">
-        <v>0.01841142494049644</v>
-      </c>
-      <c r="R18">
-        <v>0.01601489450356126</v>
-      </c>
-      <c r="S18">
-        <v>0.003163110344040424</v>
-      </c>
-      <c r="T18">
-        <v>0.006574406934414625</v>
-      </c>
-      <c r="U18">
-        <v>0.01544336837323678</v>
-      </c>
-      <c r="V18">
-        <v>0.01482312680998478</v>
-      </c>
-      <c r="W18">
-        <v>0.02492847441380323</v>
-      </c>
-      <c r="X18">
-        <v>0.05256203167809046</v>
-      </c>
-      <c r="Y18">
-        <v>0.02352571320258009</v>
-      </c>
-      <c r="Z18">
-        <v>0.01381399397861886</v>
-      </c>
-      <c r="AA18">
-        <v>0.04318895192875027</v>
-      </c>
-      <c r="AB18">
-        <v>0.7649931027012867</v>
-      </c>
-      <c r="AC18">
-        <v>0.002557400191136056</v>
-      </c>
-      <c r="AD18">
-        <v>0.01841142494049644</v>
-      </c>
-      <c r="AE18">
-        <v>0.01601489450356125</v>
-      </c>
-      <c r="AF18">
-        <v>0.003163110344040422</v>
-      </c>
-      <c r="AG18">
-        <v>0.006574406934414622</v>
-      </c>
-      <c r="AH18">
-        <v>0.01544336837323677</v>
-      </c>
-      <c r="AI18">
-        <v>0.01482312680998477</v>
-      </c>
-      <c r="AJ18">
-        <v>0.02492847441380321</v>
-      </c>
-      <c r="AK18">
-        <v>0.05256203167809045</v>
-      </c>
-      <c r="AL18">
-        <v>0.02352571320258009</v>
-      </c>
-      <c r="AM18">
-        <v>0.01381399397861885</v>
-      </c>
-      <c r="AN18">
-        <v>0.04318895192875023</v>
-      </c>
-      <c r="AO18">
-        <v>0.7649931027012866</v>
-      </c>
-      <c r="AP18">
-        <v>0.002557400191136056</v>
-      </c>
-      <c r="AQ18">
-        <v>0.01841142494049644</v>
-      </c>
-      <c r="AR18">
-        <v>0.01601489450356125</v>
-      </c>
-      <c r="AS18">
-        <v>0.003163110344040421</v>
-      </c>
-      <c r="AT18">
-        <v>0.006574406934414623</v>
-      </c>
-      <c r="AU18">
-        <v>0.01544336837323677</v>
-      </c>
-      <c r="AV18">
-        <v>0.01482312680998478</v>
-      </c>
-      <c r="AW18">
-        <v>0.02492847441380322</v>
-      </c>
-      <c r="AX18">
-        <v>0.05256203167809044</v>
-      </c>
-      <c r="AY18">
-        <v>0.02352571320258009</v>
-      </c>
-      <c r="AZ18">
-        <v>0.01381399397861885</v>
-      </c>
-      <c r="BA18">
-        <v>0.04318895192875023</v>
+      <c r="B20">
+        <v>0.7649931937925843</v>
+      </c>
+      <c r="C20">
+        <v>0.002557400002266906</v>
+      </c>
+      <c r="D20">
+        <v>0.01841142243223041</v>
+      </c>
+      <c r="E20">
+        <v>0.01601489011991257</v>
+      </c>
+      <c r="F20">
+        <v>0.003163109653395091</v>
+      </c>
+      <c r="G20">
+        <v>0.006574380842086463</v>
+      </c>
+      <c r="H20">
+        <v>0.01544338070192168</v>
+      </c>
+      <c r="I20">
+        <v>0.01482312425963608</v>
+      </c>
+      <c r="J20">
+        <v>0.02492846699409918</v>
+      </c>
+      <c r="K20">
+        <v>0.05256202374445092</v>
+      </c>
+      <c r="L20">
+        <v>0.02352569466408277</v>
+      </c>
+      <c r="M20">
+        <v>0.01381399542293275</v>
+      </c>
+      <c r="N20">
+        <v>0.04318891737040095</v>
+      </c>
+      <c r="O20">
+        <v>0.7649931937925843</v>
+      </c>
+      <c r="P20">
+        <v>0.002557400002266905</v>
+      </c>
+      <c r="Q20">
+        <v>0.01841142243223041</v>
+      </c>
+      <c r="R20">
+        <v>0.01601489011991256</v>
+      </c>
+      <c r="S20">
+        <v>0.003163109653395088</v>
+      </c>
+      <c r="T20">
+        <v>0.00657438084208646</v>
+      </c>
+      <c r="U20">
+        <v>0.01544338070192167</v>
+      </c>
+      <c r="V20">
+        <v>0.01482312425963607</v>
+      </c>
+      <c r="W20">
+        <v>0.02492846699409916</v>
+      </c>
+      <c r="X20">
+        <v>0.0525620237444509</v>
+      </c>
+      <c r="Y20">
+        <v>0.02352569466408275</v>
+      </c>
+      <c r="Z20">
+        <v>0.01381399542293273</v>
+      </c>
+      <c r="AA20">
+        <v>0.04318891737040093</v>
+      </c>
+      <c r="AB20">
+        <v>0.764993193792584</v>
+      </c>
+      <c r="AC20">
+        <v>0.002557400002266905</v>
+      </c>
+      <c r="AD20">
+        <v>0.01841142243223041</v>
+      </c>
+      <c r="AE20">
+        <v>0.01601489011991256</v>
+      </c>
+      <c r="AF20">
+        <v>0.003163109653395089</v>
+      </c>
+      <c r="AG20">
+        <v>0.006574380842086463</v>
+      </c>
+      <c r="AH20">
+        <v>0.01544338070192167</v>
+      </c>
+      <c r="AI20">
+        <v>0.01482312425963607</v>
+      </c>
+      <c r="AJ20">
+        <v>0.02492846699409917</v>
+      </c>
+      <c r="AK20">
+        <v>0.05256202374445091</v>
+      </c>
+      <c r="AL20">
+        <v>0.02352569466408275</v>
+      </c>
+      <c r="AM20">
+        <v>0.01381399542293274</v>
+      </c>
+      <c r="AN20">
+        <v>0.04318891737040093</v>
+      </c>
+      <c r="AO20">
+        <v>0.7649931937925843</v>
+      </c>
+      <c r="AP20">
+        <v>0.002557400002266905</v>
+      </c>
+      <c r="AQ20">
+        <v>0.01841142243223041</v>
+      </c>
+      <c r="AR20">
+        <v>0.01601489011991256</v>
+      </c>
+      <c r="AS20">
+        <v>0.003163109653395087</v>
+      </c>
+      <c r="AT20">
+        <v>0.006574380842086461</v>
+      </c>
+      <c r="AU20">
+        <v>0.01544338070192167</v>
+      </c>
+      <c r="AV20">
+        <v>0.01482312425963607</v>
+      </c>
+      <c r="AW20">
+        <v>0.02492846699409915</v>
+      </c>
+      <c r="AX20">
+        <v>0.05256202374445089</v>
+      </c>
+      <c r="AY20">
+        <v>0.02352569466408275</v>
+      </c>
+      <c r="AZ20">
+        <v>0.01381399542293273</v>
+      </c>
+      <c r="BA20">
+        <v>0.04318891737040093</v>
       </c>
     </row>
   </sheetData>
